--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E103FE-D38A-2340-A9C5-B98DC74B9FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1590C9A-00D3-404D-8691-109B7346D8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,13 +1084,49 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,16 +1138,91 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1120,117 +1231,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1549,8 +1550,8 @@
   </sheetPr>
   <dimension ref="A1:BY83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1568,240 +1569,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="115" t="s">
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="115" t="s">
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="115" t="s">
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="115" t="s">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="115" t="s">
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="135"/>
+      <c r="W1" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="115" t="s">
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="116"/>
-      <c r="AC1" s="116"/>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="115" t="s">
+      <c r="AB1" s="134"/>
+      <c r="AC1" s="134"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="116"/>
-      <c r="AG1" s="116"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="115" t="s">
+      <c r="AF1" s="134"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="115" t="s">
+      <c r="AJ1" s="134"/>
+      <c r="AK1" s="134"/>
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="116"/>
-      <c r="AO1" s="116"/>
-      <c r="AP1" s="117"/>
-      <c r="AQ1" s="115" t="s">
+      <c r="AN1" s="134"/>
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="116"/>
-      <c r="AS1" s="116"/>
-      <c r="AT1" s="117"/>
-      <c r="AU1" s="137" t="s">
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="139"/>
-      <c r="AY1" s="137" t="s">
+      <c r="AV1" s="128"/>
+      <c r="AW1" s="128"/>
+      <c r="AX1" s="129"/>
+      <c r="AY1" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="139"/>
-      <c r="BC1" s="137" t="s">
+      <c r="AZ1" s="128"/>
+      <c r="BA1" s="128"/>
+      <c r="BB1" s="129"/>
+      <c r="BC1" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="139"/>
-      <c r="BG1" s="157" t="s">
+      <c r="BD1" s="128"/>
+      <c r="BE1" s="128"/>
+      <c r="BF1" s="129"/>
+      <c r="BG1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="116"/>
-      <c r="BI1" s="116"/>
-      <c r="BJ1" s="117"/>
-      <c r="BK1" s="137" t="s">
+      <c r="BH1" s="134"/>
+      <c r="BI1" s="134"/>
+      <c r="BJ1" s="135"/>
+      <c r="BK1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="138"/>
-      <c r="BM1" s="138"/>
-      <c r="BN1" s="139"/>
-      <c r="BO1" s="137" t="s">
+      <c r="BL1" s="128"/>
+      <c r="BM1" s="128"/>
+      <c r="BN1" s="129"/>
+      <c r="BO1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="138"/>
-      <c r="BQ1" s="138"/>
-      <c r="BR1" s="139"/>
-      <c r="BS1" s="137" t="s">
+      <c r="BP1" s="128"/>
+      <c r="BQ1" s="128"/>
+      <c r="BR1" s="129"/>
+      <c r="BS1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="138"/>
-      <c r="BU1" s="138"/>
-      <c r="BV1" s="139"/>
+      <c r="BT1" s="128"/>
+      <c r="BU1" s="128"/>
+      <c r="BV1" s="129"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="140">
+      <c r="A2" s="163"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="154">
         <v>43948</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="140">
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="154">
         <v>43949</v>
       </c>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="140">
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="154">
         <v>43950</v>
       </c>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="140">
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="154">
         <v>43951</v>
       </c>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="140">
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="154">
         <v>43952</v>
       </c>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="140">
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="154">
         <v>43953</v>
       </c>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="140">
+      <c r="X2" s="137"/>
+      <c r="Y2" s="137"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="154">
         <v>43954</v>
       </c>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="140">
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="154">
         <v>43955</v>
       </c>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="140">
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="154">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="141"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="140">
+      <c r="AJ2" s="137"/>
+      <c r="AK2" s="137"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="154">
         <v>43957</v>
       </c>
-      <c r="AN2" s="141"/>
-      <c r="AO2" s="141"/>
-      <c r="AP2" s="142"/>
-      <c r="AQ2" s="140">
+      <c r="AN2" s="137"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="154">
         <v>43958</v>
       </c>
-      <c r="AR2" s="141"/>
-      <c r="AS2" s="141"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="118">
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="137"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="130">
         <v>43959</v>
       </c>
-      <c r="AV2" s="119"/>
-      <c r="AW2" s="119"/>
-      <c r="AX2" s="120"/>
-      <c r="AY2" s="118">
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="132"/>
+      <c r="AY2" s="130">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="120"/>
-      <c r="BC2" s="118">
+      <c r="AZ2" s="131"/>
+      <c r="BA2" s="131"/>
+      <c r="BB2" s="132"/>
+      <c r="BC2" s="130">
         <v>43961</v>
       </c>
-      <c r="BD2" s="119"/>
-      <c r="BE2" s="119"/>
-      <c r="BF2" s="120"/>
-      <c r="BG2" s="158">
+      <c r="BD2" s="131"/>
+      <c r="BE2" s="131"/>
+      <c r="BF2" s="132"/>
+      <c r="BG2" s="136">
         <v>43962</v>
       </c>
-      <c r="BH2" s="141"/>
-      <c r="BI2" s="141"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="118">
+      <c r="BH2" s="137"/>
+      <c r="BI2" s="137"/>
+      <c r="BJ2" s="138"/>
+      <c r="BK2" s="130">
         <v>43963</v>
       </c>
-      <c r="BL2" s="119"/>
-      <c r="BM2" s="119"/>
-      <c r="BN2" s="120"/>
-      <c r="BO2" s="118">
+      <c r="BL2" s="131"/>
+      <c r="BM2" s="131"/>
+      <c r="BN2" s="132"/>
+      <c r="BO2" s="130">
         <v>43964</v>
       </c>
-      <c r="BP2" s="119"/>
-      <c r="BQ2" s="119"/>
-      <c r="BR2" s="120"/>
-      <c r="BS2" s="118">
+      <c r="BP2" s="131"/>
+      <c r="BQ2" s="131"/>
+      <c r="BR2" s="132"/>
+      <c r="BS2" s="130">
         <v>43965</v>
       </c>
-      <c r="BT2" s="119"/>
-      <c r="BU2" s="119"/>
-      <c r="BV2" s="119"/>
+      <c r="BT2" s="131"/>
+      <c r="BU2" s="131"/>
+      <c r="BV2" s="131"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="148"/>
+      <c r="A3" s="163"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2021,10 +2022,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121">
+      <c r="A4" s="157">
         <v>1</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="149" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2102,8 +2103,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="124"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2179,10 +2180,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134">
+      <c r="A6" s="152">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="136" t="s">
+      <c r="B6" s="122" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2260,8 +2261,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="143"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2337,10 +2338,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121">
+      <c r="A8" s="157">
         <v>2</v>
       </c>
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="149" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2418,8 +2419,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="124"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2495,10 +2496,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134">
+      <c r="A10" s="152">
         <v>2.1</v>
       </c>
-      <c r="B10" s="136" t="s">
+      <c r="B10" s="122" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2576,8 +2577,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="132"/>
+      <c r="A11" s="153"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2653,10 +2654,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135">
+      <c r="A12" s="153">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="144" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2734,8 +2735,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="146"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2811,10 +2812,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="121">
+      <c r="A14" s="157">
         <v>3</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="149" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2892,14 +2893,14 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="155"/>
+      <c r="B15" s="156"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
       <c r="F15" s="109"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="16"/>
@@ -2969,10 +2970,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134">
+      <c r="A16" s="152">
         <v>3.1</v>
       </c>
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="122" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3050,14 +3051,14 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="130"/>
+      <c r="A17" s="153"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
       <c r="F17" s="111"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="110"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="6"/>
@@ -3127,10 +3128,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135">
+      <c r="A18" s="153">
         <v>3.2</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="144" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3208,8 +3209,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="155"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3285,10 +3286,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="144">
+      <c r="A20" s="148">
         <v>4</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="149" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3366,14 +3367,14 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="124"/>
+      <c r="A21" s="146"/>
+      <c r="B21" s="156"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
+      <c r="H21" s="107"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
       <c r="K21" s="16"/>
@@ -3443,10 +3444,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="127">
+      <c r="A22" s="120">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="158" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3524,14 +3525,14 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="128"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
       <c r="K23" s="6"/>
@@ -3601,10 +3602,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="128">
+      <c r="A24" s="145">
         <v>4.2</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="144" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3682,14 +3683,14 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="133"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
+      <c r="H25" s="164"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
       <c r="K25" s="10"/>
@@ -3759,10 +3760,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144">
+      <c r="A26" s="148">
         <v>5</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="149" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3840,8 +3841,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="128"/>
-      <c r="B27" s="156"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3917,10 +3918,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128">
+      <c r="A28" s="145">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="144" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -3998,8 +3999,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="128"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4075,10 +4076,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="128">
+      <c r="A30" s="145">
         <v>5.2</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="144" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4156,8 +4157,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="128"/>
-      <c r="B31" s="130"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4233,10 +4234,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="128">
+      <c r="A32" s="145">
         <v>5.3</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="144" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4314,8 +4315,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="128"/>
-      <c r="B33" s="132"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="144"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4391,10 +4392,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="128">
+      <c r="A34" s="145">
         <v>5.4</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="144" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4472,8 +4473,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="128"/>
-      <c r="B35" s="132"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4549,10 +4550,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="155">
+      <c r="A36" s="143">
         <v>5.5</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="144" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4630,8 +4631,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="155"/>
-      <c r="B37" s="132"/>
+      <c r="A37" s="143"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4707,10 +4708,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="155">
+      <c r="A38" s="143">
         <v>5.6</v>
       </c>
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="144" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4788,8 +4789,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="155"/>
-      <c r="B39" s="132"/>
+      <c r="A39" s="143"/>
+      <c r="B39" s="144"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4865,10 +4866,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="155">
+      <c r="A40" s="143">
         <v>5.7</v>
       </c>
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="144" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4946,8 +4947,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="155"/>
-      <c r="B41" s="132"/>
+      <c r="A41" s="143"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5023,10 +5024,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128">
+      <c r="A42" s="145">
         <v>5.8</v>
       </c>
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="144" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5104,8 +5105,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="145"/>
-      <c r="B43" s="146"/>
+      <c r="A43" s="146"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5181,10 +5182,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="144">
+      <c r="A44" s="148">
         <v>6</v>
       </c>
-      <c r="B44" s="149" t="s">
+      <c r="B44" s="117" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5262,8 +5263,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="145"/>
-      <c r="B45" s="150"/>
+      <c r="A45" s="146"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5339,10 +5340,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="151">
+      <c r="A46" s="141">
         <v>6.1</v>
       </c>
-      <c r="B46" s="153" t="s">
+      <c r="B46" s="142" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5420,8 +5421,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="152"/>
-      <c r="B47" s="154"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5497,10 +5498,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="160">
+      <c r="A48" s="119">
         <v>7</v>
       </c>
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="117" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5578,8 +5579,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="152"/>
-      <c r="B49" s="150"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="118"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5655,10 +5656,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="160">
+      <c r="A50" s="119">
         <v>7.1</v>
       </c>
-      <c r="B50" s="161" t="s">
+      <c r="B50" s="121" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5736,8 +5737,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="127"/>
-      <c r="B51" s="136"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5813,10 +5814,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="131">
+      <c r="A52" s="123">
         <v>7.2</v>
       </c>
-      <c r="B52" s="159" t="s">
+      <c r="B52" s="124" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5894,8 +5895,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="127"/>
-      <c r="B53" s="136"/>
+      <c r="A53" s="120"/>
+      <c r="B53" s="122"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5971,10 +5972,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="131">
+      <c r="A54" s="123">
         <v>7.3</v>
       </c>
-      <c r="B54" s="159" t="s">
+      <c r="B54" s="124" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6052,8 +6053,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="127"/>
-      <c r="B55" s="136"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="122"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6129,10 +6130,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="131">
+      <c r="A56" s="123">
         <v>7.4</v>
       </c>
-      <c r="B56" s="159" t="s">
+      <c r="B56" s="124" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6210,8 +6211,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="152"/>
-      <c r="B57" s="154"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6287,10 +6288,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="160">
+      <c r="A58" s="119">
         <v>8</v>
       </c>
-      <c r="B58" s="149" t="s">
+      <c r="B58" s="117" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6368,8 +6369,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="152"/>
-      <c r="B59" s="150"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="118"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6445,10 +6446,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="160">
+      <c r="A60" s="119">
         <v>8.1</v>
       </c>
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="121" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6526,8 +6527,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="127"/>
-      <c r="B61" s="136"/>
+      <c r="A61" s="120"/>
+      <c r="B61" s="122"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6603,10 +6604,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="131">
+      <c r="A62" s="123">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="159" t="s">
+      <c r="B62" s="124" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6684,8 +6685,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="127"/>
-      <c r="B63" s="136"/>
+      <c r="A63" s="120"/>
+      <c r="B63" s="122"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6761,10 +6762,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="131">
+      <c r="A64" s="123">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="159" t="s">
+      <c r="B64" s="124" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6842,8 +6843,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="127"/>
-      <c r="B65" s="136"/>
+      <c r="A65" s="120"/>
+      <c r="B65" s="122"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6919,10 +6920,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="131">
+      <c r="A66" s="123">
         <v>8.4</v>
       </c>
-      <c r="B66" s="159" t="s">
+      <c r="B66" s="124" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7000,8 +7001,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="152"/>
-      <c r="B67" s="154"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7077,10 +7078,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="162">
+      <c r="A68" s="115">
         <v>9</v>
       </c>
-      <c r="B68" s="149" t="s">
+      <c r="B68" s="117" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7158,8 +7159,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="163"/>
-      <c r="B69" s="150"/>
+      <c r="A69" s="116"/>
+      <c r="B69" s="118"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7235,10 +7236,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="162">
+      <c r="A70" s="115">
         <v>10</v>
       </c>
-      <c r="B70" s="149" t="s">
+      <c r="B70" s="117" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7316,8 +7317,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="163"/>
-      <c r="B71" s="150"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="118"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7393,10 +7394,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="162">
+      <c r="A72" s="115">
         <v>11</v>
       </c>
-      <c r="B72" s="149" t="s">
+      <c r="B72" s="117" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7474,14 +7475,14 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="163"/>
-      <c r="B73" s="150"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="118"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
+      <c r="H73" s="107"/>
       <c r="I73" s="31"/>
       <c r="J73" s="32"/>
       <c r="K73" s="16"/>
@@ -7551,10 +7552,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="162">
+      <c r="A74" s="115">
         <v>12</v>
       </c>
-      <c r="B74" s="149" t="s">
+      <c r="B74" s="117" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7632,8 +7633,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="163"/>
-      <c r="B75" s="150"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="118"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7744,44 +7745,54 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="B1:B3"/>
@@ -7806,54 +7817,44 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1590C9A-00D3-404D-8691-109B7346D8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CD024-3FD5-8945-8ACC-28B3660495DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-460" yWindow="660" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1084,49 +1084,20 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,16 +1109,28 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1156,82 +1139,99 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1550,8 +1550,8 @@
   </sheetPr>
   <dimension ref="A1:BY83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1569,240 +1569,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="160" t="s">
+      <c r="C1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="160" t="s">
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="160" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="160" t="s">
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="160" t="s">
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="160" t="s">
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="160" t="s">
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="160" t="s">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="160" t="s">
+      <c r="AF1" s="119"/>
+      <c r="AG1" s="119"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="160" t="s">
+      <c r="AJ1" s="119"/>
+      <c r="AK1" s="119"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="160" t="s">
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="119"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="127" t="s">
+      <c r="AR1" s="119"/>
+      <c r="AS1" s="119"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="128"/>
-      <c r="AW1" s="128"/>
-      <c r="AX1" s="129"/>
-      <c r="AY1" s="127" t="s">
+      <c r="AV1" s="129"/>
+      <c r="AW1" s="129"/>
+      <c r="AX1" s="130"/>
+      <c r="AY1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="128"/>
-      <c r="BA1" s="128"/>
-      <c r="BB1" s="129"/>
-      <c r="BC1" s="127" t="s">
+      <c r="AZ1" s="129"/>
+      <c r="BA1" s="129"/>
+      <c r="BB1" s="130"/>
+      <c r="BC1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="128"/>
-      <c r="BE1" s="128"/>
-      <c r="BF1" s="129"/>
-      <c r="BG1" s="133" t="s">
+      <c r="BD1" s="129"/>
+      <c r="BE1" s="129"/>
+      <c r="BF1" s="130"/>
+      <c r="BG1" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="134"/>
-      <c r="BI1" s="134"/>
-      <c r="BJ1" s="135"/>
-      <c r="BK1" s="127" t="s">
+      <c r="BH1" s="119"/>
+      <c r="BI1" s="119"/>
+      <c r="BJ1" s="120"/>
+      <c r="BK1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="128"/>
-      <c r="BM1" s="128"/>
-      <c r="BN1" s="129"/>
-      <c r="BO1" s="127" t="s">
+      <c r="BL1" s="129"/>
+      <c r="BM1" s="129"/>
+      <c r="BN1" s="130"/>
+      <c r="BO1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="128"/>
-      <c r="BQ1" s="128"/>
-      <c r="BR1" s="129"/>
-      <c r="BS1" s="127" t="s">
+      <c r="BP1" s="129"/>
+      <c r="BQ1" s="129"/>
+      <c r="BR1" s="130"/>
+      <c r="BS1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="128"/>
-      <c r="BU1" s="128"/>
-      <c r="BV1" s="129"/>
+      <c r="BT1" s="129"/>
+      <c r="BU1" s="129"/>
+      <c r="BV1" s="130"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="154">
+      <c r="A2" s="127"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="131">
         <v>43948</v>
       </c>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="154">
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="131">
         <v>43949</v>
       </c>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="154">
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="131">
         <v>43950</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="154">
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="131">
         <v>43951</v>
       </c>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="154">
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="131">
         <v>43952</v>
       </c>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="154">
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="131">
         <v>43953</v>
       </c>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="154">
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="133"/>
+      <c r="AA2" s="131">
         <v>43954</v>
       </c>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="154">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="131">
         <v>43955</v>
       </c>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="138"/>
-      <c r="AI2" s="154">
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="131">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="154">
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="131">
         <v>43957</v>
       </c>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="154">
+      <c r="AN2" s="132"/>
+      <c r="AO2" s="132"/>
+      <c r="AP2" s="133"/>
+      <c r="AQ2" s="131">
         <v>43958</v>
       </c>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="138"/>
-      <c r="AU2" s="130">
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="133"/>
+      <c r="AU2" s="121">
         <v>43959</v>
       </c>
-      <c r="AV2" s="131"/>
-      <c r="AW2" s="131"/>
-      <c r="AX2" s="132"/>
-      <c r="AY2" s="130">
+      <c r="AV2" s="122"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="121">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="131"/>
-      <c r="BA2" s="131"/>
-      <c r="BB2" s="132"/>
-      <c r="BC2" s="130">
+      <c r="AZ2" s="122"/>
+      <c r="BA2" s="122"/>
+      <c r="BB2" s="123"/>
+      <c r="BC2" s="121">
         <v>43961</v>
       </c>
-      <c r="BD2" s="131"/>
-      <c r="BE2" s="131"/>
-      <c r="BF2" s="132"/>
-      <c r="BG2" s="136">
+      <c r="BD2" s="122"/>
+      <c r="BE2" s="122"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="159">
         <v>43962</v>
       </c>
-      <c r="BH2" s="137"/>
-      <c r="BI2" s="137"/>
-      <c r="BJ2" s="138"/>
-      <c r="BK2" s="130">
+      <c r="BH2" s="132"/>
+      <c r="BI2" s="132"/>
+      <c r="BJ2" s="133"/>
+      <c r="BK2" s="121">
         <v>43963</v>
       </c>
-      <c r="BL2" s="131"/>
-      <c r="BM2" s="131"/>
-      <c r="BN2" s="132"/>
-      <c r="BO2" s="130">
+      <c r="BL2" s="122"/>
+      <c r="BM2" s="122"/>
+      <c r="BN2" s="123"/>
+      <c r="BO2" s="121">
         <v>43964</v>
       </c>
-      <c r="BP2" s="131"/>
-      <c r="BQ2" s="131"/>
-      <c r="BR2" s="132"/>
-      <c r="BS2" s="130">
+      <c r="BP2" s="122"/>
+      <c r="BQ2" s="122"/>
+      <c r="BR2" s="123"/>
+      <c r="BS2" s="121">
         <v>43965</v>
       </c>
-      <c r="BT2" s="131"/>
-      <c r="BU2" s="131"/>
-      <c r="BV2" s="131"/>
+      <c r="BT2" s="122"/>
+      <c r="BU2" s="122"/>
+      <c r="BV2" s="122"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163"/>
-      <c r="B3" s="140"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="149"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2022,10 +2022,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="157">
+      <c r="A4" s="124">
         <v>1</v>
       </c>
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="116" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2103,8 +2103,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="155"/>
-      <c r="B5" s="156"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2180,10 +2180,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="152">
+      <c r="A6" s="134">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="140" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2261,8 +2261,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2338,10 +2338,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="157">
+      <c r="A8" s="124">
         <v>2</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="116" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2419,8 +2419,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="155"/>
-      <c r="B9" s="156"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2496,10 +2496,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="152">
+      <c r="A10" s="134">
         <v>2.1</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="140" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2577,8 +2577,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="153"/>
-      <c r="B11" s="144"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2654,10 +2654,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="153">
+      <c r="A12" s="135">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="138" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2735,8 +2735,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155"/>
-      <c r="B13" s="147"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2812,10 +2812,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="157">
+      <c r="A14" s="124">
         <v>3</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="116" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2893,8 +2893,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="155"/>
-      <c r="B15" s="156"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
@@ -2970,10 +2970,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="152">
+      <c r="A16" s="134">
         <v>3.1</v>
       </c>
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="140" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3051,8 +3051,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="153"/>
-      <c r="B17" s="151"/>
+      <c r="A17" s="135"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
@@ -3128,10 +3128,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="153">
+      <c r="A18" s="135">
         <v>3.2</v>
       </c>
-      <c r="B18" s="144" t="s">
+      <c r="B18" s="138" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3209,8 +3209,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155"/>
-      <c r="B19" s="147"/>
+      <c r="A19" s="125"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3286,10 +3286,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="148">
+      <c r="A20" s="136">
         <v>4</v>
       </c>
-      <c r="B20" s="149" t="s">
+      <c r="B20" s="116" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3367,8 +3367,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="146"/>
-      <c r="B21" s="156"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3444,10 +3444,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="120">
+      <c r="A22" s="141">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="143" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3525,8 +3525,8 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="145"/>
-      <c r="B23" s="151"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3602,10 +3602,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="145">
+      <c r="A24" s="142">
         <v>4.2</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="138" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3683,14 +3683,14 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="159"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="164"/>
+      <c r="H25" s="115"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
       <c r="K25" s="10"/>
@@ -3760,10 +3760,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="148">
+      <c r="A26" s="136">
         <v>5</v>
       </c>
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="116" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3841,8 +3841,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="145"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3851,10 +3851,10 @@
       <c r="H27" s="7"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="8"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="111"/>
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="27"/>
@@ -3918,10 +3918,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145">
+      <c r="A28" s="142">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="144" t="s">
+      <c r="B28" s="138" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -3999,8 +3999,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="145"/>
-      <c r="B29" s="151"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4009,8 +4009,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="27"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="7"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="110"/>
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
@@ -4076,10 +4076,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="145">
+      <c r="A30" s="142">
         <v>5.2</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="138" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4157,8 +4157,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="145"/>
-      <c r="B31" s="151"/>
+      <c r="A31" s="142"/>
+      <c r="B31" s="144"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4169,7 +4169,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="110"/>
       <c r="N31" s="8"/>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
@@ -4234,10 +4234,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="145">
+      <c r="A32" s="142">
         <v>5.3</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="138" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4315,8 +4315,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
-      <c r="B33" s="144"/>
+      <c r="A33" s="142"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4327,8 +4327,8 @@
       <c r="J33" s="28"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="8"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="111"/>
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="27"/>
@@ -4392,10 +4392,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="145">
+      <c r="A34" s="142">
         <v>5.4</v>
       </c>
-      <c r="B34" s="144" t="s">
+      <c r="B34" s="138" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4473,8 +4473,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="145"/>
-      <c r="B35" s="144"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="138"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4486,7 +4486,7 @@
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="8"/>
+      <c r="N35" s="111"/>
       <c r="O35" s="6"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="27"/>
@@ -4550,10 +4550,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="143">
+      <c r="A36" s="156">
         <v>5.5</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="138" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4631,8 +4631,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="143"/>
-      <c r="B37" s="144"/>
+      <c r="A37" s="156"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4708,10 +4708,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="143">
+      <c r="A38" s="156">
         <v>5.6</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="138" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4789,8 +4789,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="143"/>
-      <c r="B39" s="144"/>
+      <c r="A39" s="156"/>
+      <c r="B39" s="138"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4866,10 +4866,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="143">
+      <c r="A40" s="156">
         <v>5.7</v>
       </c>
-      <c r="B40" s="144" t="s">
+      <c r="B40" s="138" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4947,8 +4947,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="143"/>
-      <c r="B41" s="144"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="138"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5024,10 +5024,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="145">
+      <c r="A42" s="142">
         <v>5.8</v>
       </c>
-      <c r="B42" s="144" t="s">
+      <c r="B42" s="138" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5105,8 +5105,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="146"/>
-      <c r="B43" s="147"/>
+      <c r="A43" s="137"/>
+      <c r="B43" s="139"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5182,10 +5182,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="148">
+      <c r="A44" s="136">
         <v>6</v>
       </c>
-      <c r="B44" s="117" t="s">
+      <c r="B44" s="150" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5263,8 +5263,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="146"/>
-      <c r="B45" s="118"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5340,10 +5340,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="141">
+      <c r="A46" s="152">
         <v>6.1</v>
       </c>
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="154" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5421,8 +5421,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="125"/>
-      <c r="B47" s="126"/>
+      <c r="A47" s="153"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5498,10 +5498,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="119">
+      <c r="A48" s="161">
         <v>7</v>
       </c>
-      <c r="B48" s="117" t="s">
+      <c r="B48" s="150" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5579,8 +5579,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="125"/>
-      <c r="B49" s="118"/>
+      <c r="A49" s="153"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5656,10 +5656,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="119">
+      <c r="A50" s="161">
         <v>7.1</v>
       </c>
-      <c r="B50" s="121" t="s">
+      <c r="B50" s="162" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5737,8 +5737,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="120"/>
-      <c r="B51" s="122"/>
+      <c r="A51" s="141"/>
+      <c r="B51" s="140"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5814,10 +5814,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="123">
+      <c r="A52" s="145">
         <v>7.2</v>
       </c>
-      <c r="B52" s="124" t="s">
+      <c r="B52" s="160" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5895,8 +5895,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="120"/>
-      <c r="B53" s="122"/>
+      <c r="A53" s="141"/>
+      <c r="B53" s="140"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5972,10 +5972,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="123">
+      <c r="A54" s="145">
         <v>7.3</v>
       </c>
-      <c r="B54" s="124" t="s">
+      <c r="B54" s="160" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6053,8 +6053,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="120"/>
-      <c r="B55" s="122"/>
+      <c r="A55" s="141"/>
+      <c r="B55" s="140"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6130,10 +6130,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="123">
+      <c r="A56" s="145">
         <v>7.4</v>
       </c>
-      <c r="B56" s="124" t="s">
+      <c r="B56" s="160" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6211,8 +6211,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="126"/>
+      <c r="A57" s="153"/>
+      <c r="B57" s="155"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6288,10 +6288,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="119">
+      <c r="A58" s="161">
         <v>8</v>
       </c>
-      <c r="B58" s="117" t="s">
+      <c r="B58" s="150" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6369,8 +6369,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="118"/>
+      <c r="A59" s="153"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6446,10 +6446,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="119">
+      <c r="A60" s="161">
         <v>8.1</v>
       </c>
-      <c r="B60" s="121" t="s">
+      <c r="B60" s="162" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6527,8 +6527,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="120"/>
-      <c r="B61" s="122"/>
+      <c r="A61" s="141"/>
+      <c r="B61" s="140"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6604,10 +6604,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="123">
+      <c r="A62" s="145">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="160" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6685,8 +6685,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="120"/>
-      <c r="B63" s="122"/>
+      <c r="A63" s="141"/>
+      <c r="B63" s="140"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6762,10 +6762,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="123">
+      <c r="A64" s="145">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="124" t="s">
+      <c r="B64" s="160" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6843,8 +6843,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="120"/>
-      <c r="B65" s="122"/>
+      <c r="A65" s="141"/>
+      <c r="B65" s="140"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6920,10 +6920,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="123">
+      <c r="A66" s="145">
         <v>8.4</v>
       </c>
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="160" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7001,8 +7001,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="125"/>
-      <c r="B67" s="126"/>
+      <c r="A67" s="153"/>
+      <c r="B67" s="155"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7078,10 +7078,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="115">
+      <c r="A68" s="163">
         <v>9</v>
       </c>
-      <c r="B68" s="117" t="s">
+      <c r="B68" s="150" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7159,8 +7159,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="116"/>
-      <c r="B69" s="118"/>
+      <c r="A69" s="164"/>
+      <c r="B69" s="151"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7172,7 +7172,7 @@
       <c r="K69" s="16"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
-      <c r="N69" s="18"/>
+      <c r="N69" s="109"/>
       <c r="O69" s="16"/>
       <c r="P69" s="17"/>
       <c r="Q69" s="31"/>
@@ -7236,10 +7236,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="115">
+      <c r="A70" s="163">
         <v>10</v>
       </c>
-      <c r="B70" s="117" t="s">
+      <c r="B70" s="150" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7317,8 +7317,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="116"/>
-      <c r="B71" s="118"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7394,10 +7394,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="115">
+      <c r="A72" s="163">
         <v>11</v>
       </c>
-      <c r="B72" s="117" t="s">
+      <c r="B72" s="150" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7475,8 +7475,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="116"/>
-      <c r="B73" s="118"/>
+      <c r="A73" s="164"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7552,10 +7552,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="115">
+      <c r="A74" s="163">
         <v>12</v>
       </c>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="150" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7633,8 +7633,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="116"/>
-      <c r="B75" s="118"/>
+      <c r="A75" s="164"/>
+      <c r="B75" s="151"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7745,6 +7745,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="C1:F1"/>
@@ -7769,92 +7855,6 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267CD024-3FD5-8945-8ACC-28B3660495DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876AD6C-3E0D-BA40-8565-B9F108A2803F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-460" yWindow="660" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>Mo</t>
   </si>
@@ -188,6 +188,12 @@
   <si>
     <t>Sollzeit</t>
   </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Mehr benötigt</t>
+  </si>
 </sst>
 </file>
 
@@ -274,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +353,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -954,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1085,19 +1103,49 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1109,28 +1157,16 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1139,40 +1175,64 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,57 +1241,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1548,10 +1571,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY83"/>
+  <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1569,78 +1592,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="118" t="s">
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="118" t="s">
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="118" t="s">
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="118" t="s">
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="118" t="s">
+      <c r="T1" s="135"/>
+      <c r="U1" s="135"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="118" t="s">
+      <c r="X1" s="135"/>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="136"/>
+      <c r="AA1" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="119"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="118" t="s">
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="136"/>
+      <c r="AE1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="119"/>
-      <c r="AG1" s="119"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="118" t="s">
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="136"/>
+      <c r="AI1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="118" t="s">
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135"/>
+      <c r="AL1" s="136"/>
+      <c r="AM1" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="119"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="118" t="s">
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="136"/>
+      <c r="AQ1" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="119"/>
-      <c r="AS1" s="119"/>
-      <c r="AT1" s="120"/>
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="136"/>
       <c r="AU1" s="128" t="s">
         <v>3</v>
       </c>
@@ -1659,12 +1682,12 @@
       <c r="BD1" s="129"/>
       <c r="BE1" s="129"/>
       <c r="BF1" s="130"/>
-      <c r="BG1" s="158" t="s">
+      <c r="BG1" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="119"/>
-      <c r="BI1" s="119"/>
-      <c r="BJ1" s="120"/>
+      <c r="BH1" s="135"/>
+      <c r="BI1" s="135"/>
+      <c r="BJ1" s="136"/>
       <c r="BK1" s="128" t="s">
         <v>1</v>
       </c>
@@ -1688,121 +1711,121 @@
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="131">
+      <c r="A2" s="164"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="155">
         <v>43948</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="131">
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="155">
         <v>43949</v>
       </c>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="131">
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="155">
         <v>43950</v>
       </c>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="131">
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="155">
         <v>43951</v>
       </c>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="131">
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="155">
         <v>43952</v>
       </c>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="131">
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="155">
         <v>43953</v>
       </c>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="131">
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="155">
         <v>43954</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="131">
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="155">
         <v>43955</v>
       </c>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="131">
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="155">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="131">
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="155">
         <v>43957</v>
       </c>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="132"/>
-      <c r="AP2" s="133"/>
-      <c r="AQ2" s="131">
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="155">
         <v>43958</v>
       </c>
-      <c r="AR2" s="132"/>
-      <c r="AS2" s="132"/>
-      <c r="AT2" s="133"/>
-      <c r="AU2" s="121">
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="131">
         <v>43959</v>
       </c>
-      <c r="AV2" s="122"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="121">
+      <c r="AV2" s="132"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="131">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="122"/>
-      <c r="BA2" s="122"/>
-      <c r="BB2" s="123"/>
-      <c r="BC2" s="121">
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="132"/>
+      <c r="BB2" s="133"/>
+      <c r="BC2" s="131">
         <v>43961</v>
       </c>
-      <c r="BD2" s="122"/>
-      <c r="BE2" s="122"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="159">
+      <c r="BD2" s="132"/>
+      <c r="BE2" s="132"/>
+      <c r="BF2" s="133"/>
+      <c r="BG2" s="137">
         <v>43962</v>
       </c>
-      <c r="BH2" s="132"/>
-      <c r="BI2" s="132"/>
-      <c r="BJ2" s="133"/>
-      <c r="BK2" s="121">
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="139"/>
+      <c r="BK2" s="131">
         <v>43963</v>
       </c>
-      <c r="BL2" s="122"/>
-      <c r="BM2" s="122"/>
-      <c r="BN2" s="123"/>
-      <c r="BO2" s="121">
+      <c r="BL2" s="132"/>
+      <c r="BM2" s="132"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="131">
         <v>43964</v>
       </c>
-      <c r="BP2" s="122"/>
-      <c r="BQ2" s="122"/>
-      <c r="BR2" s="123"/>
-      <c r="BS2" s="121">
+      <c r="BP2" s="132"/>
+      <c r="BQ2" s="132"/>
+      <c r="BR2" s="133"/>
+      <c r="BS2" s="131">
         <v>43965</v>
       </c>
-      <c r="BT2" s="122"/>
-      <c r="BU2" s="122"/>
-      <c r="BV2" s="122"/>
+      <c r="BT2" s="132"/>
+      <c r="BU2" s="132"/>
+      <c r="BV2" s="132"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="149"/>
+      <c r="A3" s="164"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2022,10 +2045,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="124">
+      <c r="A4" s="158">
         <v>1</v>
       </c>
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="150" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2103,8 +2126,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="156"/>
+      <c r="B5" s="157"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2180,10 +2203,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134">
+      <c r="A6" s="153">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="123" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2261,8 +2284,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="147"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2338,10 +2361,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124">
+      <c r="A8" s="158">
         <v>2</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="150" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2419,8 +2442,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2496,10 +2519,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134">
+      <c r="A10" s="153">
         <v>2.1</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="123" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2577,8 +2600,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="135"/>
-      <c r="B11" s="138"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="145"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2654,10 +2677,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="135">
+      <c r="A12" s="154">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="145" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2735,8 +2758,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="139"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="148"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2812,10 +2835,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="124">
+      <c r="A14" s="158">
         <v>3</v>
       </c>
-      <c r="B14" s="116" t="s">
+      <c r="B14" s="150" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2893,8 +2916,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="157"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
@@ -2970,10 +2993,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134">
+      <c r="A16" s="153">
         <v>3.1</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="123" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3051,8 +3074,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="135"/>
-      <c r="B17" s="144"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="152"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
@@ -3128,10 +3151,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135">
+      <c r="A18" s="154">
         <v>3.2</v>
       </c>
-      <c r="B18" s="138" t="s">
+      <c r="B18" s="145" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3209,8 +3232,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="139"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3286,10 +3309,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="136">
+      <c r="A20" s="149">
         <v>4</v>
       </c>
-      <c r="B20" s="116" t="s">
+      <c r="B20" s="150" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3367,8 +3390,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="137"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="157"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3444,10 +3467,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="141">
+      <c r="A22" s="121">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="159" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3525,8 +3548,8 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="142"/>
-      <c r="B23" s="144"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3602,10 +3625,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="142">
+      <c r="A24" s="146">
         <v>4.2</v>
       </c>
-      <c r="B24" s="138" t="s">
+      <c r="B24" s="145" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3683,8 +3706,8 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3760,10 +3783,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="136">
+      <c r="A26" s="149">
         <v>5</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="150" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3841,8 +3864,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="142"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3855,8 +3878,8 @@
       <c r="L27" s="110"/>
       <c r="M27" s="110"/>
       <c r="N27" s="111"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="7"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="110"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="28"/>
       <c r="S27" s="54"/>
@@ -3871,10 +3894,10 @@
       <c r="AB27" s="55"/>
       <c r="AC27" s="55"/>
       <c r="AD27" s="56"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="8"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="169"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="27"/>
@@ -3918,10 +3941,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="142">
+      <c r="A28" s="146">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="145" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -3999,8 +4022,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="142"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="146"/>
+      <c r="B29" s="152"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4076,10 +4099,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="142">
+      <c r="A30" s="146">
         <v>5.2</v>
       </c>
-      <c r="B30" s="138" t="s">
+      <c r="B30" s="145" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4157,8 +4180,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="142"/>
-      <c r="B31" s="144"/>
+      <c r="A31" s="146"/>
+      <c r="B31" s="152"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4234,10 +4257,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="142">
+      <c r="A32" s="146">
         <v>5.3</v>
       </c>
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="145" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4315,8 +4338,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="142"/>
-      <c r="B33" s="138"/>
+      <c r="A33" s="146"/>
+      <c r="B33" s="145"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4392,10 +4415,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="142">
+      <c r="A34" s="146">
         <v>5.4</v>
       </c>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="145" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4473,8 +4496,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="142"/>
-      <c r="B35" s="138"/>
+      <c r="A35" s="146"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4487,8 +4510,8 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="111"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="7"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="110"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
       <c r="S35" s="54"/>
@@ -4550,10 +4573,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="156">
+      <c r="A36" s="144">
         <v>5.5</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="145" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4631,8 +4654,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="156"/>
-      <c r="B37" s="138"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="145"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4646,7 +4669,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="7"/>
+      <c r="P37" s="110"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="54"/>
@@ -4661,7 +4684,7 @@
       <c r="AB37" s="55"/>
       <c r="AC37" s="55"/>
       <c r="AD37" s="56"/>
-      <c r="AE37" s="6"/>
+      <c r="AE37" s="168"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="8"/>
@@ -4708,10 +4731,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="156">
+      <c r="A38" s="144">
         <v>5.6</v>
       </c>
-      <c r="B38" s="138" t="s">
+      <c r="B38" s="145" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4727,7 +4750,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="7"/>
+      <c r="P38" s="167"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="28"/>
       <c r="S38" s="54"/>
@@ -4789,8 +4812,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="156"/>
-      <c r="B39" s="138"/>
+      <c r="A39" s="144"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4804,7 +4827,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
+      <c r="P39" s="110"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="28"/>
       <c r="S39" s="54"/>
@@ -4819,9 +4842,9 @@
       <c r="AB39" s="55"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="56"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
+      <c r="AE39" s="108"/>
+      <c r="AF39" s="110"/>
+      <c r="AG39" s="110"/>
       <c r="AH39" s="8"/>
       <c r="AI39" s="6"/>
       <c r="AJ39" s="7"/>
@@ -4866,10 +4889,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="156">
+      <c r="A40" s="144">
         <v>5.7</v>
       </c>
-      <c r="B40" s="138" t="s">
+      <c r="B40" s="145" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4947,8 +4970,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="156"/>
-      <c r="B41" s="138"/>
+      <c r="A41" s="144"/>
+      <c r="B41" s="145"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -4980,7 +5003,7 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
-      <c r="AH41" s="8"/>
+      <c r="AH41" s="169"/>
       <c r="AI41" s="6"/>
       <c r="AJ41" s="7"/>
       <c r="AK41" s="27"/>
@@ -5024,10 +5047,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="142">
+      <c r="A42" s="146">
         <v>5.8</v>
       </c>
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="145" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5105,8 +5128,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="137"/>
-      <c r="B43" s="139"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5182,10 +5205,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="136">
+      <c r="A44" s="149">
         <v>6</v>
       </c>
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="118" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5263,8 +5286,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="137"/>
-      <c r="B45" s="151"/>
+      <c r="A45" s="147"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5340,10 +5363,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="152">
+      <c r="A46" s="142">
         <v>6.1</v>
       </c>
-      <c r="B46" s="154" t="s">
+      <c r="B46" s="143" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5421,8 +5444,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="153"/>
-      <c r="B47" s="155"/>
+      <c r="A47" s="126"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5498,10 +5521,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="161">
+      <c r="A48" s="120">
         <v>7</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="118" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5579,8 +5602,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="153"/>
-      <c r="B49" s="151"/>
+      <c r="A49" s="126"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5656,10 +5679,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="161">
+      <c r="A50" s="120">
         <v>7.1</v>
       </c>
-      <c r="B50" s="162" t="s">
+      <c r="B50" s="122" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5737,8 +5760,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="141"/>
-      <c r="B51" s="140"/>
+      <c r="A51" s="121"/>
+      <c r="B51" s="123"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5814,10 +5837,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="145">
+      <c r="A52" s="124">
         <v>7.2</v>
       </c>
-      <c r="B52" s="160" t="s">
+      <c r="B52" s="125" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5895,8 +5918,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="141"/>
-      <c r="B53" s="140"/>
+      <c r="A53" s="121"/>
+      <c r="B53" s="123"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5972,10 +5995,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="145">
+      <c r="A54" s="124">
         <v>7.3</v>
       </c>
-      <c r="B54" s="160" t="s">
+      <c r="B54" s="125" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6053,8 +6076,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="141"/>
-      <c r="B55" s="140"/>
+      <c r="A55" s="121"/>
+      <c r="B55" s="123"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6130,10 +6153,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="145">
+      <c r="A56" s="124">
         <v>7.4</v>
       </c>
-      <c r="B56" s="160" t="s">
+      <c r="B56" s="125" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6211,8 +6234,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="153"/>
-      <c r="B57" s="155"/>
+      <c r="A57" s="126"/>
+      <c r="B57" s="127"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6288,10 +6311,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="161">
+      <c r="A58" s="120">
         <v>8</v>
       </c>
-      <c r="B58" s="150" t="s">
+      <c r="B58" s="118" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6369,8 +6392,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="153"/>
-      <c r="B59" s="151"/>
+      <c r="A59" s="126"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6446,10 +6469,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="161">
+      <c r="A60" s="120">
         <v>8.1</v>
       </c>
-      <c r="B60" s="162" t="s">
+      <c r="B60" s="122" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6527,8 +6550,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="141"/>
-      <c r="B61" s="140"/>
+      <c r="A61" s="121"/>
+      <c r="B61" s="123"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6604,10 +6627,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="145">
+      <c r="A62" s="124">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="160" t="s">
+      <c r="B62" s="125" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6685,8 +6708,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="141"/>
-      <c r="B63" s="140"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="123"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6762,10 +6785,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="145">
+      <c r="A64" s="124">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="160" t="s">
+      <c r="B64" s="125" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6843,8 +6866,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="141"/>
-      <c r="B65" s="140"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="123"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6920,10 +6943,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="145">
+      <c r="A66" s="124">
         <v>8.4</v>
       </c>
-      <c r="B66" s="160" t="s">
+      <c r="B66" s="125" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7001,8 +7024,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
-      <c r="B67" s="155"/>
+      <c r="A67" s="126"/>
+      <c r="B67" s="127"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7078,10 +7101,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="163">
+      <c r="A68" s="116">
         <v>9</v>
       </c>
-      <c r="B68" s="150" t="s">
+      <c r="B68" s="118" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7159,8 +7182,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="164"/>
-      <c r="B69" s="151"/>
+      <c r="A69" s="117"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7174,7 +7197,7 @@
       <c r="M69" s="17"/>
       <c r="N69" s="109"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="17"/>
+      <c r="P69" s="107"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="32"/>
       <c r="S69" s="60"/>
@@ -7192,7 +7215,7 @@
       <c r="AE69" s="16"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
-      <c r="AH69" s="18"/>
+      <c r="AH69" s="109"/>
       <c r="AI69" s="16"/>
       <c r="AJ69" s="17"/>
       <c r="AK69" s="31"/>
@@ -7236,10 +7259,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="163">
+      <c r="A70" s="116">
         <v>10</v>
       </c>
-      <c r="B70" s="150" t="s">
+      <c r="B70" s="118" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7317,8 +7340,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="164"/>
-      <c r="B71" s="151"/>
+      <c r="A71" s="117"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7394,10 +7417,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="163">
+      <c r="A72" s="116">
         <v>11</v>
       </c>
-      <c r="B72" s="150" t="s">
+      <c r="B72" s="118" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7475,8 +7498,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="164"/>
-      <c r="B73" s="151"/>
+      <c r="A73" s="117"/>
+      <c r="B73" s="119"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7552,10 +7575,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="163">
+      <c r="A74" s="116">
         <v>12</v>
       </c>
-      <c r="B74" s="150" t="s">
+      <c r="B74" s="118" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7633,8 +7656,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="164"/>
-      <c r="B75" s="151"/>
+      <c r="A75" s="117"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7743,46 +7766,66 @@
         <v>50</v>
       </c>
     </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="165" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="166" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="B1:B3"/>
@@ -7807,54 +7850,44 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3876AD6C-3E0D-BA40-8565-B9F108A2803F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D228D4-3B2B-EF42-97F8-4BEAFE9136C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,7 +280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -972,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,49 +1109,23 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,16 +1137,28 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1175,64 +1167,40 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,20 +1209,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1573,8 +1580,8 @@
   </sheetPr>
   <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1592,240 +1599,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="162" t="s">
+      <c r="C1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="162" t="s">
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="162" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="162" t="s">
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="162" t="s">
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="162" t="s">
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="162" t="s">
+      <c r="X1" s="123"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="162" t="s">
+      <c r="AB1" s="123"/>
+      <c r="AC1" s="123"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="162" t="s">
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="162" t="s">
+      <c r="AJ1" s="123"/>
+      <c r="AK1" s="123"/>
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="162" t="s">
+      <c r="AN1" s="123"/>
+      <c r="AO1" s="123"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="128" t="s">
+      <c r="AR1" s="123"/>
+      <c r="AS1" s="123"/>
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="129"/>
-      <c r="AW1" s="129"/>
-      <c r="AX1" s="130"/>
-      <c r="AY1" s="128" t="s">
+      <c r="AV1" s="133"/>
+      <c r="AW1" s="133"/>
+      <c r="AX1" s="134"/>
+      <c r="AY1" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="129"/>
-      <c r="BA1" s="129"/>
-      <c r="BB1" s="130"/>
-      <c r="BC1" s="128" t="s">
+      <c r="AZ1" s="133"/>
+      <c r="BA1" s="133"/>
+      <c r="BB1" s="134"/>
+      <c r="BC1" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="129"/>
-      <c r="BE1" s="129"/>
-      <c r="BF1" s="130"/>
-      <c r="BG1" s="134" t="s">
+      <c r="BD1" s="133"/>
+      <c r="BE1" s="133"/>
+      <c r="BF1" s="134"/>
+      <c r="BG1" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="135"/>
-      <c r="BI1" s="135"/>
-      <c r="BJ1" s="136"/>
-      <c r="BK1" s="128" t="s">
+      <c r="BH1" s="123"/>
+      <c r="BI1" s="123"/>
+      <c r="BJ1" s="124"/>
+      <c r="BK1" s="132" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="129"/>
-      <c r="BM1" s="129"/>
-      <c r="BN1" s="130"/>
-      <c r="BO1" s="128" t="s">
+      <c r="BL1" s="133"/>
+      <c r="BM1" s="133"/>
+      <c r="BN1" s="134"/>
+      <c r="BO1" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="129"/>
-      <c r="BQ1" s="129"/>
-      <c r="BR1" s="130"/>
-      <c r="BS1" s="128" t="s">
+      <c r="BP1" s="133"/>
+      <c r="BQ1" s="133"/>
+      <c r="BR1" s="134"/>
+      <c r="BS1" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="129"/>
-      <c r="BU1" s="129"/>
-      <c r="BV1" s="130"/>
+      <c r="BT1" s="133"/>
+      <c r="BU1" s="133"/>
+      <c r="BV1" s="134"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="164"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="155">
+      <c r="A2" s="131"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="135">
         <v>43948</v>
       </c>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="155">
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="135">
         <v>43949</v>
       </c>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="155">
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="135">
         <v>43950</v>
       </c>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="155">
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="135">
         <v>43951</v>
       </c>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="155">
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="135">
         <v>43952</v>
       </c>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="155">
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="135">
         <v>43953</v>
       </c>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="155">
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="137"/>
+      <c r="AA2" s="135">
         <v>43954</v>
       </c>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="155">
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="135">
         <v>43955</v>
       </c>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="155">
+      <c r="AF2" s="136"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="135">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="138"/>
-      <c r="AK2" s="138"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="155">
+      <c r="AJ2" s="136"/>
+      <c r="AK2" s="136"/>
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="135">
         <v>43957</v>
       </c>
-      <c r="AN2" s="138"/>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="155">
+      <c r="AN2" s="136"/>
+      <c r="AO2" s="136"/>
+      <c r="AP2" s="137"/>
+      <c r="AQ2" s="135">
         <v>43958</v>
       </c>
-      <c r="AR2" s="138"/>
-      <c r="AS2" s="138"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="131">
+      <c r="AR2" s="136"/>
+      <c r="AS2" s="136"/>
+      <c r="AT2" s="137"/>
+      <c r="AU2" s="125">
         <v>43959</v>
       </c>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="132"/>
-      <c r="AX2" s="133"/>
-      <c r="AY2" s="131">
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="125">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="132"/>
-      <c r="BA2" s="132"/>
-      <c r="BB2" s="133"/>
-      <c r="BC2" s="131">
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="125">
         <v>43961</v>
       </c>
-      <c r="BD2" s="132"/>
-      <c r="BE2" s="132"/>
-      <c r="BF2" s="133"/>
-      <c r="BG2" s="137">
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="126"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="163">
         <v>43962</v>
       </c>
-      <c r="BH2" s="138"/>
-      <c r="BI2" s="138"/>
-      <c r="BJ2" s="139"/>
-      <c r="BK2" s="131">
+      <c r="BH2" s="136"/>
+      <c r="BI2" s="136"/>
+      <c r="BJ2" s="137"/>
+      <c r="BK2" s="125">
         <v>43963</v>
       </c>
-      <c r="BL2" s="132"/>
-      <c r="BM2" s="132"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="131">
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="127"/>
+      <c r="BO2" s="125">
         <v>43964</v>
       </c>
-      <c r="BP2" s="132"/>
-      <c r="BQ2" s="132"/>
-      <c r="BR2" s="133"/>
-      <c r="BS2" s="131">
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="127"/>
+      <c r="BS2" s="125">
         <v>43965</v>
       </c>
-      <c r="BT2" s="132"/>
-      <c r="BU2" s="132"/>
-      <c r="BV2" s="132"/>
+      <c r="BT2" s="126"/>
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="126"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="164"/>
-      <c r="B3" s="141"/>
+      <c r="A3" s="131"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2045,10 +2052,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="158">
+      <c r="A4" s="128">
         <v>1</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="120" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2126,8 +2133,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156"/>
-      <c r="B5" s="157"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2203,10 +2210,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="153">
+      <c r="A6" s="138">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="144" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2284,8 +2291,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156"/>
-      <c r="B7" s="161"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2361,10 +2368,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="158">
+      <c r="A8" s="128">
         <v>2</v>
       </c>
-      <c r="B8" s="150" t="s">
+      <c r="B8" s="120" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2442,8 +2449,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2519,10 +2526,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="153">
+      <c r="A10" s="138">
         <v>2.1</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="144" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2600,8 +2607,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="154"/>
-      <c r="B11" s="145"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2677,10 +2684,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="154">
+      <c r="A12" s="139">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="145" t="s">
+      <c r="B12" s="142" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2758,8 +2765,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="148"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2835,10 +2842,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="158">
+      <c r="A14" s="128">
         <v>3</v>
       </c>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="120" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2916,8 +2923,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="121"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
@@ -2993,10 +3000,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="153">
+      <c r="A16" s="138">
         <v>3.1</v>
       </c>
-      <c r="B16" s="123" t="s">
+      <c r="B16" s="144" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3074,8 +3081,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="154"/>
-      <c r="B17" s="152"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
@@ -3151,10 +3158,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="154">
+      <c r="A18" s="139">
         <v>3.2</v>
       </c>
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="142" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3232,8 +3239,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="148"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3309,10 +3316,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="149">
+      <c r="A20" s="140">
         <v>4</v>
       </c>
-      <c r="B20" s="150" t="s">
+      <c r="B20" s="120" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3390,8 +3397,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
-      <c r="B21" s="157"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="121"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3467,10 +3474,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121">
+      <c r="A22" s="145">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="147" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3549,7 +3556,7 @@
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="146"/>
-      <c r="B23" s="152"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3628,7 +3635,7 @@
       <c r="A24" s="146">
         <v>4.2</v>
       </c>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="142" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3706,8 +3713,8 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="160"/>
+      <c r="A25" s="149"/>
+      <c r="B25" s="150"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3783,10 +3790,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="149">
+      <c r="A26" s="140">
         <v>5</v>
       </c>
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="120" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3865,7 +3872,7 @@
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="146"/>
-      <c r="B27" s="151"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3897,9 +3904,9 @@
       <c r="AE27" s="108"/>
       <c r="AF27" s="110"/>
       <c r="AG27" s="110"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="7"/>
+      <c r="AH27" s="119"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="110"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="28"/>
       <c r="AM27" s="6"/>
@@ -3944,7 +3951,7 @@
       <c r="A28" s="146">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="142" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -4023,7 +4030,7 @@
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="146"/>
-      <c r="B29" s="152"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4102,7 +4109,7 @@
       <c r="A30" s="146">
         <v>5.2</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B30" s="142" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4181,7 +4188,7 @@
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="146"/>
-      <c r="B31" s="152"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4260,7 +4267,7 @@
       <c r="A32" s="146">
         <v>5.3</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="142" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4339,7 +4346,7 @@
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="146"/>
-      <c r="B33" s="145"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4418,7 +4425,7 @@
       <c r="A34" s="146">
         <v>5.4</v>
       </c>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="142" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4497,7 +4504,7 @@
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="146"/>
-      <c r="B35" s="145"/>
+      <c r="B35" s="142"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4573,10 +4580,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="144">
+      <c r="A36" s="160">
         <v>5.5</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="142" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4654,8 +4661,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="144"/>
-      <c r="B37" s="145"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="142"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4684,7 +4691,7 @@
       <c r="AB37" s="55"/>
       <c r="AC37" s="55"/>
       <c r="AD37" s="56"/>
-      <c r="AE37" s="168"/>
+      <c r="AE37" s="118"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="8"/>
@@ -4731,10 +4738,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="144">
+      <c r="A38" s="160">
         <v>5.6</v>
       </c>
-      <c r="B38" s="145" t="s">
+      <c r="B38" s="142" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4750,7 +4757,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="167"/>
+      <c r="P38" s="117"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="28"/>
       <c r="S38" s="54"/>
@@ -4812,8 +4819,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="144"/>
-      <c r="B39" s="145"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="142"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4846,7 +4853,7 @@
       <c r="AF39" s="110"/>
       <c r="AG39" s="110"/>
       <c r="AH39" s="8"/>
-      <c r="AI39" s="6"/>
+      <c r="AI39" s="169"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="28"/>
@@ -4889,10 +4896,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="144">
+      <c r="A40" s="160">
         <v>5.7</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="142" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4970,8 +4977,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="144"/>
-      <c r="B41" s="145"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5003,9 +5010,9 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
-      <c r="AH41" s="169"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="7"/>
+      <c r="AH41" s="119"/>
+      <c r="AI41" s="118"/>
+      <c r="AJ41" s="110"/>
       <c r="AK41" s="27"/>
       <c r="AL41" s="28"/>
       <c r="AM41" s="6"/>
@@ -5050,7 +5057,7 @@
       <c r="A42" s="146">
         <v>5.8</v>
       </c>
-      <c r="B42" s="145" t="s">
+      <c r="B42" s="142" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5128,8 +5135,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="148"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="143"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5205,10 +5212,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="149">
+      <c r="A44" s="140">
         <v>6</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="154" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5286,8 +5293,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="119"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="155"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5363,10 +5370,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="142">
+      <c r="A46" s="156">
         <v>6.1</v>
       </c>
-      <c r="B46" s="143" t="s">
+      <c r="B46" s="158" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5444,8 +5451,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="126"/>
-      <c r="B47" s="127"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5521,10 +5528,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="120">
+      <c r="A48" s="165">
         <v>7</v>
       </c>
-      <c r="B48" s="118" t="s">
+      <c r="B48" s="154" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5602,8 +5609,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="126"/>
-      <c r="B49" s="119"/>
+      <c r="A49" s="157"/>
+      <c r="B49" s="155"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5679,10 +5686,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="120">
+      <c r="A50" s="165">
         <v>7.1</v>
       </c>
-      <c r="B50" s="122" t="s">
+      <c r="B50" s="166" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5760,8 +5767,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="121"/>
-      <c r="B51" s="123"/>
+      <c r="A51" s="145"/>
+      <c r="B51" s="144"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5837,10 +5844,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="124">
+      <c r="A52" s="149">
         <v>7.2</v>
       </c>
-      <c r="B52" s="125" t="s">
+      <c r="B52" s="164" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5918,8 +5925,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="121"/>
-      <c r="B53" s="123"/>
+      <c r="A53" s="145"/>
+      <c r="B53" s="144"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5995,10 +6002,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="124">
+      <c r="A54" s="149">
         <v>7.3</v>
       </c>
-      <c r="B54" s="125" t="s">
+      <c r="B54" s="164" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6076,8 +6083,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="121"/>
-      <c r="B55" s="123"/>
+      <c r="A55" s="145"/>
+      <c r="B55" s="144"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6153,10 +6160,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="124">
+      <c r="A56" s="149">
         <v>7.4</v>
       </c>
-      <c r="B56" s="125" t="s">
+      <c r="B56" s="164" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6234,8 +6241,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="126"/>
-      <c r="B57" s="127"/>
+      <c r="A57" s="157"/>
+      <c r="B57" s="159"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6311,10 +6318,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="120">
+      <c r="A58" s="165">
         <v>8</v>
       </c>
-      <c r="B58" s="118" t="s">
+      <c r="B58" s="154" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6392,8 +6399,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="126"/>
-      <c r="B59" s="119"/>
+      <c r="A59" s="157"/>
+      <c r="B59" s="155"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6469,10 +6476,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="120">
+      <c r="A60" s="165">
         <v>8.1</v>
       </c>
-      <c r="B60" s="122" t="s">
+      <c r="B60" s="166" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6550,8 +6557,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="121"/>
-      <c r="B61" s="123"/>
+      <c r="A61" s="145"/>
+      <c r="B61" s="144"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6627,10 +6634,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="124">
+      <c r="A62" s="149">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="125" t="s">
+      <c r="B62" s="164" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6708,8 +6715,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="121"/>
-      <c r="B63" s="123"/>
+      <c r="A63" s="145"/>
+      <c r="B63" s="144"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6785,10 +6792,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="124">
+      <c r="A64" s="149">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="164" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6866,8 +6873,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="121"/>
-      <c r="B65" s="123"/>
+      <c r="A65" s="145"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6943,10 +6950,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="124">
+      <c r="A66" s="149">
         <v>8.4</v>
       </c>
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="164" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7024,8 +7031,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="126"/>
-      <c r="B67" s="127"/>
+      <c r="A67" s="157"/>
+      <c r="B67" s="159"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7101,10 +7108,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="116">
+      <c r="A68" s="167">
         <v>9</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="154" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7182,8 +7189,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="117"/>
-      <c r="B69" s="119"/>
+      <c r="A69" s="168"/>
+      <c r="B69" s="155"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7217,7 +7224,7 @@
       <c r="AG69" s="17"/>
       <c r="AH69" s="109"/>
       <c r="AI69" s="16"/>
-      <c r="AJ69" s="17"/>
+      <c r="AJ69" s="107"/>
       <c r="AK69" s="31"/>
       <c r="AL69" s="32"/>
       <c r="AM69" s="16"/>
@@ -7259,10 +7266,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="116">
+      <c r="A70" s="167">
         <v>10</v>
       </c>
-      <c r="B70" s="118" t="s">
+      <c r="B70" s="154" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7340,8 +7347,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="117"/>
-      <c r="B71" s="119"/>
+      <c r="A71" s="168"/>
+      <c r="B71" s="155"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7417,10 +7424,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="116">
+      <c r="A72" s="167">
         <v>11</v>
       </c>
-      <c r="B72" s="118" t="s">
+      <c r="B72" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7498,8 +7505,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="117"/>
-      <c r="B73" s="119"/>
+      <c r="A73" s="168"/>
+      <c r="B73" s="155"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7575,10 +7582,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="116">
+      <c r="A74" s="167">
         <v>12</v>
       </c>
-      <c r="B74" s="118" t="s">
+      <c r="B74" s="154" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7656,8 +7663,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="117"/>
-      <c r="B75" s="119"/>
+      <c r="A75" s="168"/>
+      <c r="B75" s="155"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7767,17 +7774,103 @@
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="165" t="s">
+      <c r="B84" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="166" t="s">
+      <c r="B85" s="170" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="C1:F1"/>
@@ -7802,92 +7895,6 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D228D4-3B2B-EF42-97F8-4BEAFE9136C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86461B21-064E-B84E-BAC5-2A6FC7D609EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1113,19 +1113,51 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1137,28 +1169,16 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,40 +1187,64 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,59 +1253,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1580,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1599,240 +1604,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="122" t="s">
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="122" t="s">
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="122" t="s">
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="122" t="s">
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="142"/>
+      <c r="S1" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="122" t="s">
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="123"/>
-      <c r="Y1" s="123"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="122" t="s">
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="142"/>
+      <c r="AA1" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="123"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="122" t="s">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="142"/>
+      <c r="AE1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="123"/>
-      <c r="AG1" s="123"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="122" t="s">
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="123"/>
-      <c r="AK1" s="123"/>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="122" t="s">
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="123"/>
-      <c r="AO1" s="123"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="122" t="s">
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="142"/>
+      <c r="AQ1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="123"/>
-      <c r="AS1" s="123"/>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="132" t="s">
+      <c r="AR1" s="141"/>
+      <c r="AS1" s="141"/>
+      <c r="AT1" s="142"/>
+      <c r="AU1" s="134" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="133"/>
-      <c r="AW1" s="133"/>
-      <c r="AX1" s="134"/>
-      <c r="AY1" s="132" t="s">
+      <c r="AV1" s="135"/>
+      <c r="AW1" s="135"/>
+      <c r="AX1" s="136"/>
+      <c r="AY1" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="133"/>
-      <c r="BA1" s="133"/>
-      <c r="BB1" s="134"/>
-      <c r="BC1" s="132" t="s">
+      <c r="AZ1" s="135"/>
+      <c r="BA1" s="135"/>
+      <c r="BB1" s="136"/>
+      <c r="BC1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="133"/>
-      <c r="BE1" s="133"/>
-      <c r="BF1" s="134"/>
-      <c r="BG1" s="162" t="s">
+      <c r="BD1" s="135"/>
+      <c r="BE1" s="135"/>
+      <c r="BF1" s="136"/>
+      <c r="BG1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="123"/>
-      <c r="BI1" s="123"/>
-      <c r="BJ1" s="124"/>
-      <c r="BK1" s="132" t="s">
+      <c r="BH1" s="141"/>
+      <c r="BI1" s="141"/>
+      <c r="BJ1" s="142"/>
+      <c r="BK1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="133"/>
-      <c r="BM1" s="133"/>
-      <c r="BN1" s="134"/>
-      <c r="BO1" s="132" t="s">
+      <c r="BL1" s="135"/>
+      <c r="BM1" s="135"/>
+      <c r="BN1" s="136"/>
+      <c r="BO1" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="133"/>
-      <c r="BQ1" s="133"/>
-      <c r="BR1" s="134"/>
-      <c r="BS1" s="132" t="s">
+      <c r="BP1" s="135"/>
+      <c r="BQ1" s="135"/>
+      <c r="BR1" s="136"/>
+      <c r="BS1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="133"/>
-      <c r="BU1" s="133"/>
-      <c r="BV1" s="134"/>
+      <c r="BT1" s="135"/>
+      <c r="BU1" s="135"/>
+      <c r="BV1" s="136"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="135">
+      <c r="A2" s="170"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="161">
         <v>43948</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="135">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="161">
         <v>43949</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="135">
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="161">
         <v>43950</v>
       </c>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="135">
+      <c r="L2" s="144"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="161">
         <v>43951</v>
       </c>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="135">
+      <c r="P2" s="144"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="161">
         <v>43952</v>
       </c>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="135">
+      <c r="T2" s="144"/>
+      <c r="U2" s="144"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="161">
         <v>43953</v>
       </c>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="135">
+      <c r="X2" s="144"/>
+      <c r="Y2" s="144"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="161">
         <v>43954</v>
       </c>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="135">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="144"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="161">
         <v>43955</v>
       </c>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="135">
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="161">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="136"/>
-      <c r="AK2" s="136"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="135">
+      <c r="AJ2" s="144"/>
+      <c r="AK2" s="144"/>
+      <c r="AL2" s="145"/>
+      <c r="AM2" s="161">
         <v>43957</v>
       </c>
-      <c r="AN2" s="136"/>
-      <c r="AO2" s="136"/>
-      <c r="AP2" s="137"/>
-      <c r="AQ2" s="135">
+      <c r="AN2" s="144"/>
+      <c r="AO2" s="144"/>
+      <c r="AP2" s="145"/>
+      <c r="AQ2" s="161">
         <v>43958</v>
       </c>
-      <c r="AR2" s="136"/>
-      <c r="AS2" s="136"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="125">
+      <c r="AR2" s="144"/>
+      <c r="AS2" s="144"/>
+      <c r="AT2" s="145"/>
+      <c r="AU2" s="137">
         <v>43959</v>
       </c>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="125">
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="139"/>
+      <c r="AY2" s="137">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="125">
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="139"/>
+      <c r="BC2" s="137">
         <v>43961</v>
       </c>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="127"/>
-      <c r="BG2" s="163">
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="139"/>
+      <c r="BG2" s="143">
         <v>43962</v>
       </c>
-      <c r="BH2" s="136"/>
-      <c r="BI2" s="136"/>
-      <c r="BJ2" s="137"/>
-      <c r="BK2" s="125">
+      <c r="BH2" s="144"/>
+      <c r="BI2" s="144"/>
+      <c r="BJ2" s="145"/>
+      <c r="BK2" s="137">
         <v>43963</v>
       </c>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="127"/>
-      <c r="BO2" s="125">
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="139"/>
+      <c r="BO2" s="137">
         <v>43964</v>
       </c>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
-      <c r="BR2" s="127"/>
-      <c r="BS2" s="125">
+      <c r="BP2" s="138"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="139"/>
+      <c r="BS2" s="137">
         <v>43965</v>
       </c>
-      <c r="BT2" s="126"/>
-      <c r="BU2" s="126"/>
-      <c r="BV2" s="126"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131"/>
-      <c r="B3" s="153"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2052,10 +2057,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="128">
+      <c r="A4" s="164">
         <v>1</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="156" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2133,8 +2138,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="162"/>
+      <c r="B5" s="163"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2210,10 +2215,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138">
+      <c r="A6" s="159">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="129" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2291,8 +2296,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="151"/>
+      <c r="A7" s="162"/>
+      <c r="B7" s="167"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2368,10 +2373,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="128">
+      <c r="A8" s="164">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="156" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2449,8 +2454,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2526,10 +2531,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="138">
+      <c r="A10" s="159">
         <v>2.1</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="129" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2607,8 +2612,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="139"/>
-      <c r="B11" s="142"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2684,10 +2689,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="139">
+      <c r="A12" s="160">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="151" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2765,8 +2770,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="143"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2842,10 +2847,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128">
+      <c r="A14" s="164">
         <v>3</v>
       </c>
-      <c r="B14" s="120" t="s">
+      <c r="B14" s="156" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2923,8 +2928,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="121"/>
+      <c r="A15" s="162"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
@@ -3000,10 +3005,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="138">
+      <c r="A16" s="159">
         <v>3.1</v>
       </c>
-      <c r="B16" s="144" t="s">
+      <c r="B16" s="129" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3081,8 +3086,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="139"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="158"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
@@ -3158,10 +3163,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="139">
+      <c r="A18" s="160">
         <v>3.2</v>
       </c>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="151" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3239,8 +3244,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="143"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3316,10 +3321,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140">
+      <c r="A20" s="155">
         <v>4</v>
       </c>
-      <c r="B20" s="120" t="s">
+      <c r="B20" s="156" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3397,8 +3402,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="121"/>
+      <c r="A21" s="153"/>
+      <c r="B21" s="163"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3407,7 +3412,7 @@
       <c r="H21" s="107"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="174"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
@@ -3474,10 +3479,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="145">
+      <c r="A22" s="127">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="165" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3555,8 +3560,8 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="146"/>
-      <c r="B23" s="148"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="158"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3632,10 +3637,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="146">
+      <c r="A24" s="152">
         <v>4.2</v>
       </c>
-      <c r="B24" s="142" t="s">
+      <c r="B24" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3713,8 +3718,8 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="149"/>
-      <c r="B25" s="150"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3723,7 +3728,7 @@
       <c r="H25" s="115"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="175"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
@@ -3790,10 +3795,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="140">
+      <c r="A26" s="155">
         <v>5</v>
       </c>
-      <c r="B26" s="120" t="s">
+      <c r="B26" s="156" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3871,8 +3876,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="146"/>
-      <c r="B27" s="161"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="157"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3909,9 +3914,9 @@
       <c r="AJ27" s="110"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="28"/>
-      <c r="AM27" s="6"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="110"/>
+      <c r="AO27" s="110"/>
       <c r="AP27" s="8"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="7"/>
@@ -3948,10 +3953,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="146">
+      <c r="A28" s="152">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="151" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -4029,8 +4034,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="146"/>
-      <c r="B29" s="148"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4106,10 +4111,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="146">
+      <c r="A30" s="152">
         <v>5.2</v>
       </c>
-      <c r="B30" s="142" t="s">
+      <c r="B30" s="151" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4187,8 +4192,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="146"/>
-      <c r="B31" s="148"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4264,10 +4269,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="146">
+      <c r="A32" s="152">
         <v>5.3</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="151" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4345,8 +4350,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="146"/>
-      <c r="B33" s="142"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4422,10 +4427,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="146">
+      <c r="A34" s="152">
         <v>5.4</v>
       </c>
-      <c r="B34" s="142" t="s">
+      <c r="B34" s="151" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4503,8 +4508,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="146"/>
-      <c r="B35" s="142"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="151"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4580,10 +4585,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="160">
+      <c r="A36" s="150">
         <v>5.5</v>
       </c>
-      <c r="B36" s="142" t="s">
+      <c r="B36" s="151" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4661,8 +4666,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="160"/>
-      <c r="B37" s="142"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4738,10 +4743,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="160">
+      <c r="A38" s="150">
         <v>5.6</v>
       </c>
-      <c r="B38" s="142" t="s">
+      <c r="B38" s="151" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4819,8 +4824,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="160"/>
-      <c r="B39" s="142"/>
+      <c r="A39" s="150"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4853,7 +4858,7 @@
       <c r="AF39" s="110"/>
       <c r="AG39" s="110"/>
       <c r="AH39" s="8"/>
-      <c r="AI39" s="169"/>
+      <c r="AI39" s="120"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="28"/>
@@ -4896,10 +4901,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="160">
+      <c r="A40" s="150">
         <v>5.7</v>
       </c>
-      <c r="B40" s="142" t="s">
+      <c r="B40" s="151" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4977,8 +4982,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="160"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="150"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5017,8 +5022,8 @@
       <c r="AL41" s="28"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="7"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="8"/>
+      <c r="AO41" s="171"/>
+      <c r="AP41" s="173"/>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="27"/>
@@ -5054,10 +5059,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="146">
+      <c r="A42" s="152">
         <v>5.8</v>
       </c>
-      <c r="B42" s="142" t="s">
+      <c r="B42" s="151" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5135,8 +5140,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="141"/>
-      <c r="B43" s="143"/>
+      <c r="A43" s="153"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5173,9 +5178,9 @@
       <c r="AJ43" s="17"/>
       <c r="AK43" s="31"/>
       <c r="AL43" s="32"/>
-      <c r="AM43" s="16"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="17"/>
+      <c r="AM43" s="106"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="172"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="17"/>
@@ -5212,10 +5217,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="140">
+      <c r="A44" s="155">
         <v>6</v>
       </c>
-      <c r="B44" s="154" t="s">
+      <c r="B44" s="124" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5293,8 +5298,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="141"/>
-      <c r="B45" s="155"/>
+      <c r="A45" s="153"/>
+      <c r="B45" s="125"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5370,10 +5375,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="156">
+      <c r="A46" s="148">
         <v>6.1</v>
       </c>
-      <c r="B46" s="158" t="s">
+      <c r="B46" s="149" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5451,8 +5456,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157"/>
-      <c r="B47" s="159"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5528,10 +5533,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="165">
+      <c r="A48" s="126">
         <v>7</v>
       </c>
-      <c r="B48" s="154" t="s">
+      <c r="B48" s="124" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5609,8 +5614,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="157"/>
-      <c r="B49" s="155"/>
+      <c r="A49" s="132"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5686,10 +5691,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="165">
+      <c r="A50" s="126">
         <v>7.1</v>
       </c>
-      <c r="B50" s="166" t="s">
+      <c r="B50" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5767,8 +5772,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="145"/>
-      <c r="B51" s="144"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="129"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5844,10 +5849,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="149">
+      <c r="A52" s="130">
         <v>7.2</v>
       </c>
-      <c r="B52" s="164" t="s">
+      <c r="B52" s="131" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5925,8 +5930,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="145"/>
-      <c r="B53" s="144"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="129"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6002,10 +6007,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="149">
+      <c r="A54" s="130">
         <v>7.3</v>
       </c>
-      <c r="B54" s="164" t="s">
+      <c r="B54" s="131" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6083,8 +6088,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="145"/>
-      <c r="B55" s="144"/>
+      <c r="A55" s="127"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6160,10 +6165,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="149">
+      <c r="A56" s="130">
         <v>7.4</v>
       </c>
-      <c r="B56" s="164" t="s">
+      <c r="B56" s="131" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6241,8 +6246,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="157"/>
-      <c r="B57" s="159"/>
+      <c r="A57" s="132"/>
+      <c r="B57" s="133"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6318,10 +6323,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="165">
+      <c r="A58" s="126">
         <v>8</v>
       </c>
-      <c r="B58" s="154" t="s">
+      <c r="B58" s="124" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6399,8 +6404,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="157"/>
-      <c r="B59" s="155"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6476,10 +6481,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="165">
+      <c r="A60" s="126">
         <v>8.1</v>
       </c>
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="128" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6557,8 +6562,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="145"/>
-      <c r="B61" s="144"/>
+      <c r="A61" s="127"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6634,10 +6639,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="149">
+      <c r="A62" s="130">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="164" t="s">
+      <c r="B62" s="131" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6715,8 +6720,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="145"/>
-      <c r="B63" s="144"/>
+      <c r="A63" s="127"/>
+      <c r="B63" s="129"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6792,10 +6797,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="149">
+      <c r="A64" s="130">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="131" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6873,8 +6878,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="145"/>
-      <c r="B65" s="144"/>
+      <c r="A65" s="127"/>
+      <c r="B65" s="129"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6950,10 +6955,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="149">
+      <c r="A66" s="130">
         <v>8.4</v>
       </c>
-      <c r="B66" s="164" t="s">
+      <c r="B66" s="131" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7031,8 +7036,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="157"/>
-      <c r="B67" s="159"/>
+      <c r="A67" s="132"/>
+      <c r="B67" s="133"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7108,10 +7113,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="167">
+      <c r="A68" s="122">
         <v>9</v>
       </c>
-      <c r="B68" s="154" t="s">
+      <c r="B68" s="124" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7189,8 +7194,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
-      <c r="B69" s="155"/>
+      <c r="A69" s="123"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7230,7 +7235,7 @@
       <c r="AM69" s="16"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
-      <c r="AP69" s="18"/>
+      <c r="AP69" s="109"/>
       <c r="AQ69" s="16"/>
       <c r="AR69" s="17"/>
       <c r="AS69" s="31"/>
@@ -7266,10 +7271,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="167">
+      <c r="A70" s="122">
         <v>10</v>
       </c>
-      <c r="B70" s="154" t="s">
+      <c r="B70" s="124" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7347,8 +7352,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="168"/>
-      <c r="B71" s="155"/>
+      <c r="A71" s="123"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7388,7 +7393,7 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
-      <c r="AP71" s="18"/>
+      <c r="AP71" s="109"/>
       <c r="AQ71" s="16"/>
       <c r="AR71" s="17"/>
       <c r="AS71" s="31"/>
@@ -7424,10 +7429,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="167">
+      <c r="A72" s="122">
         <v>11</v>
       </c>
-      <c r="B72" s="154" t="s">
+      <c r="B72" s="124" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7505,8 +7510,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="168"/>
-      <c r="B73" s="155"/>
+      <c r="A73" s="123"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7582,10 +7587,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="167">
+      <c r="A74" s="122">
         <v>12</v>
       </c>
-      <c r="B74" s="154" t="s">
+      <c r="B74" s="124" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7663,8 +7668,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="168"/>
-      <c r="B75" s="155"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="125"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7779,50 +7784,60 @@
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="170" t="s">
+      <c r="B85" s="121" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="B1:B3"/>
@@ -7847,54 +7862,44 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86461B21-064E-B84E-BAC5-2A6FC7D609EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5EE48-37AC-1B43-862B-F8464744ACC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1115,49 +1115,24 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,16 +1144,28 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,64 +1174,40 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1253,20 +1216,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ38" sqref="AQ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,240 +1604,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="168" t="s">
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="168" t="s">
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="168" t="s">
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="142"/>
-      <c r="S1" s="168" t="s">
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="141"/>
-      <c r="U1" s="141"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="168" t="s">
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="141"/>
-      <c r="Y1" s="141"/>
-      <c r="Z1" s="142"/>
-      <c r="AA1" s="168" t="s">
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="141"/>
-      <c r="AC1" s="141"/>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="168" t="s">
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="142"/>
-      <c r="AI1" s="168" t="s">
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="141"/>
-      <c r="AK1" s="141"/>
-      <c r="AL1" s="142"/>
-      <c r="AM1" s="168" t="s">
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="131"/>
+      <c r="AM1" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="141"/>
-      <c r="AO1" s="141"/>
-      <c r="AP1" s="142"/>
-      <c r="AQ1" s="168" t="s">
+      <c r="AN1" s="130"/>
+      <c r="AO1" s="130"/>
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="141"/>
-      <c r="AS1" s="141"/>
-      <c r="AT1" s="142"/>
-      <c r="AU1" s="134" t="s">
+      <c r="AR1" s="130"/>
+      <c r="AS1" s="130"/>
+      <c r="AT1" s="131"/>
+      <c r="AU1" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="135"/>
-      <c r="AW1" s="135"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="134" t="s">
+      <c r="AV1" s="140"/>
+      <c r="AW1" s="140"/>
+      <c r="AX1" s="141"/>
+      <c r="AY1" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="134" t="s">
+      <c r="AZ1" s="140"/>
+      <c r="BA1" s="140"/>
+      <c r="BB1" s="141"/>
+      <c r="BC1" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="136"/>
-      <c r="BG1" s="140" t="s">
+      <c r="BD1" s="140"/>
+      <c r="BE1" s="140"/>
+      <c r="BF1" s="141"/>
+      <c r="BG1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="141"/>
-      <c r="BI1" s="141"/>
-      <c r="BJ1" s="142"/>
-      <c r="BK1" s="134" t="s">
+      <c r="BH1" s="130"/>
+      <c r="BI1" s="130"/>
+      <c r="BJ1" s="131"/>
+      <c r="BK1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="135"/>
-      <c r="BM1" s="135"/>
-      <c r="BN1" s="136"/>
-      <c r="BO1" s="134" t="s">
+      <c r="BL1" s="140"/>
+      <c r="BM1" s="140"/>
+      <c r="BN1" s="141"/>
+      <c r="BO1" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="135"/>
-      <c r="BQ1" s="135"/>
-      <c r="BR1" s="136"/>
-      <c r="BS1" s="134" t="s">
+      <c r="BP1" s="140"/>
+      <c r="BQ1" s="140"/>
+      <c r="BR1" s="141"/>
+      <c r="BS1" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="135"/>
-      <c r="BU1" s="135"/>
-      <c r="BV1" s="136"/>
+      <c r="BT1" s="140"/>
+      <c r="BU1" s="140"/>
+      <c r="BV1" s="141"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="170"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="161">
+      <c r="A2" s="138"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="142">
         <v>43948</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="161">
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="142">
         <v>43949</v>
       </c>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="161">
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="142">
         <v>43950</v>
       </c>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="145"/>
-      <c r="O2" s="161">
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
+      <c r="O2" s="142">
         <v>43951</v>
       </c>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="144"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="161">
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="144"/>
+      <c r="S2" s="142">
         <v>43952</v>
       </c>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="161">
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="142">
         <v>43953</v>
       </c>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="161">
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="142">
         <v>43954</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="145"/>
-      <c r="AE2" s="161">
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="142">
         <v>43955</v>
       </c>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="145"/>
-      <c r="AI2" s="161">
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="142">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="144"/>
-      <c r="AK2" s="144"/>
-      <c r="AL2" s="145"/>
-      <c r="AM2" s="161">
+      <c r="AJ2" s="143"/>
+      <c r="AK2" s="143"/>
+      <c r="AL2" s="144"/>
+      <c r="AM2" s="142">
         <v>43957</v>
       </c>
-      <c r="AN2" s="144"/>
-      <c r="AO2" s="144"/>
-      <c r="AP2" s="145"/>
-      <c r="AQ2" s="161">
+      <c r="AN2" s="143"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144"/>
+      <c r="AQ2" s="142">
         <v>43958</v>
       </c>
-      <c r="AR2" s="144"/>
-      <c r="AS2" s="144"/>
-      <c r="AT2" s="145"/>
-      <c r="AU2" s="137">
+      <c r="AR2" s="143"/>
+      <c r="AS2" s="143"/>
+      <c r="AT2" s="144"/>
+      <c r="AU2" s="132">
         <v>43959</v>
       </c>
-      <c r="AV2" s="138"/>
-      <c r="AW2" s="138"/>
-      <c r="AX2" s="139"/>
-      <c r="AY2" s="137">
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="132">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="139"/>
-      <c r="BC2" s="137">
+      <c r="AZ2" s="133"/>
+      <c r="BA2" s="133"/>
+      <c r="BB2" s="134"/>
+      <c r="BC2" s="132">
         <v>43961</v>
       </c>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="139"/>
-      <c r="BG2" s="143">
+      <c r="BD2" s="133"/>
+      <c r="BE2" s="133"/>
+      <c r="BF2" s="134"/>
+      <c r="BG2" s="170">
         <v>43962</v>
       </c>
-      <c r="BH2" s="144"/>
-      <c r="BI2" s="144"/>
-      <c r="BJ2" s="145"/>
-      <c r="BK2" s="137">
+      <c r="BH2" s="143"/>
+      <c r="BI2" s="143"/>
+      <c r="BJ2" s="144"/>
+      <c r="BK2" s="132">
         <v>43963</v>
       </c>
-      <c r="BL2" s="138"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="139"/>
-      <c r="BO2" s="137">
+      <c r="BL2" s="133"/>
+      <c r="BM2" s="133"/>
+      <c r="BN2" s="134"/>
+      <c r="BO2" s="132">
         <v>43964</v>
       </c>
-      <c r="BP2" s="138"/>
-      <c r="BQ2" s="138"/>
-      <c r="BR2" s="139"/>
-      <c r="BS2" s="137">
+      <c r="BP2" s="133"/>
+      <c r="BQ2" s="133"/>
+      <c r="BR2" s="134"/>
+      <c r="BS2" s="132">
         <v>43965</v>
       </c>
-      <c r="BT2" s="138"/>
-      <c r="BU2" s="138"/>
-      <c r="BV2" s="138"/>
+      <c r="BT2" s="133"/>
+      <c r="BU2" s="133"/>
+      <c r="BV2" s="133"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="170"/>
-      <c r="B3" s="147"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="160"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2057,10 +2057,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="164">
+      <c r="A4" s="135">
         <v>1</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="127" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="101"/>
@@ -2138,8 +2138,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="163"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="106"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2215,10 +2215,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159">
+      <c r="A6" s="145">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="151" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="88"/>
@@ -2296,8 +2296,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162"/>
-      <c r="B7" s="167"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="106"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2373,10 +2373,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="164">
+      <c r="A8" s="135">
         <v>2</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="127" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="101"/>
@@ -2454,8 +2454,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
-      <c r="B9" s="163"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="106"/>
       <c r="D9" s="107"/>
       <c r="E9" s="17"/>
@@ -2531,10 +2531,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="159">
+      <c r="A10" s="145">
         <v>2.1</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="151" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="88"/>
@@ -2612,8 +2612,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="160"/>
-      <c r="B11" s="151"/>
+      <c r="A11" s="146"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="108"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2689,10 +2689,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="160">
+      <c r="A12" s="146">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="149" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2770,8 +2770,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="154"/>
+      <c r="A13" s="136"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="16"/>
       <c r="D13" s="107"/>
       <c r="E13" s="17"/>
@@ -2847,10 +2847,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="164">
+      <c r="A14" s="135">
         <v>3</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="127" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2928,8 +2928,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
-      <c r="B15" s="163"/>
+      <c r="A15" s="136"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="107"/>
@@ -3005,10 +3005,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="159">
+      <c r="A16" s="145">
         <v>3.1</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="151" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3086,8 +3086,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="160"/>
-      <c r="B17" s="158"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="110"/>
@@ -3163,10 +3163,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="160">
+      <c r="A18" s="146">
         <v>3.2</v>
       </c>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="149" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3244,8 +3244,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="150"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="107"/>
@@ -3321,10 +3321,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="155">
+      <c r="A20" s="147">
         <v>4</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="127" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3402,8 +3402,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
-      <c r="B21" s="163"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3412,7 +3412,7 @@
       <c r="H21" s="107"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="174"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
@@ -3479,10 +3479,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="127">
+      <c r="A22" s="152">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="165" t="s">
+      <c r="B22" s="154" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3560,8 +3560,8 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="152"/>
-      <c r="B23" s="158"/>
+      <c r="A23" s="153"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3637,10 +3637,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="152">
+      <c r="A24" s="153">
         <v>4.2</v>
       </c>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="149" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3718,8 +3718,8 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
-      <c r="B25" s="166"/>
+      <c r="A25" s="156"/>
+      <c r="B25" s="157"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3728,7 +3728,7 @@
       <c r="H25" s="115"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="175"/>
+      <c r="K25" s="126"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
@@ -3795,10 +3795,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155">
+      <c r="A26" s="147">
         <v>5</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="127" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3876,8 +3876,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="152"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3917,7 +3917,7 @@
       <c r="AM27" s="108"/>
       <c r="AN27" s="110"/>
       <c r="AO27" s="110"/>
-      <c r="AP27" s="8"/>
+      <c r="AP27" s="124"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="27"/>
@@ -3953,10 +3953,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="152">
+      <c r="A28" s="153">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="149" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -4034,8 +4034,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152"/>
-      <c r="B29" s="158"/>
+      <c r="A29" s="153"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4111,10 +4111,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="152">
+      <c r="A30" s="153">
         <v>5.2</v>
       </c>
-      <c r="B30" s="151" t="s">
+      <c r="B30" s="149" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4192,8 +4192,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="152"/>
-      <c r="B31" s="158"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="155"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4269,10 +4269,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="152">
+      <c r="A32" s="153">
         <v>5.3</v>
       </c>
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="149" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4350,8 +4350,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="152"/>
-      <c r="B33" s="151"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="149"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4427,10 +4427,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="152">
+      <c r="A34" s="153">
         <v>5.4</v>
       </c>
-      <c r="B34" s="151" t="s">
+      <c r="B34" s="149" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4508,8 +4508,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="152"/>
-      <c r="B35" s="151"/>
+      <c r="A35" s="153"/>
+      <c r="B35" s="149"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4585,10 +4585,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="150">
+      <c r="A36" s="167">
         <v>5.5</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="149" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4666,8 +4666,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="150"/>
-      <c r="B37" s="151"/>
+      <c r="A37" s="167"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4743,10 +4743,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="150">
+      <c r="A38" s="167">
         <v>5.6</v>
       </c>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="149" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4824,8 +4824,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="150"/>
-      <c r="B39" s="151"/>
+      <c r="A39" s="167"/>
+      <c r="B39" s="149"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4901,10 +4901,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="150">
+      <c r="A40" s="167">
         <v>5.7</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="149" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4982,8 +4982,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="150"/>
-      <c r="B41" s="151"/>
+      <c r="A41" s="167"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5022,9 +5022,9 @@
       <c r="AL41" s="28"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="7"/>
-      <c r="AO41" s="171"/>
-      <c r="AP41" s="173"/>
-      <c r="AQ41" s="6"/>
+      <c r="AO41" s="122"/>
+      <c r="AP41" s="124"/>
+      <c r="AQ41" s="120"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="27"/>
       <c r="AT41" s="28"/>
@@ -5059,10 +5059,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="152">
+      <c r="A42" s="153">
         <v>5.8</v>
       </c>
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="149" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5140,8 +5140,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="153"/>
-      <c r="B43" s="154"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5180,7 +5180,7 @@
       <c r="AL43" s="32"/>
       <c r="AM43" s="106"/>
       <c r="AN43" s="107"/>
-      <c r="AO43" s="172"/>
+      <c r="AO43" s="123"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="17"/>
@@ -5217,10 +5217,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="155">
+      <c r="A44" s="147">
         <v>6</v>
       </c>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="161" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5298,8 +5298,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="153"/>
-      <c r="B45" s="125"/>
+      <c r="A45" s="148"/>
+      <c r="B45" s="162"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5375,10 +5375,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="148">
+      <c r="A46" s="163">
         <v>6.1</v>
       </c>
-      <c r="B46" s="149" t="s">
+      <c r="B46" s="165" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5456,8 +5456,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="132"/>
-      <c r="B47" s="133"/>
+      <c r="A47" s="164"/>
+      <c r="B47" s="166"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5533,10 +5533,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="126">
+      <c r="A48" s="172">
         <v>7</v>
       </c>
-      <c r="B48" s="124" t="s">
+      <c r="B48" s="161" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5614,8 +5614,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="132"/>
-      <c r="B49" s="125"/>
+      <c r="A49" s="164"/>
+      <c r="B49" s="162"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5691,10 +5691,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="126">
+      <c r="A50" s="172">
         <v>7.1</v>
       </c>
-      <c r="B50" s="128" t="s">
+      <c r="B50" s="173" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5772,8 +5772,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="127"/>
-      <c r="B51" s="129"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5849,10 +5849,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="130">
+      <c r="A52" s="156">
         <v>7.2</v>
       </c>
-      <c r="B52" s="131" t="s">
+      <c r="B52" s="171" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5930,8 +5930,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="127"/>
-      <c r="B53" s="129"/>
+      <c r="A53" s="152"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6007,10 +6007,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="130">
+      <c r="A54" s="156">
         <v>7.3</v>
       </c>
-      <c r="B54" s="131" t="s">
+      <c r="B54" s="171" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6088,8 +6088,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="127"/>
-      <c r="B55" s="129"/>
+      <c r="A55" s="152"/>
+      <c r="B55" s="151"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6165,10 +6165,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="130">
+      <c r="A56" s="156">
         <v>7.4</v>
       </c>
-      <c r="B56" s="131" t="s">
+      <c r="B56" s="171" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6246,8 +6246,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="132"/>
-      <c r="B57" s="133"/>
+      <c r="A57" s="164"/>
+      <c r="B57" s="166"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6323,10 +6323,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="126">
+      <c r="A58" s="172">
         <v>8</v>
       </c>
-      <c r="B58" s="124" t="s">
+      <c r="B58" s="161" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6404,8 +6404,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="132"/>
-      <c r="B59" s="125"/>
+      <c r="A59" s="164"/>
+      <c r="B59" s="162"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6481,10 +6481,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="126">
+      <c r="A60" s="172">
         <v>8.1</v>
       </c>
-      <c r="B60" s="128" t="s">
+      <c r="B60" s="173" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6562,8 +6562,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="127"/>
-      <c r="B61" s="129"/>
+      <c r="A61" s="152"/>
+      <c r="B61" s="151"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6639,10 +6639,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="130">
+      <c r="A62" s="156">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="131" t="s">
+      <c r="B62" s="171" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6720,8 +6720,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="127"/>
-      <c r="B63" s="129"/>
+      <c r="A63" s="152"/>
+      <c r="B63" s="151"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6797,10 +6797,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="130">
+      <c r="A64" s="156">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="171" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6878,8 +6878,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="127"/>
-      <c r="B65" s="129"/>
+      <c r="A65" s="152"/>
+      <c r="B65" s="151"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6955,10 +6955,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="130">
+      <c r="A66" s="156">
         <v>8.4</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="171" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7036,8 +7036,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
-      <c r="B67" s="133"/>
+      <c r="A67" s="164"/>
+      <c r="B67" s="166"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7113,10 +7113,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="122">
+      <c r="A68" s="174">
         <v>9</v>
       </c>
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="161" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7194,8 +7194,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="123"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="175"/>
+      <c r="B69" s="162"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7236,8 +7236,8 @@
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
       <c r="AP69" s="109"/>
-      <c r="AQ69" s="16"/>
-      <c r="AR69" s="17"/>
+      <c r="AQ69" s="106"/>
+      <c r="AR69" s="107"/>
       <c r="AS69" s="31"/>
       <c r="AT69" s="32"/>
       <c r="AU69" s="16"/>
@@ -7271,10 +7271,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="122">
+      <c r="A70" s="174">
         <v>10</v>
       </c>
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="161" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7352,8 +7352,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="123"/>
-      <c r="B71" s="125"/>
+      <c r="A71" s="175"/>
+      <c r="B71" s="162"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7394,8 +7394,8 @@
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
       <c r="AP71" s="109"/>
-      <c r="AQ71" s="16"/>
-      <c r="AR71" s="17"/>
+      <c r="AQ71" s="106"/>
+      <c r="AR71" s="107"/>
       <c r="AS71" s="31"/>
       <c r="AT71" s="32"/>
       <c r="AU71" s="16"/>
@@ -7429,10 +7429,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="122">
+      <c r="A72" s="174">
         <v>11</v>
       </c>
-      <c r="B72" s="124" t="s">
+      <c r="B72" s="161" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7510,8 +7510,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="123"/>
-      <c r="B73" s="125"/>
+      <c r="A73" s="175"/>
+      <c r="B73" s="162"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7587,10 +7587,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="122">
+      <c r="A74" s="174">
         <v>12</v>
       </c>
-      <c r="B74" s="124" t="s">
+      <c r="B74" s="161" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7668,8 +7668,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="123"/>
-      <c r="B75" s="125"/>
+      <c r="A75" s="175"/>
+      <c r="B75" s="162"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7790,6 +7790,92 @@
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="C1:F1"/>
@@ -7814,92 +7900,6 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F5EE48-37AC-1B43-862B-F8464744ACC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{993648A9-AA01-4D4C-8B7A-A66877E3B261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,7 +1080,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1585,8 +1584,8 @@
   </sheetPr>
   <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ38" sqref="AQ38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG64" sqref="BG64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1604,240 +1603,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="129" t="s">
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="129" t="s">
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="129" t="s">
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="129" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="129" t="s">
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="129" t="s">
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="130"/>
+      <c r="AA1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="129" t="s">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="130"/>
-      <c r="AG1" s="130"/>
-      <c r="AH1" s="131"/>
-      <c r="AI1" s="129" t="s">
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="130"/>
-      <c r="AK1" s="130"/>
-      <c r="AL1" s="131"/>
-      <c r="AM1" s="129" t="s">
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="130"/>
-      <c r="AO1" s="130"/>
-      <c r="AP1" s="131"/>
-      <c r="AQ1" s="129" t="s">
+      <c r="AN1" s="129"/>
+      <c r="AO1" s="129"/>
+      <c r="AP1" s="130"/>
+      <c r="AQ1" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="130"/>
-      <c r="AS1" s="130"/>
-      <c r="AT1" s="131"/>
-      <c r="AU1" s="139" t="s">
+      <c r="AR1" s="129"/>
+      <c r="AS1" s="129"/>
+      <c r="AT1" s="130"/>
+      <c r="AU1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="140"/>
-      <c r="AW1" s="140"/>
-      <c r="AX1" s="141"/>
-      <c r="AY1" s="139" t="s">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="139"/>
+      <c r="AX1" s="140"/>
+      <c r="AY1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="140"/>
-      <c r="BA1" s="140"/>
-      <c r="BB1" s="141"/>
-      <c r="BC1" s="139" t="s">
+      <c r="AZ1" s="139"/>
+      <c r="BA1" s="139"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="140"/>
-      <c r="BE1" s="140"/>
-      <c r="BF1" s="141"/>
-      <c r="BG1" s="169" t="s">
+      <c r="BD1" s="139"/>
+      <c r="BE1" s="139"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="130"/>
-      <c r="BI1" s="130"/>
-      <c r="BJ1" s="131"/>
-      <c r="BK1" s="139" t="s">
+      <c r="BH1" s="129"/>
+      <c r="BI1" s="129"/>
+      <c r="BJ1" s="130"/>
+      <c r="BK1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="140"/>
-      <c r="BM1" s="140"/>
-      <c r="BN1" s="141"/>
-      <c r="BO1" s="139" t="s">
+      <c r="BL1" s="139"/>
+      <c r="BM1" s="139"/>
+      <c r="BN1" s="140"/>
+      <c r="BO1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="140"/>
-      <c r="BQ1" s="140"/>
-      <c r="BR1" s="141"/>
-      <c r="BS1" s="139" t="s">
+      <c r="BP1" s="139"/>
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="140"/>
+      <c r="BS1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="140"/>
-      <c r="BU1" s="140"/>
-      <c r="BV1" s="141"/>
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="140"/>
       <c r="BW1" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="138"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="142">
+      <c r="A2" s="137"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="141">
         <v>43948</v>
       </c>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="142">
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="141">
         <v>43949</v>
       </c>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="142">
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="141">
         <v>43950</v>
       </c>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="142">
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="141">
         <v>43951</v>
       </c>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="144"/>
-      <c r="S2" s="142">
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="141">
         <v>43952</v>
       </c>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="142">
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="141">
         <v>43953</v>
       </c>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="142">
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="141">
         <v>43954</v>
       </c>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="142">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="141">
         <v>43955</v>
       </c>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="142">
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="141">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="142">
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="143"/>
+      <c r="AM2" s="141">
         <v>43957</v>
       </c>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="144"/>
-      <c r="AQ2" s="142">
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="143"/>
+      <c r="AQ2" s="141">
         <v>43958</v>
       </c>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="144"/>
-      <c r="AU2" s="132">
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="143"/>
+      <c r="AU2" s="131">
         <v>43959</v>
       </c>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="132">
+      <c r="AV2" s="132"/>
+      <c r="AW2" s="132"/>
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="131">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="133"/>
-      <c r="BA2" s="133"/>
-      <c r="BB2" s="134"/>
-      <c r="BC2" s="132">
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="132"/>
+      <c r="BB2" s="133"/>
+      <c r="BC2" s="131">
         <v>43961</v>
       </c>
-      <c r="BD2" s="133"/>
-      <c r="BE2" s="133"/>
-      <c r="BF2" s="134"/>
-      <c r="BG2" s="170">
+      <c r="BD2" s="132"/>
+      <c r="BE2" s="132"/>
+      <c r="BF2" s="133"/>
+      <c r="BG2" s="169">
         <v>43962</v>
       </c>
-      <c r="BH2" s="143"/>
-      <c r="BI2" s="143"/>
-      <c r="BJ2" s="144"/>
-      <c r="BK2" s="132">
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="143"/>
+      <c r="BK2" s="131">
         <v>43963</v>
       </c>
-      <c r="BL2" s="133"/>
-      <c r="BM2" s="133"/>
-      <c r="BN2" s="134"/>
-      <c r="BO2" s="132">
+      <c r="BL2" s="132"/>
+      <c r="BM2" s="132"/>
+      <c r="BN2" s="133"/>
+      <c r="BO2" s="131">
         <v>43964</v>
       </c>
-      <c r="BP2" s="133"/>
-      <c r="BQ2" s="133"/>
-      <c r="BR2" s="134"/>
-      <c r="BS2" s="132">
+      <c r="BP2" s="132"/>
+      <c r="BQ2" s="132"/>
+      <c r="BR2" s="133"/>
+      <c r="BS2" s="131">
         <v>43965</v>
       </c>
-      <c r="BT2" s="133"/>
-      <c r="BU2" s="133"/>
-      <c r="BV2" s="133"/>
+      <c r="BT2" s="132"/>
+      <c r="BU2" s="132"/>
+      <c r="BV2" s="132"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="160"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="159"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2057,13 +2056,13 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="135">
+      <c r="A4" s="134">
         <v>1</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="101"/>
+      <c r="C4" s="100"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="14"/>
@@ -2138,9 +2137,9 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="106"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
@@ -2215,13 +2214,13 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145">
+      <c r="A6" s="144">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="87"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
@@ -2296,9 +2295,9 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="106"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="105"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
@@ -2373,14 +2372,14 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="135">
+      <c r="A8" s="134">
         <v>2</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="69"/>
       <c r="F8" s="14"/>
       <c r="G8" s="4"/>
@@ -2454,10 +2453,10 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="16"/>
@@ -2531,13 +2530,13 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="145">
+      <c r="A10" s="144">
         <v>2.1</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="88"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
@@ -2612,9 +2611,9 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="146"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -2689,14 +2688,14 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="146">
+      <c r="A12" s="145">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="148" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="90"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="6"/>
@@ -2770,10 +2769,10 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="150"/>
+      <c r="A13" s="135"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="107"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="16"/>
@@ -2847,18 +2846,18 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="135">
+      <c r="A14" s="134">
         <v>3</v>
       </c>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="126" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="102"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
       <c r="K14" s="4"/>
@@ -2928,14 +2927,14 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="135"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="107"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="16"/>
@@ -3005,18 +3004,18 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="145">
+      <c r="A16" s="144">
         <v>3.1</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="150" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="91"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
       <c r="K16" s="20"/>
@@ -3086,14 +3085,14 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="146"/>
-      <c r="B17" s="155"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="110"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="109"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="6"/>
@@ -3163,15 +3162,15 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="146">
+      <c r="A18" s="145">
         <v>3.2</v>
       </c>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="148" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="90"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -3244,11 +3243,11 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="135"/>
+      <c r="B19" s="149"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="107"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="18"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
@@ -3321,10 +3320,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="147">
+      <c r="A20" s="146">
         <v>4</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="126" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3332,10 +3331,10 @@
       <c r="E20" s="5"/>
       <c r="F20" s="14"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="102"/>
+      <c r="H20" s="101"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="101"/>
+      <c r="K20" s="100"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="14"/>
@@ -3402,17 +3401,17 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="148"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="127"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="107"/>
+      <c r="H21" s="106"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="125"/>
+      <c r="K21" s="124"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
@@ -3479,10 +3478,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="152">
+      <c r="A22" s="151">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="153" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3490,7 +3489,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="91"/>
+      <c r="H22" s="90"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
       <c r="K22" s="20"/>
@@ -3560,14 +3559,14 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="153"/>
-      <c r="B23" s="155"/>
+      <c r="A23" s="152"/>
+      <c r="B23" s="154"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="110"/>
+      <c r="H23" s="109"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
       <c r="K23" s="6"/>
@@ -3637,10 +3636,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="153">
+      <c r="A24" s="152">
         <v>4.2</v>
       </c>
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="148" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3648,10 +3647,10 @@
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="90"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="93"/>
+      <c r="K24" s="92"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="8"/>
@@ -3718,17 +3717,17 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156"/>
-      <c r="B25" s="157"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="115"/>
+      <c r="H25" s="114"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="126"/>
+      <c r="K25" s="125"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
@@ -3795,10 +3794,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="147">
+      <c r="A26" s="146">
         <v>5</v>
       </c>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="126" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3809,12 +3808,12 @@
       <c r="H26" s="5"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="102"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
       <c r="S26" s="51"/>
@@ -3829,17 +3828,17 @@
       <c r="AB26" s="52"/>
       <c r="AC26" s="52"/>
       <c r="AD26" s="53"/>
-      <c r="AE26" s="101"/>
-      <c r="AF26" s="102"/>
-      <c r="AG26" s="102"/>
-      <c r="AH26" s="103"/>
-      <c r="AI26" s="101"/>
-      <c r="AJ26" s="102"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="101"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="26"/>
-      <c r="AM26" s="101"/>
-      <c r="AN26" s="102"/>
-      <c r="AO26" s="102"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="101"/>
+      <c r="AO26" s="101"/>
       <c r="AP26" s="14"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="5"/>
@@ -3876,8 +3875,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="153"/>
-      <c r="B27" s="168"/>
+      <c r="A27" s="152"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3886,12 +3885,12 @@
       <c r="H27" s="7"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="110"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="109"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="28"/>
       <c r="S27" s="54"/>
@@ -3906,18 +3905,18 @@
       <c r="AB27" s="55"/>
       <c r="AC27" s="55"/>
       <c r="AD27" s="56"/>
-      <c r="AE27" s="108"/>
-      <c r="AF27" s="110"/>
-      <c r="AG27" s="110"/>
-      <c r="AH27" s="119"/>
-      <c r="AI27" s="108"/>
-      <c r="AJ27" s="110"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="109"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="107"/>
+      <c r="AJ27" s="109"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="28"/>
-      <c r="AM27" s="108"/>
-      <c r="AN27" s="110"/>
-      <c r="AO27" s="110"/>
-      <c r="AP27" s="124"/>
+      <c r="AM27" s="107"/>
+      <c r="AN27" s="109"/>
+      <c r="AO27" s="109"/>
+      <c r="AP27" s="123"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="27"/>
@@ -3953,10 +3952,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="153">
+      <c r="A28" s="152">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="148" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -3967,8 +3966,8 @@
       <c r="H28" s="7"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="96"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="7"/>
       <c r="N28" s="24"/>
       <c r="O28" s="6"/>
@@ -4034,8 +4033,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="153"/>
-      <c r="B29" s="155"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4044,8 +4043,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="27"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="110"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="109"/>
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
@@ -4111,10 +4110,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="153">
+      <c r="A30" s="152">
         <v>5.2</v>
       </c>
-      <c r="B30" s="149" t="s">
+      <c r="B30" s="148" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4127,7 +4126,7 @@
       <c r="J30" s="28"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="90"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="8"/>
       <c r="O30" s="6"/>
       <c r="P30" s="7"/>
@@ -4192,8 +4191,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="153"/>
-      <c r="B31" s="155"/>
+      <c r="A31" s="152"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4204,7 +4203,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="110"/>
+      <c r="M31" s="109"/>
       <c r="N31" s="8"/>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
@@ -4269,10 +4268,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="153">
+      <c r="A32" s="152">
         <v>5.3</v>
       </c>
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="148" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4285,8 +4284,8 @@
       <c r="J32" s="28"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="92"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="91"/>
       <c r="O32" s="6"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="27"/>
@@ -4350,8 +4349,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="153"/>
-      <c r="B33" s="149"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4362,8 +4361,8 @@
       <c r="J33" s="28"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="111"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="110"/>
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="27"/>
@@ -4427,10 +4426,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="153">
+      <c r="A34" s="152">
         <v>5.4</v>
       </c>
-      <c r="B34" s="149" t="s">
+      <c r="B34" s="148" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4444,9 +4443,9 @@
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="90"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="89"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="28"/>
       <c r="S34" s="54"/>
@@ -4508,8 +4507,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="153"/>
-      <c r="B35" s="149"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4521,9 +4520,9 @@
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="108"/>
-      <c r="P35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="107"/>
+      <c r="P35" s="109"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
       <c r="S35" s="54"/>
@@ -4585,10 +4584,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="167">
+      <c r="A36" s="166">
         <v>5.5</v>
       </c>
-      <c r="B36" s="149" t="s">
+      <c r="B36" s="148" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4604,7 +4603,7 @@
       <c r="M36" s="7"/>
       <c r="N36" s="8"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="90"/>
+      <c r="P36" s="89"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="28"/>
       <c r="S36" s="54"/>
@@ -4619,7 +4618,7 @@
       <c r="AB36" s="55"/>
       <c r="AC36" s="55"/>
       <c r="AD36" s="56"/>
-      <c r="AE36" s="93"/>
+      <c r="AE36" s="92"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="8"/>
@@ -4666,8 +4665,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="167"/>
-      <c r="B37" s="149"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4681,7 +4680,7 @@
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="110"/>
+      <c r="P37" s="109"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="54"/>
@@ -4696,7 +4695,7 @@
       <c r="AB37" s="55"/>
       <c r="AC37" s="55"/>
       <c r="AD37" s="56"/>
-      <c r="AE37" s="118"/>
+      <c r="AE37" s="117"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="8"/>
@@ -4743,10 +4742,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="167">
+      <c r="A38" s="166">
         <v>5.6</v>
       </c>
-      <c r="B38" s="149" t="s">
+      <c r="B38" s="148" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4762,7 +4761,7 @@
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="117"/>
+      <c r="P38" s="116"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="28"/>
       <c r="S38" s="54"/>
@@ -4777,9 +4776,9 @@
       <c r="AB38" s="55"/>
       <c r="AC38" s="55"/>
       <c r="AD38" s="56"/>
-      <c r="AE38" s="93"/>
-      <c r="AF38" s="90"/>
-      <c r="AG38" s="90"/>
+      <c r="AE38" s="92"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="89"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="7"/>
@@ -4824,8 +4823,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="167"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4839,7 +4838,7 @@
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="110"/>
+      <c r="P39" s="109"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="28"/>
       <c r="S39" s="54"/>
@@ -4854,11 +4853,11 @@
       <c r="AB39" s="55"/>
       <c r="AC39" s="55"/>
       <c r="AD39" s="56"/>
-      <c r="AE39" s="108"/>
-      <c r="AF39" s="110"/>
-      <c r="AG39" s="110"/>
+      <c r="AE39" s="107"/>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="109"/>
       <c r="AH39" s="8"/>
-      <c r="AI39" s="120"/>
+      <c r="AI39" s="119"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="28"/>
@@ -4901,10 +4900,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="167">
+      <c r="A40" s="166">
         <v>5.7</v>
       </c>
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4938,9 +4937,9 @@
       <c r="AE40" s="6"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
-      <c r="AH40" s="92"/>
-      <c r="AI40" s="93"/>
-      <c r="AJ40" s="90"/>
+      <c r="AH40" s="91"/>
+      <c r="AI40" s="92"/>
+      <c r="AJ40" s="89"/>
       <c r="AK40" s="27"/>
       <c r="AL40" s="28"/>
       <c r="AM40" s="6"/>
@@ -4982,8 +4981,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="167"/>
-      <c r="B41" s="149"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5015,16 +5014,16 @@
       <c r="AE41" s="6"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
-      <c r="AH41" s="119"/>
-      <c r="AI41" s="118"/>
-      <c r="AJ41" s="110"/>
+      <c r="AH41" s="118"/>
+      <c r="AI41" s="117"/>
+      <c r="AJ41" s="109"/>
       <c r="AK41" s="27"/>
       <c r="AL41" s="28"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="7"/>
-      <c r="AO41" s="122"/>
-      <c r="AP41" s="124"/>
-      <c r="AQ41" s="120"/>
+      <c r="AO41" s="121"/>
+      <c r="AP41" s="123"/>
+      <c r="AQ41" s="119"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="27"/>
       <c r="AT41" s="28"/>
@@ -5059,10 +5058,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="153">
+      <c r="A42" s="152">
         <v>5.8</v>
       </c>
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="148" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5101,9 +5100,9 @@
       <c r="AJ42" s="7"/>
       <c r="AK42" s="27"/>
       <c r="AL42" s="28"/>
-      <c r="AM42" s="93"/>
-      <c r="AN42" s="90"/>
-      <c r="AO42" s="90"/>
+      <c r="AM42" s="92"/>
+      <c r="AN42" s="89"/>
+      <c r="AO42" s="89"/>
       <c r="AP42" s="8"/>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="7"/>
@@ -5140,8 +5139,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="148"/>
-      <c r="B43" s="150"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="149"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5178,9 +5177,9 @@
       <c r="AJ43" s="17"/>
       <c r="AK43" s="31"/>
       <c r="AL43" s="32"/>
-      <c r="AM43" s="106"/>
-      <c r="AN43" s="107"/>
-      <c r="AO43" s="123"/>
+      <c r="AM43" s="105"/>
+      <c r="AN43" s="106"/>
+      <c r="AO43" s="122"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="17"/>
@@ -5217,10 +5216,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="147">
+      <c r="A44" s="146">
         <v>6</v>
       </c>
-      <c r="B44" s="161" t="s">
+      <c r="B44" s="160" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5267,10 +5266,10 @@
       <c r="AR44" s="5"/>
       <c r="AS44" s="25"/>
       <c r="AT44" s="26"/>
-      <c r="AU44" s="101"/>
-      <c r="AV44" s="102"/>
-      <c r="AW44" s="102"/>
-      <c r="AX44" s="103"/>
+      <c r="AU44" s="100"/>
+      <c r="AV44" s="101"/>
+      <c r="AW44" s="101"/>
+      <c r="AX44" s="102"/>
       <c r="AY44" s="41"/>
       <c r="AZ44" s="25"/>
       <c r="BA44" s="52"/>
@@ -5279,8 +5278,8 @@
       <c r="BD44" s="52"/>
       <c r="BE44" s="52"/>
       <c r="BF44" s="53"/>
-      <c r="BG44" s="87"/>
-      <c r="BH44" s="89"/>
+      <c r="BG44" s="100"/>
+      <c r="BH44" s="101"/>
       <c r="BI44" s="5"/>
       <c r="BJ44" s="14"/>
       <c r="BK44" s="15"/>
@@ -5298,8 +5297,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="148"/>
-      <c r="B45" s="162"/>
+      <c r="A45" s="147"/>
+      <c r="B45" s="161"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5344,10 +5343,10 @@
       <c r="AR45" s="17"/>
       <c r="AS45" s="31"/>
       <c r="AT45" s="32"/>
-      <c r="AU45" s="16"/>
-      <c r="AV45" s="17"/>
-      <c r="AW45" s="17"/>
-      <c r="AX45" s="18"/>
+      <c r="AU45" s="105"/>
+      <c r="AV45" s="106"/>
+      <c r="AW45" s="106"/>
+      <c r="AX45" s="108"/>
       <c r="AY45" s="44"/>
       <c r="AZ45" s="31"/>
       <c r="BA45" s="61"/>
@@ -5356,8 +5355,8 @@
       <c r="BD45" s="61"/>
       <c r="BE45" s="61"/>
       <c r="BF45" s="62"/>
-      <c r="BG45" s="16"/>
-      <c r="BH45" s="17"/>
+      <c r="BG45" s="105"/>
+      <c r="BH45" s="106"/>
       <c r="BI45" s="17"/>
       <c r="BJ45" s="18"/>
       <c r="BK45" s="19"/>
@@ -5375,10 +5374,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="163">
+      <c r="A46" s="162">
         <v>6.1</v>
       </c>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5425,10 +5424,10 @@
       <c r="AR46" s="21"/>
       <c r="AS46" s="33"/>
       <c r="AT46" s="34"/>
-      <c r="AU46" s="88"/>
-      <c r="AV46" s="91"/>
-      <c r="AW46" s="91"/>
-      <c r="AX46" s="94"/>
+      <c r="AU46" s="87"/>
+      <c r="AV46" s="90"/>
+      <c r="AW46" s="90"/>
+      <c r="AX46" s="93"/>
       <c r="AY46" s="45"/>
       <c r="AZ46" s="33"/>
       <c r="BA46" s="64"/>
@@ -5437,8 +5436,8 @@
       <c r="BD46" s="64"/>
       <c r="BE46" s="64"/>
       <c r="BF46" s="65"/>
-      <c r="BG46" s="88"/>
-      <c r="BH46" s="91"/>
+      <c r="BG46" s="87"/>
+      <c r="BH46" s="90"/>
       <c r="BI46" s="21"/>
       <c r="BJ46" s="22"/>
       <c r="BK46" s="23"/>
@@ -5456,8 +5455,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="164"/>
-      <c r="B47" s="166"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="165"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5502,10 +5501,10 @@
       <c r="AR47" s="17"/>
       <c r="AS47" s="31"/>
       <c r="AT47" s="32"/>
-      <c r="AU47" s="16"/>
-      <c r="AV47" s="17"/>
-      <c r="AW47" s="17"/>
-      <c r="AX47" s="18"/>
+      <c r="AU47" s="105"/>
+      <c r="AV47" s="106"/>
+      <c r="AW47" s="106"/>
+      <c r="AX47" s="108"/>
       <c r="AY47" s="44"/>
       <c r="AZ47" s="31"/>
       <c r="BA47" s="61"/>
@@ -5514,8 +5513,8 @@
       <c r="BD47" s="61"/>
       <c r="BE47" s="61"/>
       <c r="BF47" s="62"/>
-      <c r="BG47" s="16"/>
-      <c r="BH47" s="17"/>
+      <c r="BG47" s="105"/>
+      <c r="BH47" s="106"/>
       <c r="BI47" s="17"/>
       <c r="BJ47" s="18"/>
       <c r="BK47" s="19"/>
@@ -5533,10 +5532,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="172">
+      <c r="A48" s="171">
         <v>7</v>
       </c>
-      <c r="B48" s="161" t="s">
+      <c r="B48" s="160" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5597,10 +5596,10 @@
       <c r="BF48" s="53"/>
       <c r="BG48" s="4"/>
       <c r="BH48" s="5"/>
-      <c r="BI48" s="102"/>
-      <c r="BJ48" s="103"/>
-      <c r="BK48" s="104"/>
-      <c r="BL48" s="102"/>
+      <c r="BI48" s="101"/>
+      <c r="BJ48" s="102"/>
+      <c r="BK48" s="103"/>
+      <c r="BL48" s="101"/>
       <c r="BM48" s="25"/>
       <c r="BN48" s="35"/>
       <c r="BO48" s="4"/>
@@ -5614,8 +5613,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="164"/>
-      <c r="B49" s="162"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="161"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5674,8 +5673,8 @@
       <c r="BF49" s="62"/>
       <c r="BG49" s="16"/>
       <c r="BH49" s="17"/>
-      <c r="BI49" s="17"/>
-      <c r="BJ49" s="18"/>
+      <c r="BI49" s="106"/>
+      <c r="BJ49" s="108"/>
       <c r="BK49" s="19"/>
       <c r="BL49" s="17"/>
       <c r="BM49" s="31"/>
@@ -5691,10 +5690,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="172">
+      <c r="A50" s="171">
         <v>7.1</v>
       </c>
-      <c r="B50" s="173" t="s">
+      <c r="B50" s="172" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5755,7 +5754,7 @@
       <c r="BF50" s="65"/>
       <c r="BG50" s="20"/>
       <c r="BH50" s="21"/>
-      <c r="BI50" s="91"/>
+      <c r="BI50" s="90"/>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="23"/>
       <c r="BL50" s="21"/>
@@ -5772,8 +5771,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="152"/>
-      <c r="B51" s="151"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="150"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5832,7 +5831,7 @@
       <c r="BF51" s="56"/>
       <c r="BG51" s="6"/>
       <c r="BH51" s="7"/>
-      <c r="BI51" s="7"/>
+      <c r="BI51" s="109"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="9"/>
       <c r="BL51" s="7"/>
@@ -5849,10 +5848,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="156">
+      <c r="A52" s="155">
         <v>7.2</v>
       </c>
-      <c r="B52" s="171" t="s">
+      <c r="B52" s="170" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5914,7 +5913,7 @@
       <c r="BG52" s="6"/>
       <c r="BH52" s="7"/>
       <c r="BI52" s="7"/>
-      <c r="BJ52" s="92"/>
+      <c r="BJ52" s="91"/>
       <c r="BK52" s="9"/>
       <c r="BL52" s="7"/>
       <c r="BM52" s="27"/>
@@ -5930,8 +5929,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="152"/>
-      <c r="B53" s="151"/>
+      <c r="A53" s="151"/>
+      <c r="B53" s="150"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5991,7 +5990,7 @@
       <c r="BG53" s="6"/>
       <c r="BH53" s="7"/>
       <c r="BI53" s="7"/>
-      <c r="BJ53" s="8"/>
+      <c r="BJ53" s="110"/>
       <c r="BK53" s="9"/>
       <c r="BL53" s="7"/>
       <c r="BM53" s="27"/>
@@ -6007,10 +6006,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="156">
+      <c r="A54" s="155">
         <v>7.3</v>
       </c>
-      <c r="B54" s="171" t="s">
+      <c r="B54" s="170" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6072,8 +6071,8 @@
       <c r="BG54" s="6"/>
       <c r="BH54" s="7"/>
       <c r="BI54" s="7"/>
-      <c r="BJ54" s="92"/>
-      <c r="BK54" s="95"/>
+      <c r="BJ54" s="91"/>
+      <c r="BK54" s="94"/>
       <c r="BL54" s="7"/>
       <c r="BM54" s="27"/>
       <c r="BN54" s="36"/>
@@ -6088,8 +6087,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="152"/>
-      <c r="B55" s="151"/>
+      <c r="A55" s="151"/>
+      <c r="B55" s="150"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6165,10 +6164,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="156">
+      <c r="A56" s="155">
         <v>7.4</v>
       </c>
-      <c r="B56" s="171" t="s">
+      <c r="B56" s="170" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6231,8 +6230,8 @@
       <c r="BH56" s="7"/>
       <c r="BI56" s="7"/>
       <c r="BJ56" s="8"/>
-      <c r="BK56" s="95"/>
-      <c r="BL56" s="90"/>
+      <c r="BK56" s="94"/>
+      <c r="BL56" s="89"/>
       <c r="BM56" s="27"/>
       <c r="BN56" s="36"/>
       <c r="BO56" s="6"/>
@@ -6246,8 +6245,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="164"/>
-      <c r="B57" s="166"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="165"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6323,10 +6322,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="172">
+      <c r="A58" s="171">
         <v>8</v>
       </c>
-      <c r="B58" s="161" t="s">
+      <c r="B58" s="160" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6393,10 +6392,10 @@
       <c r="BL58" s="5"/>
       <c r="BM58" s="25"/>
       <c r="BN58" s="35"/>
-      <c r="BO58" s="101"/>
-      <c r="BP58" s="102"/>
-      <c r="BQ58" s="102"/>
-      <c r="BR58" s="103"/>
+      <c r="BO58" s="100"/>
+      <c r="BP58" s="101"/>
+      <c r="BQ58" s="101"/>
+      <c r="BR58" s="102"/>
       <c r="BS58" s="4"/>
       <c r="BT58" s="5"/>
       <c r="BU58" s="25"/>
@@ -6404,8 +6403,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="164"/>
-      <c r="B59" s="162"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="161"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6481,10 +6480,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="172">
+      <c r="A60" s="171">
         <v>8.1</v>
       </c>
-      <c r="B60" s="173" t="s">
+      <c r="B60" s="172" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6551,8 +6550,8 @@
       <c r="BL60" s="5"/>
       <c r="BM60" s="25"/>
       <c r="BN60" s="35"/>
-      <c r="BO60" s="89"/>
-      <c r="BP60" s="89"/>
+      <c r="BO60" s="88"/>
+      <c r="BP60" s="88"/>
       <c r="BQ60" s="15"/>
       <c r="BR60" s="14"/>
       <c r="BS60" s="4"/>
@@ -6562,8 +6561,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="152"/>
-      <c r="B61" s="151"/>
+      <c r="A61" s="151"/>
+      <c r="B61" s="150"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6639,10 +6638,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="156">
+      <c r="A62" s="155">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="171" t="s">
+      <c r="B62" s="170" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6710,9 +6709,9 @@
       <c r="BM62" s="27"/>
       <c r="BN62" s="36"/>
       <c r="BO62" s="6"/>
-      <c r="BP62" s="90"/>
-      <c r="BQ62" s="90"/>
-      <c r="BR62" s="92"/>
+      <c r="BP62" s="89"/>
+      <c r="BQ62" s="89"/>
+      <c r="BR62" s="91"/>
       <c r="BS62" s="6"/>
       <c r="BT62" s="7"/>
       <c r="BU62" s="27"/>
@@ -6720,8 +6719,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="152"/>
-      <c r="B63" s="151"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="150"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6797,10 +6796,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="156">
+      <c r="A64" s="155">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="171" t="s">
+      <c r="B64" s="170" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6869,8 +6868,8 @@
       <c r="BN64" s="36"/>
       <c r="BO64" s="6"/>
       <c r="BP64" s="7"/>
-      <c r="BQ64" s="90"/>
-      <c r="BR64" s="92"/>
+      <c r="BQ64" s="89"/>
+      <c r="BR64" s="91"/>
       <c r="BS64" s="6"/>
       <c r="BT64" s="7"/>
       <c r="BU64" s="27"/>
@@ -6878,8 +6877,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="152"/>
-      <c r="B65" s="151"/>
+      <c r="A65" s="151"/>
+      <c r="B65" s="150"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6955,10 +6954,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="156">
+      <c r="A66" s="155">
         <v>8.4</v>
       </c>
-      <c r="B66" s="171" t="s">
+      <c r="B66" s="170" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7028,7 +7027,7 @@
       <c r="BO66" s="6"/>
       <c r="BP66" s="7"/>
       <c r="BQ66" s="7"/>
-      <c r="BR66" s="92"/>
+      <c r="BR66" s="91"/>
       <c r="BS66" s="6"/>
       <c r="BT66" s="7"/>
       <c r="BU66" s="27"/>
@@ -7036,8 +7035,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="164"/>
-      <c r="B67" s="166"/>
+      <c r="A67" s="163"/>
+      <c r="B67" s="165"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7113,16 +7112,16 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="174">
+      <c r="A68" s="173">
         <v>9</v>
       </c>
-      <c r="B68" s="161" t="s">
+      <c r="B68" s="160" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="103"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="4"/>
       <c r="H68" s="5"/>
       <c r="I68" s="25"/>
@@ -7130,9 +7129,9 @@
       <c r="K68" s="4"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="103"/>
+      <c r="N68" s="102"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="102"/>
+      <c r="P68" s="101"/>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
       <c r="S68" s="51"/>
@@ -7150,23 +7149,23 @@
       <c r="AE68" s="4"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="103"/>
+      <c r="AH68" s="102"/>
       <c r="AI68" s="4"/>
-      <c r="AJ68" s="102"/>
+      <c r="AJ68" s="101"/>
       <c r="AK68" s="25"/>
       <c r="AL68" s="26"/>
       <c r="AM68" s="4"/>
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
-      <c r="AP68" s="103"/>
-      <c r="AQ68" s="101"/>
-      <c r="AR68" s="102"/>
+      <c r="AP68" s="102"/>
+      <c r="AQ68" s="100"/>
+      <c r="AR68" s="101"/>
       <c r="AS68" s="25"/>
       <c r="AT68" s="26"/>
       <c r="AU68" s="4"/>
       <c r="AV68" s="5"/>
       <c r="AW68" s="5"/>
-      <c r="AX68" s="103"/>
+      <c r="AX68" s="102"/>
       <c r="AY68" s="41"/>
       <c r="AZ68" s="25"/>
       <c r="BA68" s="52"/>
@@ -7178,9 +7177,9 @@
       <c r="BG68" s="4"/>
       <c r="BH68" s="5"/>
       <c r="BI68" s="5"/>
-      <c r="BJ68" s="103"/>
+      <c r="BJ68" s="102"/>
       <c r="BK68" s="15"/>
-      <c r="BL68" s="102"/>
+      <c r="BL68" s="101"/>
       <c r="BM68" s="25"/>
       <c r="BN68" s="35"/>
       <c r="BO68" s="4"/>
@@ -7194,12 +7193,12 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="175"/>
-      <c r="B69" s="162"/>
+      <c r="A69" s="174"/>
+      <c r="B69" s="161"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="109"/>
+      <c r="F69" s="108"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="31"/>
@@ -7207,9 +7206,9 @@
       <c r="K69" s="16"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
-      <c r="N69" s="109"/>
+      <c r="N69" s="108"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="107"/>
+      <c r="P69" s="106"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="32"/>
       <c r="S69" s="60"/>
@@ -7227,23 +7226,23 @@
       <c r="AE69" s="16"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
-      <c r="AH69" s="109"/>
+      <c r="AH69" s="108"/>
       <c r="AI69" s="16"/>
-      <c r="AJ69" s="107"/>
+      <c r="AJ69" s="106"/>
       <c r="AK69" s="31"/>
       <c r="AL69" s="32"/>
       <c r="AM69" s="16"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
-      <c r="AP69" s="109"/>
-      <c r="AQ69" s="106"/>
-      <c r="AR69" s="107"/>
+      <c r="AP69" s="108"/>
+      <c r="AQ69" s="105"/>
+      <c r="AR69" s="106"/>
       <c r="AS69" s="31"/>
       <c r="AT69" s="32"/>
       <c r="AU69" s="16"/>
       <c r="AV69" s="17"/>
       <c r="AW69" s="17"/>
-      <c r="AX69" s="18"/>
+      <c r="AX69" s="108"/>
       <c r="AY69" s="44"/>
       <c r="AZ69" s="31"/>
       <c r="BA69" s="61"/>
@@ -7255,7 +7254,7 @@
       <c r="BG69" s="16"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="17"/>
-      <c r="BJ69" s="18"/>
+      <c r="BJ69" s="108"/>
       <c r="BK69" s="19"/>
       <c r="BL69" s="17"/>
       <c r="BM69" s="31"/>
@@ -7271,10 +7270,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="174">
+      <c r="A70" s="173">
         <v>10</v>
       </c>
-      <c r="B70" s="161" t="s">
+      <c r="B70" s="160" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7316,9 +7315,9 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="5"/>
       <c r="AO70" s="5"/>
-      <c r="AP70" s="103"/>
-      <c r="AQ70" s="101"/>
-      <c r="AR70" s="102"/>
+      <c r="AP70" s="102"/>
+      <c r="AQ70" s="100"/>
+      <c r="AR70" s="101"/>
       <c r="AS70" s="25"/>
       <c r="AT70" s="26"/>
       <c r="AU70" s="4"/>
@@ -7345,15 +7344,15 @@
       <c r="BP70" s="5"/>
       <c r="BQ70" s="5"/>
       <c r="BR70" s="14"/>
-      <c r="BS70" s="101"/>
+      <c r="BS70" s="100"/>
       <c r="BT70" s="5"/>
       <c r="BU70" s="25"/>
       <c r="BV70" s="26"/>
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="175"/>
-      <c r="B71" s="162"/>
+      <c r="A71" s="174"/>
+      <c r="B71" s="161"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7393,9 +7392,9 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
-      <c r="AP71" s="109"/>
-      <c r="AQ71" s="106"/>
-      <c r="AR71" s="107"/>
+      <c r="AP71" s="108"/>
+      <c r="AQ71" s="105"/>
+      <c r="AR71" s="106"/>
       <c r="AS71" s="31"/>
       <c r="AT71" s="32"/>
       <c r="AU71" s="16"/>
@@ -7429,10 +7428,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="174">
+      <c r="A72" s="173">
         <v>11</v>
       </c>
-      <c r="B72" s="161" t="s">
+      <c r="B72" s="160" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7510,14 +7509,14 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="175"/>
-      <c r="B73" s="162"/>
+      <c r="A73" s="174"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="107"/>
+      <c r="H73" s="106"/>
       <c r="I73" s="31"/>
       <c r="J73" s="32"/>
       <c r="K73" s="16"/>
@@ -7587,10 +7586,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="174">
+      <c r="A74" s="173">
         <v>12</v>
       </c>
-      <c r="B74" s="161" t="s">
+      <c r="B74" s="160" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7662,14 +7661,14 @@
       <c r="BQ74" s="7"/>
       <c r="BR74" s="8"/>
       <c r="BS74" s="6"/>
-      <c r="BT74" s="105"/>
+      <c r="BT74" s="104"/>
       <c r="BU74" s="27"/>
       <c r="BV74" s="28"/>
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="175"/>
-      <c r="B75" s="162"/>
+      <c r="A75" s="174"/>
+      <c r="B75" s="161"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7745,46 +7744,46 @@
       <c r="BW75" s="80"/>
     </row>
     <row r="78" spans="1:75" ht="16" x14ac:dyDescent="0.2">
-      <c r="B78" s="97" t="s">
+      <c r="B78" s="96" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="72"/>
     </row>
     <row r="79" spans="1:75" ht="16" x14ac:dyDescent="0.2">
-      <c r="B79" s="112" t="s">
+      <c r="B79" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="100"/>
+      <c r="C79" s="99"/>
     </row>
     <row r="80" spans="1:75" ht="16" x14ac:dyDescent="0.2">
-      <c r="B80" s="114" t="s">
+      <c r="B80" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="100"/>
+      <c r="C80" s="99"/>
     </row>
     <row r="81" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B81" s="98" t="s">
+      <c r="B81" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="100"/>
+      <c r="C81" s="99"/>
     </row>
     <row r="82" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="98" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B83" s="113" t="s">
+      <c r="B83" s="112" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="116" t="s">
+      <c r="B84" s="115" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="121" t="s">
+      <c r="B85" s="120" t="s">
         <v>53</v>
       </c>
     </row>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{993648A9-AA01-4D4C-8B7A-A66877E3B261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A5C53B-75B4-4944-9ABD-687398F1615C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,19 +1119,49 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,28 +1173,16 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,40 +1191,64 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,57 +1257,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1584,8 +1587,8 @@
   </sheetPr>
   <dimension ref="A1:BY85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG64" sqref="BG64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE77" sqref="BE77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1603,78 +1606,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="158" t="s">
+      <c r="B1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="128" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="128" t="s">
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="128" t="s">
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="128" t="s">
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="129"/>
-      <c r="U1" s="129"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="128" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="128" t="s">
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="128" t="s">
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="130"/>
-      <c r="AI1" s="128" t="s">
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="128" t="s">
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="129"/>
-      <c r="AO1" s="129"/>
-      <c r="AP1" s="130"/>
-      <c r="AQ1" s="128" t="s">
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="129"/>
-      <c r="AS1" s="129"/>
-      <c r="AT1" s="130"/>
+      <c r="AR1" s="145"/>
+      <c r="AS1" s="145"/>
+      <c r="AT1" s="146"/>
       <c r="AU1" s="138" t="s">
         <v>3</v>
       </c>
@@ -1693,12 +1696,12 @@
       <c r="BD1" s="139"/>
       <c r="BE1" s="139"/>
       <c r="BF1" s="140"/>
-      <c r="BG1" s="168" t="s">
+      <c r="BG1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="129"/>
-      <c r="BI1" s="129"/>
-      <c r="BJ1" s="130"/>
+      <c r="BH1" s="145"/>
+      <c r="BI1" s="145"/>
+      <c r="BJ1" s="146"/>
       <c r="BK1" s="138" t="s">
         <v>1</v>
       </c>
@@ -1722,121 +1725,121 @@
       </c>
     </row>
     <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="137"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="141">
+      <c r="A2" s="174"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="165">
         <v>43948</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="141">
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="165">
         <v>43949</v>
       </c>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="141">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="165">
         <v>43950</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="141">
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="165">
         <v>43951</v>
       </c>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="141">
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="165">
         <v>43952</v>
       </c>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="141">
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="165">
         <v>43953</v>
       </c>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="141">
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="165">
         <v>43954</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="141">
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="165">
         <v>43955</v>
       </c>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="141">
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="165">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="141">
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="165">
         <v>43957</v>
       </c>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="142"/>
-      <c r="AP2" s="143"/>
-      <c r="AQ2" s="141">
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="148"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="165">
         <v>43958</v>
       </c>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="131">
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="141">
         <v>43959</v>
       </c>
-      <c r="AV2" s="132"/>
-      <c r="AW2" s="132"/>
-      <c r="AX2" s="133"/>
-      <c r="AY2" s="131">
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="141">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="132"/>
-      <c r="BA2" s="132"/>
-      <c r="BB2" s="133"/>
-      <c r="BC2" s="131">
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="141">
         <v>43961</v>
       </c>
-      <c r="BD2" s="132"/>
-      <c r="BE2" s="132"/>
-      <c r="BF2" s="133"/>
-      <c r="BG2" s="169">
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="147">
         <v>43962</v>
       </c>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="143"/>
-      <c r="BK2" s="131">
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="141">
         <v>43963</v>
       </c>
-      <c r="BL2" s="132"/>
-      <c r="BM2" s="132"/>
-      <c r="BN2" s="133"/>
-      <c r="BO2" s="131">
+      <c r="BL2" s="142"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="143"/>
+      <c r="BO2" s="141">
         <v>43964</v>
       </c>
-      <c r="BP2" s="132"/>
-      <c r="BQ2" s="132"/>
-      <c r="BR2" s="133"/>
-      <c r="BS2" s="131">
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="143"/>
+      <c r="BS2" s="141">
         <v>43965</v>
       </c>
-      <c r="BT2" s="132"/>
-      <c r="BU2" s="132"/>
-      <c r="BV2" s="132"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
       <c r="BW2" s="50"/>
     </row>
     <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137"/>
-      <c r="B3" s="159"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2056,10 +2059,10 @@
       <c r="BW3" s="68"/>
     </row>
     <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="160" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="100"/>
@@ -2137,8 +2140,8 @@
       <c r="BW4" s="79"/>
     </row>
     <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="105"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2214,10 +2217,10 @@
       <c r="BW5" s="80"/>
     </row>
     <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144">
+      <c r="A6" s="163">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="133" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="87"/>
@@ -2295,8 +2298,8 @@
       <c r="BW6" s="81"/>
     </row>
     <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
-      <c r="B7" s="157"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="105"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2372,10 +2375,10 @@
       <c r="BW7" s="80"/>
     </row>
     <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="134">
+      <c r="A8" s="168">
         <v>2</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="160" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="100"/>
@@ -2453,8 +2456,8 @@
       <c r="BW8" s="79"/>
     </row>
     <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="105"/>
       <c r="D9" s="106"/>
       <c r="E9" s="17"/>
@@ -2530,10 +2533,10 @@
       <c r="BW9" s="80"/>
     </row>
     <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="144">
+      <c r="A10" s="163">
         <v>2.1</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="133" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="87"/>
@@ -2611,8 +2614,8 @@
       <c r="BW10" s="81"/>
     </row>
     <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="145"/>
-      <c r="B11" s="148"/>
+      <c r="A11" s="164"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="107"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2688,10 +2691,10 @@
       <c r="BW11" s="82"/>
     </row>
     <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="145">
+      <c r="A12" s="164">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="155" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="6"/>
@@ -2769,8 +2772,8 @@
       <c r="BW12" s="82"/>
     </row>
     <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
-      <c r="B13" s="149"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="16"/>
       <c r="D13" s="106"/>
       <c r="E13" s="17"/>
@@ -2846,10 +2849,10 @@
       <c r="BW13" s="80"/>
     </row>
     <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134">
+      <c r="A14" s="168">
         <v>3</v>
       </c>
-      <c r="B14" s="126" t="s">
+      <c r="B14" s="160" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4"/>
@@ -2927,8 +2930,8 @@
       <c r="BW14" s="79"/>
     </row>
     <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="106"/>
@@ -3004,10 +3007,10 @@
       <c r="BW15" s="80"/>
     </row>
     <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="144">
+      <c r="A16" s="163">
         <v>3.1</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="133" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="20"/>
@@ -3085,8 +3088,8 @@
       <c r="BW16" s="81"/>
     </row>
     <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="145"/>
-      <c r="B17" s="154"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="109"/>
@@ -3162,10 +3165,10 @@
       <c r="BW17" s="82"/>
     </row>
     <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="145">
+      <c r="A18" s="164">
         <v>3.2</v>
       </c>
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="155" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="6"/>
@@ -3243,8 +3246,8 @@
       <c r="BW18" s="82"/>
     </row>
     <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="135"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="106"/>
@@ -3320,10 +3323,10 @@
       <c r="BW19" s="80"/>
     </row>
     <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="146">
+      <c r="A20" s="159">
         <v>4</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="160" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="4"/>
@@ -3401,8 +3404,8 @@
       <c r="BW20" s="79"/>
     </row>
     <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
-      <c r="B21" s="127"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3478,10 +3481,10 @@
       <c r="BW21" s="80"/>
     </row>
     <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="151">
+      <c r="A22" s="131">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="169" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="20"/>
@@ -3559,8 +3562,8 @@
       <c r="BW22" s="81"/>
     </row>
     <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="152"/>
-      <c r="B23" s="154"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3636,10 +3639,10 @@
       <c r="BW23" s="82"/>
     </row>
     <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="152">
+      <c r="A24" s="156">
         <v>4.2</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="155" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="6"/>
@@ -3717,8 +3720,8 @@
       <c r="BW24" s="82"/>
     </row>
     <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="156"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3794,10 +3797,10 @@
       <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="146">
+      <c r="A26" s="159">
         <v>5</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="160" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="4"/>
@@ -3875,8 +3878,8 @@
       <c r="BW26" s="79"/>
     </row>
     <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="152"/>
-      <c r="B27" s="167"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3952,10 +3955,10 @@
       <c r="BW27" s="82"/>
     </row>
     <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="152">
+      <c r="A28" s="156">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="155" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="6"/>
@@ -4033,8 +4036,8 @@
       <c r="BW28" s="82"/>
     </row>
     <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="152"/>
-      <c r="B29" s="154"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4110,10 +4113,10 @@
       <c r="BW29" s="82"/>
     </row>
     <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="152">
+      <c r="A30" s="156">
         <v>5.2</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="155" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="6"/>
@@ -4191,8 +4194,8 @@
       <c r="BW30" s="82"/>
     </row>
     <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="152"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4268,10 +4271,10 @@
       <c r="BW31" s="82"/>
     </row>
     <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="152">
+      <c r="A32" s="156">
         <v>5.3</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="155" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="6"/>
@@ -4349,8 +4352,8 @@
       <c r="BW32" s="82"/>
     </row>
     <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="152"/>
-      <c r="B33" s="148"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4426,10 +4429,10 @@
       <c r="BW33" s="82"/>
     </row>
     <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="152">
+      <c r="A34" s="156">
         <v>5.4</v>
       </c>
-      <c r="B34" s="148" t="s">
+      <c r="B34" s="155" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
@@ -4507,8 +4510,8 @@
       <c r="BW34" s="82"/>
     </row>
     <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="152"/>
-      <c r="B35" s="148"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4584,10 +4587,10 @@
       <c r="BW35" s="82"/>
     </row>
     <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="166">
+      <c r="A36" s="154">
         <v>5.5</v>
       </c>
-      <c r="B36" s="148" t="s">
+      <c r="B36" s="155" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="6"/>
@@ -4665,8 +4668,8 @@
       <c r="BW36" s="82"/>
     </row>
     <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
-      <c r="B37" s="148"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4742,10 +4745,10 @@
       <c r="BW37" s="82"/>
     </row>
     <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="166">
+      <c r="A38" s="154">
         <v>5.6</v>
       </c>
-      <c r="B38" s="148" t="s">
+      <c r="B38" s="155" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="6"/>
@@ -4823,8 +4826,8 @@
       <c r="BW38" s="82"/>
     </row>
     <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="166"/>
-      <c r="B39" s="148"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4900,10 +4903,10 @@
       <c r="BW39" s="82"/>
     </row>
     <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="166">
+      <c r="A40" s="154">
         <v>5.7</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="155" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="6"/>
@@ -4981,8 +4984,8 @@
       <c r="BW40" s="82"/>
     </row>
     <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="166"/>
-      <c r="B41" s="148"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5058,10 +5061,10 @@
       <c r="BW41" s="82"/>
     </row>
     <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="152">
+      <c r="A42" s="156">
         <v>5.8</v>
       </c>
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="155" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="6"/>
@@ -5139,8 +5142,8 @@
       <c r="BW42" s="82"/>
     </row>
     <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="149"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5216,10 +5219,10 @@
       <c r="BW43" s="80"/>
     </row>
     <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="146">
+      <c r="A44" s="159">
         <v>6</v>
       </c>
-      <c r="B44" s="160" t="s">
+      <c r="B44" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4"/>
@@ -5297,8 +5300,8 @@
       <c r="BW44" s="79"/>
     </row>
     <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="161"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5360,7 +5363,7 @@
       <c r="BI45" s="17"/>
       <c r="BJ45" s="18"/>
       <c r="BK45" s="19"/>
-      <c r="BL45" s="17"/>
+      <c r="BL45" s="175"/>
       <c r="BM45" s="31"/>
       <c r="BN45" s="38"/>
       <c r="BO45" s="16"/>
@@ -5374,10 +5377,10 @@
       <c r="BW45" s="80"/>
     </row>
     <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="162">
+      <c r="A46" s="152">
         <v>6.1</v>
       </c>
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="153" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="20"/>
@@ -5455,8 +5458,8 @@
       <c r="BW46" s="81"/>
     </row>
     <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="163"/>
-      <c r="B47" s="165"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5532,10 +5535,10 @@
       <c r="BW47" s="80"/>
     </row>
     <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="171">
+      <c r="A48" s="130">
         <v>7</v>
       </c>
-      <c r="B48" s="160" t="s">
+      <c r="B48" s="128" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="4"/>
@@ -5613,8 +5616,8 @@
       <c r="BW48" s="79"/>
     </row>
     <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="163"/>
-      <c r="B49" s="161"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="129"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5690,10 +5693,10 @@
       <c r="BW49" s="80"/>
     </row>
     <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="171">
+      <c r="A50" s="130">
         <v>7.1</v>
       </c>
-      <c r="B50" s="172" t="s">
+      <c r="B50" s="132" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="20"/>
@@ -5771,8 +5774,8 @@
       <c r="BW50" s="81"/>
     </row>
     <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="151"/>
-      <c r="B51" s="150"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="133"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5848,10 +5851,10 @@
       <c r="BW51" s="82"/>
     </row>
     <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="155">
+      <c r="A52" s="134">
         <v>7.2</v>
       </c>
-      <c r="B52" s="170" t="s">
+      <c r="B52" s="135" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="6"/>
@@ -5929,8 +5932,8 @@
       <c r="BW52" s="82"/>
     </row>
     <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="151"/>
-      <c r="B53" s="150"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -6006,10 +6009,10 @@
       <c r="BW53" s="82"/>
     </row>
     <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="155">
+      <c r="A54" s="134">
         <v>7.3</v>
       </c>
-      <c r="B54" s="170" t="s">
+      <c r="B54" s="135" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="6"/>
@@ -6087,8 +6090,8 @@
       <c r="BW54" s="82"/>
     </row>
     <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="151"/>
-      <c r="B55" s="150"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6148,7 +6151,7 @@
       <c r="BG55" s="6"/>
       <c r="BH55" s="7"/>
       <c r="BI55" s="7"/>
-      <c r="BJ55" s="8"/>
+      <c r="BJ55" s="110"/>
       <c r="BK55" s="9"/>
       <c r="BL55" s="7"/>
       <c r="BM55" s="27"/>
@@ -6164,10 +6167,10 @@
       <c r="BW55" s="82"/>
     </row>
     <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="155">
+      <c r="A56" s="134">
         <v>7.4</v>
       </c>
-      <c r="B56" s="170" t="s">
+      <c r="B56" s="135" t="s">
         <v>32</v>
       </c>
       <c r="C56" s="6"/>
@@ -6245,8 +6248,8 @@
       <c r="BW56" s="82"/>
     </row>
     <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="163"/>
-      <c r="B57" s="165"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="137"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6322,10 +6325,10 @@
       <c r="BW57" s="83"/>
     </row>
     <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="171">
+      <c r="A58" s="130">
         <v>8</v>
       </c>
-      <c r="B58" s="160" t="s">
+      <c r="B58" s="128" t="s">
         <v>33</v>
       </c>
       <c r="C58" s="4"/>
@@ -6403,8 +6406,8 @@
       <c r="BW58" s="79"/>
     </row>
     <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="163"/>
-      <c r="B59" s="161"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6465,8 +6468,8 @@
       <c r="BH59" s="11"/>
       <c r="BI59" s="11"/>
       <c r="BJ59" s="12"/>
-      <c r="BK59" s="13"/>
-      <c r="BL59" s="11"/>
+      <c r="BK59" s="176"/>
+      <c r="BL59" s="177"/>
       <c r="BM59" s="29"/>
       <c r="BN59" s="37"/>
       <c r="BO59" s="10"/>
@@ -6480,10 +6483,10 @@
       <c r="BW59" s="80"/>
     </row>
     <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="171">
+      <c r="A60" s="130">
         <v>8.1</v>
       </c>
-      <c r="B60" s="172" t="s">
+      <c r="B60" s="132" t="s">
         <v>46</v>
       </c>
       <c r="C60" s="4"/>
@@ -6561,8 +6564,8 @@
       <c r="BW60" s="82"/>
     </row>
     <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="151"/>
-      <c r="B61" s="150"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="133"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6638,10 +6641,10 @@
       <c r="BW61" s="82"/>
     </row>
     <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="155">
+      <c r="A62" s="134">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="170" t="s">
+      <c r="B62" s="135" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="6"/>
@@ -6719,8 +6722,8 @@
       <c r="BW62" s="82"/>
     </row>
     <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="151"/>
-      <c r="B63" s="150"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="133"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6796,10 +6799,10 @@
       <c r="BW63" s="82"/>
     </row>
     <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="155">
+      <c r="A64" s="134">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="170" t="s">
+      <c r="B64" s="135" t="s">
         <v>35</v>
       </c>
       <c r="C64" s="6"/>
@@ -6877,8 +6880,8 @@
       <c r="BW64" s="82"/>
     </row>
     <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="151"/>
-      <c r="B65" s="150"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="133"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6954,10 +6957,10 @@
       <c r="BW65" s="82"/>
     </row>
     <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="155">
+      <c r="A66" s="134">
         <v>8.4</v>
       </c>
-      <c r="B66" s="170" t="s">
+      <c r="B66" s="135" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="6"/>
@@ -7035,8 +7038,8 @@
       <c r="BW66" s="82"/>
     </row>
     <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="163"/>
-      <c r="B67" s="165"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="137"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7112,10 +7115,10 @@
       <c r="BW67" s="83"/>
     </row>
     <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="173">
+      <c r="A68" s="126">
         <v>9</v>
       </c>
-      <c r="B68" s="160" t="s">
+      <c r="B68" s="128" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="4"/>
@@ -7193,8 +7196,8 @@
       <c r="BW68" s="79"/>
     </row>
     <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="174"/>
-      <c r="B69" s="161"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7256,7 +7259,7 @@
       <c r="BI69" s="17"/>
       <c r="BJ69" s="108"/>
       <c r="BK69" s="19"/>
-      <c r="BL69" s="17"/>
+      <c r="BL69" s="106"/>
       <c r="BM69" s="31"/>
       <c r="BN69" s="38"/>
       <c r="BO69" s="16"/>
@@ -7270,10 +7273,10 @@
       <c r="BW69" s="80"/>
     </row>
     <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="173">
+      <c r="A70" s="126">
         <v>10</v>
       </c>
-      <c r="B70" s="160" t="s">
+      <c r="B70" s="128" t="s">
         <v>38</v>
       </c>
       <c r="C70" s="4"/>
@@ -7351,8 +7354,8 @@
       <c r="BW70" s="79"/>
     </row>
     <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="174"/>
-      <c r="B71" s="161"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7428,10 +7431,10 @@
       <c r="BW71" s="80"/>
     </row>
     <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="173">
+      <c r="A72" s="126">
         <v>11</v>
       </c>
-      <c r="B72" s="160" t="s">
+      <c r="B72" s="128" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7509,8 +7512,8 @@
       <c r="BW72" s="84"/>
     </row>
     <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="174"/>
-      <c r="B73" s="161"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7572,7 +7575,7 @@
       <c r="BI73" s="17"/>
       <c r="BJ73" s="18"/>
       <c r="BK73" s="19"/>
-      <c r="BL73" s="17"/>
+      <c r="BL73" s="106"/>
       <c r="BM73" s="31"/>
       <c r="BN73" s="38"/>
       <c r="BO73" s="16"/>
@@ -7586,10 +7589,10 @@
       <c r="BW73" s="85"/>
     </row>
     <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="173">
+      <c r="A74" s="126">
         <v>12</v>
       </c>
-      <c r="B74" s="160" t="s">
+      <c r="B74" s="128" t="s">
         <v>39</v>
       </c>
       <c r="C74" s="6"/>
@@ -7667,8 +7670,8 @@
       <c r="BW74" s="82"/>
     </row>
     <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="174"/>
-      <c r="B75" s="161"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="129"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7789,44 +7792,54 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="B1:B3"/>
@@ -7851,54 +7864,44 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A5C53B-75B4-4944-9ABD-687398F1615C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC15343-D92B-E14B-8AF1-DD90F01B29D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>So</t>
-  </si>
-  <si>
-    <t>Überzeit</t>
   </si>
   <si>
     <t>Zeitplan Erstellen</t>
@@ -194,6 +191,9 @@
   <si>
     <t>Mehr benötigt</t>
   </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
 </sst>
 </file>
 
@@ -301,12 +301,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF6F62"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,6 +365,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="47">
     <border>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,34 +1036,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,96 +1067,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1173,16 +1134,28 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,64 +1164,40 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1257,18 +1206,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1585,10 +1580,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY85"/>
+  <dimension ref="A1:BX85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE77" sqref="BE77"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="BX3" sqref="BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1601,245 +1596,240 @@
     <col min="11" max="11" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.33203125" customWidth="1"/>
     <col min="13" max="74" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.83203125" customWidth="1"/>
-    <col min="77" max="77" width="9.1640625" style="40"/>
+    <col min="76" max="76" width="9.1640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:74" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="172" t="s">
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="172" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="172" t="s">
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="172" t="s">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="172" t="s">
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="172" t="s">
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="172" t="s">
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="123"/>
+      <c r="AE1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="145"/>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="172" t="s">
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="145"/>
-      <c r="AK1" s="145"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="172" t="s">
+      <c r="AJ1" s="122"/>
+      <c r="AK1" s="122"/>
+      <c r="AL1" s="123"/>
+      <c r="AM1" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="145"/>
-      <c r="AO1" s="145"/>
-      <c r="AP1" s="146"/>
-      <c r="AQ1" s="172" t="s">
+      <c r="AN1" s="122"/>
+      <c r="AO1" s="122"/>
+      <c r="AP1" s="123"/>
+      <c r="AQ1" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="145"/>
-      <c r="AS1" s="145"/>
-      <c r="AT1" s="146"/>
-      <c r="AU1" s="138" t="s">
+      <c r="AR1" s="122"/>
+      <c r="AS1" s="122"/>
+      <c r="AT1" s="123"/>
+      <c r="AU1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="139"/>
-      <c r="AW1" s="139"/>
-      <c r="AX1" s="140"/>
-      <c r="AY1" s="138" t="s">
+      <c r="AV1" s="132"/>
+      <c r="AW1" s="132"/>
+      <c r="AX1" s="133"/>
+      <c r="AY1" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="139"/>
-      <c r="BA1" s="139"/>
-      <c r="BB1" s="140"/>
-      <c r="BC1" s="138" t="s">
+      <c r="AZ1" s="132"/>
+      <c r="BA1" s="132"/>
+      <c r="BB1" s="133"/>
+      <c r="BC1" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="139"/>
-      <c r="BE1" s="139"/>
-      <c r="BF1" s="140"/>
-      <c r="BG1" s="144" t="s">
+      <c r="BD1" s="132"/>
+      <c r="BE1" s="132"/>
+      <c r="BF1" s="133"/>
+      <c r="BG1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="145"/>
-      <c r="BI1" s="145"/>
-      <c r="BJ1" s="146"/>
-      <c r="BK1" s="138" t="s">
+      <c r="BH1" s="122"/>
+      <c r="BI1" s="122"/>
+      <c r="BJ1" s="123"/>
+      <c r="BK1" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="139"/>
-      <c r="BM1" s="139"/>
-      <c r="BN1" s="140"/>
-      <c r="BO1" s="138" t="s">
+      <c r="BL1" s="132"/>
+      <c r="BM1" s="132"/>
+      <c r="BN1" s="133"/>
+      <c r="BO1" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="139"/>
-      <c r="BQ1" s="139"/>
-      <c r="BR1" s="140"/>
-      <c r="BS1" s="138" t="s">
+      <c r="BP1" s="132"/>
+      <c r="BQ1" s="132"/>
+      <c r="BR1" s="133"/>
+      <c r="BS1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="139"/>
-      <c r="BU1" s="139"/>
-      <c r="BV1" s="140"/>
-      <c r="BW1" s="49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="174"/>
-      <c r="B2" s="151"/>
-      <c r="C2" s="165">
+      <c r="BT1" s="132"/>
+      <c r="BU1" s="132"/>
+      <c r="BV1" s="133"/>
+    </row>
+    <row r="2" spans="1:74" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="130"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="134">
         <v>43948</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="165">
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="134">
         <v>43949</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="165">
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="134">
         <v>43950</v>
       </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="165">
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="134">
         <v>43951</v>
       </c>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="165">
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="134">
         <v>43952</v>
       </c>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="165">
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="134">
         <v>43953</v>
       </c>
-      <c r="X2" s="148"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="165">
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="134">
         <v>43954</v>
       </c>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="165">
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="134">
         <v>43955</v>
       </c>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="148"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="165">
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="136"/>
+      <c r="AI2" s="134">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="165">
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="136"/>
+      <c r="AM2" s="134">
         <v>43957</v>
       </c>
-      <c r="AN2" s="148"/>
-      <c r="AO2" s="148"/>
-      <c r="AP2" s="149"/>
-      <c r="AQ2" s="165">
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="136"/>
+      <c r="AQ2" s="134">
         <v>43958</v>
       </c>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="149"/>
-      <c r="AU2" s="141">
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="136"/>
+      <c r="AU2" s="124">
         <v>43959</v>
       </c>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="141">
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="124">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="141">
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="124">
         <v>43961</v>
       </c>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="147">
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="162">
         <v>43962</v>
       </c>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="149"/>
-      <c r="BK2" s="141">
+      <c r="BH2" s="135"/>
+      <c r="BI2" s="135"/>
+      <c r="BJ2" s="136"/>
+      <c r="BK2" s="124">
         <v>43963</v>
       </c>
-      <c r="BL2" s="142"/>
-      <c r="BM2" s="142"/>
-      <c r="BN2" s="143"/>
-      <c r="BO2" s="141">
+      <c r="BL2" s="125"/>
+      <c r="BM2" s="125"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="124">
         <v>43964</v>
       </c>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="143"/>
-      <c r="BS2" s="141">
+      <c r="BP2" s="125"/>
+      <c r="BQ2" s="125"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="124">
         <v>43965</v>
       </c>
-      <c r="BT2" s="142"/>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="50"/>
-    </row>
-    <row r="3" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174"/>
-      <c r="B3" s="151"/>
+      <c r="BT2" s="125"/>
+      <c r="BU2" s="125"/>
+      <c r="BV2" s="125"/>
+    </row>
+    <row r="3" spans="1:74" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="130"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2005,10 +1995,10 @@
       <c r="BE3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="BF3" s="78" t="s">
+      <c r="BF3" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="BG3" s="77" t="s">
+      <c r="BG3" s="74" t="s">
         <v>7</v>
       </c>
       <c r="BH3" s="1" t="s">
@@ -2056,16 +2046,15 @@
       <c r="BV3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="BW3" s="68"/>
-    </row>
-    <row r="4" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="168">
+    </row>
+    <row r="4" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="127">
         <v>1</v>
       </c>
-      <c r="B4" s="160" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="100"/>
+      <c r="B4" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="90"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="14"/>
@@ -2081,18 +2070,18 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="26"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="51"/>
       <c r="W4" s="41"/>
       <c r="X4" s="25"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="53"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="51"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -2115,12 +2104,12 @@
       <c r="AX4" s="14"/>
       <c r="AY4" s="41"/>
       <c r="AZ4" s="25"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="53"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="49"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="51"/>
       <c r="BG4" s="4"/>
       <c r="BH4" s="5"/>
       <c r="BI4" s="5"/>
@@ -2137,12 +2126,11 @@
       <c r="BT4" s="5"/>
       <c r="BU4" s="25"/>
       <c r="BV4" s="26"/>
-      <c r="BW4" s="79"/>
-    </row>
-    <row r="5" spans="1:75" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="166"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="105"/>
+    </row>
+    <row r="5" spans="1:74" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="18"/>
@@ -2154,22 +2142,22 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="18"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="75"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="72"/>
       <c r="Q5" s="31"/>
       <c r="R5" s="32"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="62"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="60"/>
       <c r="W5" s="44"/>
       <c r="X5" s="31"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="60"/>
-      <c r="AB5" s="61"/>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="62"/>
+      <c r="Y5" s="59"/>
+      <c r="Z5" s="60"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="60"/>
       <c r="AE5" s="16"/>
       <c r="AF5" s="17"/>
       <c r="AG5" s="17"/>
@@ -2192,12 +2180,12 @@
       <c r="AX5" s="18"/>
       <c r="AY5" s="44"/>
       <c r="AZ5" s="31"/>
-      <c r="BA5" s="61"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="60"/>
-      <c r="BD5" s="61"/>
-      <c r="BE5" s="61"/>
-      <c r="BF5" s="62"/>
+      <c r="BA5" s="59"/>
+      <c r="BB5" s="60"/>
+      <c r="BC5" s="58"/>
+      <c r="BD5" s="59"/>
+      <c r="BE5" s="59"/>
+      <c r="BF5" s="60"/>
       <c r="BG5" s="16"/>
       <c r="BH5" s="17"/>
       <c r="BI5" s="17"/>
@@ -2214,16 +2202,15 @@
       <c r="BT5" s="17"/>
       <c r="BU5" s="31"/>
       <c r="BV5" s="32"/>
-      <c r="BW5" s="80"/>
-    </row>
-    <row r="6" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="163">
+    </row>
+    <row r="6" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="137">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="133" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="87"/>
+      <c r="B6" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="77"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
@@ -2239,18 +2226,18 @@
       <c r="P6" s="21"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="34"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="65"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="63"/>
       <c r="W6" s="45"/>
       <c r="X6" s="33"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="64"/>
-      <c r="AC6" s="64"/>
-      <c r="AD6" s="65"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="63"/>
       <c r="AE6" s="20"/>
       <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
@@ -2273,12 +2260,12 @@
       <c r="AX6" s="22"/>
       <c r="AY6" s="45"/>
       <c r="AZ6" s="33"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="65"/>
+      <c r="BA6" s="62"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="62"/>
+      <c r="BE6" s="62"/>
+      <c r="BF6" s="63"/>
       <c r="BG6" s="20"/>
       <c r="BH6" s="21"/>
       <c r="BI6" s="21"/>
@@ -2295,12 +2282,11 @@
       <c r="BT6" s="21"/>
       <c r="BU6" s="33"/>
       <c r="BV6" s="34"/>
-      <c r="BW6" s="81"/>
-    </row>
-    <row r="7" spans="1:75" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="105"/>
+    </row>
+    <row r="7" spans="1:74" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="128"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
@@ -2316,18 +2302,18 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="32"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="60"/>
       <c r="W7" s="44"/>
       <c r="X7" s="31"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="62"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="60"/>
       <c r="AE7" s="16"/>
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
@@ -2350,12 +2336,12 @@
       <c r="AX7" s="18"/>
       <c r="AY7" s="44"/>
       <c r="AZ7" s="31"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="62"/>
-      <c r="BC7" s="60"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="62"/>
+      <c r="BA7" s="59"/>
+      <c r="BB7" s="60"/>
+      <c r="BC7" s="58"/>
+      <c r="BD7" s="59"/>
+      <c r="BE7" s="59"/>
+      <c r="BF7" s="60"/>
       <c r="BG7" s="16"/>
       <c r="BH7" s="17"/>
       <c r="BI7" s="17"/>
@@ -2372,22 +2358,21 @@
       <c r="BT7" s="17"/>
       <c r="BU7" s="31"/>
       <c r="BV7" s="32"/>
-      <c r="BW7" s="80"/>
-    </row>
-    <row r="8" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="168">
+    </row>
+    <row r="8" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="127">
         <v>2</v>
       </c>
-      <c r="B8" s="160" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="14"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="70"/>
+      <c r="I8" s="67"/>
       <c r="J8" s="26"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
@@ -2395,23 +2380,23 @@
       <c r="N8" s="14"/>
       <c r="O8" s="4"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="70"/>
+      <c r="Q8" s="67"/>
       <c r="R8" s="26"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="53"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="51"/>
       <c r="W8" s="41"/>
       <c r="X8" s="25"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="53"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="50"/>
+      <c r="AC8" s="50"/>
+      <c r="AD8" s="51"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="5"/>
-      <c r="AG8" s="69"/>
+      <c r="AG8" s="66"/>
       <c r="AH8" s="14"/>
       <c r="AI8" s="4"/>
       <c r="AJ8" s="5"/>
@@ -2423,7 +2408,7 @@
       <c r="AP8" s="14"/>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="5"/>
-      <c r="AS8" s="70"/>
+      <c r="AS8" s="67"/>
       <c r="AT8" s="26"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="5"/>
@@ -2431,15 +2416,15 @@
       <c r="AX8" s="14"/>
       <c r="AY8" s="41"/>
       <c r="AZ8" s="25"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="53"/>
-      <c r="BC8" s="51"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="53"/>
+      <c r="BA8" s="50"/>
+      <c r="BB8" s="51"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="50"/>
+      <c r="BE8" s="50"/>
+      <c r="BF8" s="51"/>
       <c r="BG8" s="4"/>
       <c r="BH8" s="5"/>
-      <c r="BI8" s="69"/>
+      <c r="BI8" s="66"/>
       <c r="BJ8" s="14"/>
       <c r="BK8" s="15"/>
       <c r="BL8" s="5"/>
@@ -2453,13 +2438,12 @@
       <c r="BT8" s="5"/>
       <c r="BU8" s="25"/>
       <c r="BV8" s="26"/>
-      <c r="BW8" s="79"/>
-    </row>
-    <row r="9" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
+    </row>
+    <row r="9" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="16"/>
@@ -2474,18 +2458,18 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="31"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="60"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="62"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="60"/>
       <c r="W9" s="44"/>
       <c r="X9" s="31"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="62"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="60"/>
       <c r="AE9" s="16"/>
       <c r="AF9" s="17"/>
       <c r="AG9" s="17"/>
@@ -2508,12 +2492,12 @@
       <c r="AX9" s="18"/>
       <c r="AY9" s="44"/>
       <c r="AZ9" s="31"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="60"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="62"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="60"/>
+      <c r="BC9" s="58"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="60"/>
       <c r="BG9" s="16"/>
       <c r="BH9" s="17"/>
       <c r="BI9" s="17"/>
@@ -2530,16 +2514,15 @@
       <c r="BT9" s="17"/>
       <c r="BU9" s="31"/>
       <c r="BV9" s="32"/>
-      <c r="BW9" s="80"/>
-    </row>
-    <row r="10" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="163">
+    </row>
+    <row r="10" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="137">
         <v>2.1</v>
       </c>
-      <c r="B10" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="87"/>
+      <c r="B10" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="77"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
@@ -2555,18 +2538,18 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="33"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="65"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="63"/>
       <c r="W10" s="45"/>
       <c r="X10" s="33"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="65"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="65"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="63"/>
       <c r="AE10" s="20"/>
       <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
@@ -2589,12 +2572,12 @@
       <c r="AX10" s="22"/>
       <c r="AY10" s="45"/>
       <c r="AZ10" s="33"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="65"/>
-      <c r="BC10" s="63"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="64"/>
-      <c r="BF10" s="65"/>
+      <c r="BA10" s="62"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="61"/>
+      <c r="BD10" s="62"/>
+      <c r="BE10" s="62"/>
+      <c r="BF10" s="63"/>
       <c r="BG10" s="20"/>
       <c r="BH10" s="21"/>
       <c r="BI10" s="21"/>
@@ -2611,12 +2594,11 @@
       <c r="BT10" s="21"/>
       <c r="BU10" s="33"/>
       <c r="BV10" s="34"/>
-      <c r="BW10" s="81"/>
-    </row>
-    <row r="11" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="164"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="107"/>
+    </row>
+    <row r="11" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="138"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="97"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
@@ -2632,18 +2614,18 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="28"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="56"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="54"/>
       <c r="W11" s="42"/>
       <c r="X11" s="27"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="56"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="54"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
@@ -2666,12 +2648,12 @@
       <c r="AX11" s="8"/>
       <c r="AY11" s="42"/>
       <c r="AZ11" s="27"/>
-      <c r="BA11" s="55"/>
-      <c r="BB11" s="56"/>
-      <c r="BC11" s="54"/>
-      <c r="BD11" s="55"/>
-      <c r="BE11" s="55"/>
-      <c r="BF11" s="56"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="52"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="54"/>
       <c r="BG11" s="6"/>
       <c r="BH11" s="7"/>
       <c r="BI11" s="7"/>
@@ -2688,17 +2670,16 @@
       <c r="BT11" s="7"/>
       <c r="BU11" s="27"/>
       <c r="BV11" s="28"/>
-      <c r="BW11" s="82"/>
-    </row>
-    <row r="12" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="164">
+    </row>
+    <row r="12" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="138">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="155" t="s">
-        <v>40</v>
+      <c r="B12" s="141" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="89"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
       <c r="G12" s="6"/>
@@ -2713,18 +2694,18 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="28"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54"/>
       <c r="W12" s="42"/>
       <c r="X12" s="27"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="56"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="54"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="7"/>
       <c r="AG12" s="7"/>
@@ -2747,12 +2728,12 @@
       <c r="AX12" s="8"/>
       <c r="AY12" s="42"/>
       <c r="AZ12" s="27"/>
-      <c r="BA12" s="55"/>
-      <c r="BB12" s="56"/>
-      <c r="BC12" s="54"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="56"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+      <c r="BF12" s="54"/>
       <c r="BG12" s="6"/>
       <c r="BH12" s="7"/>
       <c r="BI12" s="7"/>
@@ -2769,13 +2750,12 @@
       <c r="BT12" s="7"/>
       <c r="BU12" s="27"/>
       <c r="BV12" s="28"/>
-      <c r="BW12" s="82"/>
-    </row>
-    <row r="13" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="166"/>
-      <c r="B13" s="158"/>
+    </row>
+    <row r="13" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="128"/>
+      <c r="B13" s="142"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="106"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="16"/>
@@ -2790,18 +2770,18 @@
       <c r="P13" s="17"/>
       <c r="Q13" s="31"/>
       <c r="R13" s="32"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="62"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
       <c r="W13" s="44"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="62"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="60"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="17"/>
       <c r="AG13" s="17"/>
@@ -2824,12 +2804,12 @@
       <c r="AX13" s="18"/>
       <c r="AY13" s="44"/>
       <c r="AZ13" s="31"/>
-      <c r="BA13" s="61"/>
-      <c r="BB13" s="62"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="61"/>
-      <c r="BE13" s="61"/>
-      <c r="BF13" s="62"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="60"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="60"/>
       <c r="BG13" s="16"/>
       <c r="BH13" s="17"/>
       <c r="BI13" s="17"/>
@@ -2846,21 +2826,20 @@
       <c r="BT13" s="17"/>
       <c r="BU13" s="31"/>
       <c r="BV13" s="32"/>
-      <c r="BW13" s="80"/>
-    </row>
-    <row r="14" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="168">
+    </row>
+    <row r="14" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="127">
         <v>3</v>
       </c>
-      <c r="B14" s="160" t="s">
-        <v>14</v>
+      <c r="B14" s="119" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="91"/>
       <c r="I14" s="25"/>
       <c r="J14" s="26"/>
       <c r="K14" s="4"/>
@@ -2871,18 +2850,18 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="53"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="51"/>
       <c r="W14" s="41"/>
       <c r="X14" s="25"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="53"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="53"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="50"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="51"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
@@ -2905,12 +2884,12 @@
       <c r="AX14" s="14"/>
       <c r="AY14" s="41"/>
       <c r="AZ14" s="25"/>
-      <c r="BA14" s="52"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="52"/>
-      <c r="BE14" s="52"/>
-      <c r="BF14" s="53"/>
+      <c r="BA14" s="50"/>
+      <c r="BB14" s="51"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="50"/>
+      <c r="BE14" s="50"/>
+      <c r="BF14" s="51"/>
       <c r="BG14" s="4"/>
       <c r="BH14" s="5"/>
       <c r="BI14" s="5"/>
@@ -2927,17 +2906,16 @@
       <c r="BT14" s="5"/>
       <c r="BU14" s="25"/>
       <c r="BV14" s="26"/>
-      <c r="BW14" s="79"/>
-    </row>
-    <row r="15" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="166"/>
-      <c r="B15" s="167"/>
+    </row>
+    <row r="15" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="128"/>
+      <c r="B15" s="120"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
       <c r="K15" s="16"/>
@@ -2948,18 +2926,18 @@
       <c r="P15" s="17"/>
       <c r="Q15" s="31"/>
       <c r="R15" s="32"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="60"/>
       <c r="W15" s="44"/>
       <c r="X15" s="31"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="62"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="60"/>
       <c r="AE15" s="16"/>
       <c r="AF15" s="17"/>
       <c r="AG15" s="17"/>
@@ -2982,12 +2960,12 @@
       <c r="AX15" s="18"/>
       <c r="AY15" s="44"/>
       <c r="AZ15" s="31"/>
-      <c r="BA15" s="61"/>
-      <c r="BB15" s="62"/>
-      <c r="BC15" s="60"/>
-      <c r="BD15" s="61"/>
-      <c r="BE15" s="61"/>
-      <c r="BF15" s="62"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="60"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="60"/>
       <c r="BG15" s="16"/>
       <c r="BH15" s="17"/>
       <c r="BI15" s="17"/>
@@ -3004,21 +2982,20 @@
       <c r="BT15" s="17"/>
       <c r="BU15" s="31"/>
       <c r="BV15" s="32"/>
-      <c r="BW15" s="80"/>
-    </row>
-    <row r="16" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="163">
+    </row>
+    <row r="16" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="137">
         <v>3.1</v>
       </c>
-      <c r="B16" s="133" t="s">
-        <v>15</v>
+      <c r="B16" s="143" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="90"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
       <c r="K16" s="20"/>
@@ -3029,18 +3006,18 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="34"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="65"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="63"/>
       <c r="W16" s="45"/>
       <c r="X16" s="33"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="63"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="65"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62"/>
+      <c r="AD16" s="63"/>
       <c r="AE16" s="20"/>
       <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
@@ -3063,12 +3040,12 @@
       <c r="AX16" s="22"/>
       <c r="AY16" s="45"/>
       <c r="AZ16" s="33"/>
-      <c r="BA16" s="64"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="64"/>
-      <c r="BE16" s="64"/>
-      <c r="BF16" s="65"/>
+      <c r="BA16" s="62"/>
+      <c r="BB16" s="63"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="62"/>
+      <c r="BE16" s="62"/>
+      <c r="BF16" s="63"/>
       <c r="BG16" s="20"/>
       <c r="BH16" s="21"/>
       <c r="BI16" s="21"/>
@@ -3085,17 +3062,16 @@
       <c r="BT16" s="21"/>
       <c r="BU16" s="33"/>
       <c r="BV16" s="34"/>
-      <c r="BW16" s="81"/>
-    </row>
-    <row r="17" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="164"/>
-      <c r="B17" s="162"/>
+    </row>
+    <row r="17" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="138"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="109"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="99"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="6"/>
@@ -3106,18 +3082,18 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="28"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="56"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="54"/>
       <c r="W17" s="42"/>
       <c r="X17" s="27"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="54"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="56"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="54"/>
       <c r="AE17" s="6"/>
       <c r="AF17" s="7"/>
       <c r="AG17" s="7"/>
@@ -3140,12 +3116,12 @@
       <c r="AX17" s="8"/>
       <c r="AY17" s="42"/>
       <c r="AZ17" s="27"/>
-      <c r="BA17" s="55"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="54"/>
-      <c r="BD17" s="55"/>
-      <c r="BE17" s="55"/>
-      <c r="BF17" s="56"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="52"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="54"/>
       <c r="BG17" s="6"/>
       <c r="BH17" s="7"/>
       <c r="BI17" s="7"/>
@@ -3162,18 +3138,17 @@
       <c r="BT17" s="7"/>
       <c r="BU17" s="27"/>
       <c r="BV17" s="28"/>
-      <c r="BW17" s="82"/>
-    </row>
-    <row r="18" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="164">
+    </row>
+    <row r="18" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="138">
         <v>3.2</v>
       </c>
-      <c r="B18" s="155" t="s">
-        <v>16</v>
+      <c r="B18" s="141" t="s">
+        <v>15</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="89"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -3187,18 +3162,18 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="27"/>
       <c r="R18" s="28"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="56"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
       <c r="W18" s="42"/>
       <c r="X18" s="27"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="56"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="53"/>
+      <c r="AD18" s="54"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7"/>
@@ -3221,12 +3196,12 @@
       <c r="AX18" s="8"/>
       <c r="AY18" s="42"/>
       <c r="AZ18" s="27"/>
-      <c r="BA18" s="55"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="55"/>
-      <c r="BE18" s="55"/>
-      <c r="BF18" s="56"/>
+      <c r="BA18" s="53"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="52"/>
+      <c r="BD18" s="53"/>
+      <c r="BE18" s="53"/>
+      <c r="BF18" s="54"/>
       <c r="BG18" s="6"/>
       <c r="BH18" s="7"/>
       <c r="BI18" s="7"/>
@@ -3243,14 +3218,13 @@
       <c r="BT18" s="7"/>
       <c r="BU18" s="27"/>
       <c r="BV18" s="28"/>
-      <c r="BW18" s="82"/>
-    </row>
-    <row r="19" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="166"/>
-      <c r="B19" s="158"/>
+    </row>
+    <row r="19" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="128"/>
+      <c r="B19" s="142"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="106"/>
+      <c r="E19" s="96"/>
       <c r="F19" s="18"/>
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
@@ -3264,18 +3238,18 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="62"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="60"/>
       <c r="W19" s="44"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="62"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="60"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="60"/>
       <c r="AE19" s="16"/>
       <c r="AF19" s="17"/>
       <c r="AG19" s="17"/>
@@ -3298,12 +3272,12 @@
       <c r="AX19" s="18"/>
       <c r="AY19" s="44"/>
       <c r="AZ19" s="31"/>
-      <c r="BA19" s="61"/>
-      <c r="BB19" s="62"/>
-      <c r="BC19" s="60"/>
-      <c r="BD19" s="61"/>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="62"/>
+      <c r="BA19" s="59"/>
+      <c r="BB19" s="60"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="59"/>
+      <c r="BE19" s="59"/>
+      <c r="BF19" s="60"/>
       <c r="BG19" s="16"/>
       <c r="BH19" s="17"/>
       <c r="BI19" s="17"/>
@@ -3320,24 +3294,23 @@
       <c r="BT19" s="17"/>
       <c r="BU19" s="31"/>
       <c r="BV19" s="32"/>
-      <c r="BW19" s="80"/>
-    </row>
-    <row r="20" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="159">
+    </row>
+    <row r="20" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="139">
         <v>4</v>
       </c>
-      <c r="B20" s="160" t="s">
-        <v>42</v>
+      <c r="B20" s="119" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="14"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="101"/>
+      <c r="H20" s="91"/>
       <c r="I20" s="25"/>
       <c r="J20" s="26"/>
-      <c r="K20" s="100"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="14"/>
@@ -3345,18 +3318,18 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="53"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="51"/>
       <c r="W20" s="41"/>
       <c r="X20" s="25"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="53"/>
+      <c r="Y20" s="50"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="51"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
@@ -3379,12 +3352,12 @@
       <c r="AX20" s="14"/>
       <c r="AY20" s="41"/>
       <c r="AZ20" s="25"/>
-      <c r="BA20" s="52"/>
-      <c r="BB20" s="53"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="52"/>
-      <c r="BE20" s="52"/>
-      <c r="BF20" s="53"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="49"/>
+      <c r="BD20" s="50"/>
+      <c r="BE20" s="50"/>
+      <c r="BF20" s="51"/>
       <c r="BG20" s="4"/>
       <c r="BH20" s="5"/>
       <c r="BI20" s="5"/>
@@ -3401,20 +3374,19 @@
       <c r="BT20" s="5"/>
       <c r="BU20" s="25"/>
       <c r="BV20" s="26"/>
-      <c r="BW20" s="79"/>
-    </row>
-    <row r="21" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="167"/>
+    </row>
+    <row r="21" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="140"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="106"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
-      <c r="K21" s="124"/>
+      <c r="K21" s="114"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="18"/>
@@ -3422,18 +3394,18 @@
       <c r="P21" s="17"/>
       <c r="Q21" s="31"/>
       <c r="R21" s="32"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="62"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="60"/>
       <c r="W21" s="44"/>
       <c r="X21" s="31"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="62"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="60"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="60"/>
       <c r="AE21" s="16"/>
       <c r="AF21" s="17"/>
       <c r="AG21" s="17"/>
@@ -3456,12 +3428,12 @@
       <c r="AX21" s="18"/>
       <c r="AY21" s="44"/>
       <c r="AZ21" s="31"/>
-      <c r="BA21" s="61"/>
-      <c r="BB21" s="62"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="62"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="60"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="60"/>
       <c r="BG21" s="16"/>
       <c r="BH21" s="17"/>
       <c r="BI21" s="17"/>
@@ -3478,21 +3450,20 @@
       <c r="BT21" s="17"/>
       <c r="BU21" s="31"/>
       <c r="BV21" s="32"/>
-      <c r="BW21" s="80"/>
-    </row>
-    <row r="22" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="131">
+    </row>
+    <row r="22" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="144">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="169" t="s">
-        <v>17</v>
+      <c r="B22" s="146" t="s">
+        <v>16</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="90"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
       <c r="K22" s="20"/>
@@ -3503,18 +3474,18 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="34"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="65"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="63"/>
       <c r="W22" s="45"/>
       <c r="X22" s="33"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="63"/>
-      <c r="AB22" s="64"/>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="65"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="63"/>
       <c r="AE22" s="20"/>
       <c r="AF22" s="21"/>
       <c r="AG22" s="21"/>
@@ -3537,12 +3508,12 @@
       <c r="AX22" s="22"/>
       <c r="AY22" s="45"/>
       <c r="AZ22" s="33"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="65"/>
-      <c r="BC22" s="63"/>
-      <c r="BD22" s="64"/>
-      <c r="BE22" s="64"/>
-      <c r="BF22" s="65"/>
+      <c r="BA22" s="62"/>
+      <c r="BB22" s="63"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="62"/>
+      <c r="BE22" s="62"/>
+      <c r="BF22" s="63"/>
       <c r="BG22" s="20"/>
       <c r="BH22" s="21"/>
       <c r="BI22" s="21"/>
@@ -3559,17 +3530,16 @@
       <c r="BT22" s="21"/>
       <c r="BU22" s="33"/>
       <c r="BV22" s="34"/>
-      <c r="BW22" s="81"/>
-    </row>
-    <row r="23" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="156"/>
-      <c r="B23" s="162"/>
+    </row>
+    <row r="23" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="145"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="8"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="109"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
       <c r="K23" s="6"/>
@@ -3580,18 +3550,18 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="28"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="56"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="54"/>
       <c r="W23" s="42"/>
       <c r="X23" s="27"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="54"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="56"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="54"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
@@ -3614,12 +3584,12 @@
       <c r="AX23" s="8"/>
       <c r="AY23" s="42"/>
       <c r="AZ23" s="27"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="55"/>
-      <c r="BE23" s="55"/>
-      <c r="BF23" s="56"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="54"/>
+      <c r="BC23" s="52"/>
+      <c r="BD23" s="53"/>
+      <c r="BE23" s="53"/>
+      <c r="BF23" s="54"/>
       <c r="BG23" s="6"/>
       <c r="BH23" s="7"/>
       <c r="BI23" s="7"/>
@@ -3636,24 +3606,23 @@
       <c r="BT23" s="7"/>
       <c r="BU23" s="27"/>
       <c r="BV23" s="28"/>
-      <c r="BW23" s="82"/>
-    </row>
-    <row r="24" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="156">
+    </row>
+    <row r="24" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="145">
         <v>4.2</v>
       </c>
-      <c r="B24" s="155" t="s">
-        <v>18</v>
+      <c r="B24" s="141" t="s">
+        <v>17</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="8"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="89"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="92"/>
+      <c r="K24" s="82"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="8"/>
@@ -3661,18 +3630,18 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="27"/>
       <c r="R24" s="28"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="56"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="54"/>
       <c r="W24" s="42"/>
       <c r="X24" s="27"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="54"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="56"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="54"/>
       <c r="AE24" s="6"/>
       <c r="AF24" s="7"/>
       <c r="AG24" s="7"/>
@@ -3695,12 +3664,12 @@
       <c r="AX24" s="8"/>
       <c r="AY24" s="42"/>
       <c r="AZ24" s="27"/>
-      <c r="BA24" s="55"/>
-      <c r="BB24" s="56"/>
-      <c r="BC24" s="54"/>
-      <c r="BD24" s="55"/>
-      <c r="BE24" s="55"/>
-      <c r="BF24" s="56"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="54"/>
+      <c r="BC24" s="52"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="54"/>
       <c r="BG24" s="6"/>
       <c r="BH24" s="7"/>
       <c r="BI24" s="7"/>
@@ -3717,20 +3686,19 @@
       <c r="BT24" s="7"/>
       <c r="BU24" s="27"/>
       <c r="BV24" s="28"/>
-      <c r="BW24" s="82"/>
-    </row>
-    <row r="25" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="170"/>
+    </row>
+    <row r="25" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="148"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="114"/>
+      <c r="H25" s="104"/>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="125"/>
+      <c r="K25" s="115"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="12"/>
@@ -3738,18 +3706,18 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="30"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="59"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="57"/>
       <c r="W25" s="43"/>
       <c r="X25" s="29"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="59"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="57"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
@@ -3772,12 +3740,12 @@
       <c r="AX25" s="12"/>
       <c r="AY25" s="43"/>
       <c r="AZ25" s="29"/>
-      <c r="BA25" s="58"/>
-      <c r="BB25" s="59"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="58"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="59"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="55"/>
+      <c r="BD25" s="56"/>
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="57"/>
       <c r="BG25" s="10"/>
       <c r="BH25" s="11"/>
       <c r="BI25" s="11"/>
@@ -3794,14 +3762,13 @@
       <c r="BT25" s="11"/>
       <c r="BU25" s="29"/>
       <c r="BV25" s="30"/>
-      <c r="BW25" s="83"/>
-    </row>
-    <row r="26" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="159">
+    </row>
+    <row r="26" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="139">
         <v>5</v>
       </c>
-      <c r="B26" s="160" t="s">
-        <v>41</v>
+      <c r="B26" s="119" t="s">
+        <v>40</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
@@ -3811,37 +3778,37 @@
       <c r="H26" s="5"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="101"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="53"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="51"/>
       <c r="W26" s="41"/>
       <c r="X26" s="25"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="53"/>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="101"/>
-      <c r="AG26" s="101"/>
-      <c r="AH26" s="102"/>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="101"/>
+      <c r="Y26" s="50"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="49"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="91"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="90"/>
+      <c r="AJ26" s="91"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="26"/>
-      <c r="AM26" s="100"/>
-      <c r="AN26" s="101"/>
-      <c r="AO26" s="101"/>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="91"/>
+      <c r="AO26" s="91"/>
       <c r="AP26" s="14"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="5"/>
@@ -3853,12 +3820,12 @@
       <c r="AX26" s="14"/>
       <c r="AY26" s="41"/>
       <c r="AZ26" s="25"/>
-      <c r="BA26" s="52"/>
-      <c r="BB26" s="53"/>
-      <c r="BC26" s="51"/>
-      <c r="BD26" s="52"/>
-      <c r="BE26" s="52"/>
-      <c r="BF26" s="53"/>
+      <c r="BA26" s="50"/>
+      <c r="BB26" s="51"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="50"/>
+      <c r="BE26" s="50"/>
+      <c r="BF26" s="51"/>
       <c r="BG26" s="4"/>
       <c r="BH26" s="5"/>
       <c r="BI26" s="5"/>
@@ -3875,11 +3842,10 @@
       <c r="BT26" s="5"/>
       <c r="BU26" s="25"/>
       <c r="BV26" s="26"/>
-      <c r="BW26" s="79"/>
-    </row>
-    <row r="27" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="156"/>
-      <c r="B27" s="161"/>
+    </row>
+    <row r="27" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="145"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3888,38 +3854,38 @@
       <c r="H27" s="7"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="110"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="109"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="99"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="28"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="56"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="54"/>
       <c r="W27" s="42"/>
       <c r="X27" s="27"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="54"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="107"/>
-      <c r="AJ27" s="109"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="52"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="97"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="97"/>
+      <c r="AJ27" s="99"/>
       <c r="AK27" s="27"/>
       <c r="AL27" s="28"/>
-      <c r="AM27" s="107"/>
-      <c r="AN27" s="109"/>
-      <c r="AO27" s="109"/>
-      <c r="AP27" s="123"/>
+      <c r="AM27" s="97"/>
+      <c r="AN27" s="99"/>
+      <c r="AO27" s="99"/>
+      <c r="AP27" s="113"/>
       <c r="AQ27" s="6"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="27"/>
@@ -3930,12 +3896,12 @@
       <c r="AX27" s="8"/>
       <c r="AY27" s="42"/>
       <c r="AZ27" s="27"/>
-      <c r="BA27" s="55"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="54"/>
-      <c r="BD27" s="55"/>
-      <c r="BE27" s="55"/>
-      <c r="BF27" s="56"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="54"/>
+      <c r="BC27" s="52"/>
+      <c r="BD27" s="53"/>
+      <c r="BE27" s="53"/>
+      <c r="BF27" s="54"/>
       <c r="BG27" s="6"/>
       <c r="BH27" s="7"/>
       <c r="BI27" s="7"/>
@@ -3952,14 +3918,13 @@
       <c r="BT27" s="7"/>
       <c r="BU27" s="27"/>
       <c r="BV27" s="28"/>
-      <c r="BW27" s="82"/>
-    </row>
-    <row r="28" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="156">
+    </row>
+    <row r="28" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="145">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="155" t="s">
-        <v>21</v>
+      <c r="B28" s="141" t="s">
+        <v>20</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
@@ -3969,26 +3934,26 @@
       <c r="H28" s="7"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="95"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="7"/>
       <c r="N28" s="24"/>
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="27"/>
       <c r="R28" s="28"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="54"/>
       <c r="W28" s="42"/>
       <c r="X28" s="27"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="56"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="52"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="54"/>
       <c r="AE28" s="6"/>
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
@@ -4002,7 +3967,7 @@
       <c r="AO28" s="7"/>
       <c r="AP28" s="8"/>
       <c r="AQ28" s="6"/>
-      <c r="AR28" s="73"/>
+      <c r="AR28" s="70"/>
       <c r="AS28" s="27"/>
       <c r="AT28" s="28"/>
       <c r="AU28" s="6"/>
@@ -4011,14 +3976,14 @@
       <c r="AX28" s="24"/>
       <c r="AY28" s="42"/>
       <c r="AZ28" s="27"/>
-      <c r="BA28" s="55"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="54"/>
-      <c r="BD28" s="55"/>
-      <c r="BE28" s="55"/>
-      <c r="BF28" s="66"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="54"/>
+      <c r="BC28" s="52"/>
+      <c r="BD28" s="53"/>
+      <c r="BE28" s="53"/>
+      <c r="BF28" s="64"/>
       <c r="BG28" s="6"/>
-      <c r="BH28" s="73"/>
+      <c r="BH28" s="70"/>
       <c r="BI28" s="7"/>
       <c r="BJ28" s="8"/>
       <c r="BK28" s="9"/>
@@ -4033,11 +3998,10 @@
       <c r="BT28" s="7"/>
       <c r="BU28" s="27"/>
       <c r="BV28" s="46"/>
-      <c r="BW28" s="82"/>
-    </row>
-    <row r="29" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="156"/>
-      <c r="B29" s="162"/>
+    </row>
+    <row r="29" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="145"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4046,26 +4010,26 @@
       <c r="H29" s="7"/>
       <c r="I29" s="27"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="109"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="99"/>
       <c r="M29" s="7"/>
       <c r="N29" s="8"/>
       <c r="O29" s="6"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="27"/>
       <c r="R29" s="28"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
-      <c r="V29" s="56"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="54"/>
       <c r="W29" s="42"/>
       <c r="X29" s="27"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="54"/>
-      <c r="AB29" s="55"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="56"/>
+      <c r="Y29" s="53"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="52"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
+      <c r="AD29" s="54"/>
       <c r="AE29" s="6"/>
       <c r="AF29" s="7"/>
       <c r="AG29" s="7"/>
@@ -4088,12 +4052,12 @@
       <c r="AX29" s="8"/>
       <c r="AY29" s="42"/>
       <c r="AZ29" s="27"/>
-      <c r="BA29" s="55"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="54"/>
-      <c r="BD29" s="55"/>
-      <c r="BE29" s="55"/>
-      <c r="BF29" s="56"/>
+      <c r="BA29" s="53"/>
+      <c r="BB29" s="54"/>
+      <c r="BC29" s="52"/>
+      <c r="BD29" s="53"/>
+      <c r="BE29" s="53"/>
+      <c r="BF29" s="54"/>
       <c r="BG29" s="6"/>
       <c r="BH29" s="7"/>
       <c r="BI29" s="7"/>
@@ -4110,14 +4074,13 @@
       <c r="BT29" s="7"/>
       <c r="BU29" s="27"/>
       <c r="BV29" s="28"/>
-      <c r="BW29" s="82"/>
-    </row>
-    <row r="30" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="156">
+    </row>
+    <row r="30" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="145">
         <v>5.2</v>
       </c>
-      <c r="B30" s="155" t="s">
-        <v>19</v>
+      <c r="B30" s="141" t="s">
+        <v>18</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
@@ -4129,24 +4092,24 @@
       <c r="J30" s="28"/>
       <c r="K30" s="6"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="89"/>
+      <c r="M30" s="79"/>
       <c r="N30" s="8"/>
       <c r="O30" s="6"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="27"/>
       <c r="R30" s="28"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
-      <c r="V30" s="56"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="54"/>
       <c r="W30" s="42"/>
       <c r="X30" s="27"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="56"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="54"/>
       <c r="AE30" s="6"/>
       <c r="AF30" s="7"/>
       <c r="AG30" s="7"/>
@@ -4169,12 +4132,12 @@
       <c r="AX30" s="8"/>
       <c r="AY30" s="42"/>
       <c r="AZ30" s="27"/>
-      <c r="BA30" s="55"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="54"/>
-      <c r="BD30" s="55"/>
-      <c r="BE30" s="55"/>
-      <c r="BF30" s="56"/>
+      <c r="BA30" s="53"/>
+      <c r="BB30" s="54"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="53"/>
+      <c r="BE30" s="53"/>
+      <c r="BF30" s="54"/>
       <c r="BG30" s="6"/>
       <c r="BH30" s="7"/>
       <c r="BI30" s="7"/>
@@ -4191,11 +4154,10 @@
       <c r="BT30" s="7"/>
       <c r="BU30" s="27"/>
       <c r="BV30" s="28"/>
-      <c r="BW30" s="82"/>
-    </row>
-    <row r="31" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="156"/>
-      <c r="B31" s="162"/>
+    </row>
+    <row r="31" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="145"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4206,24 +4168,24 @@
       <c r="J31" s="28"/>
       <c r="K31" s="6"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="109"/>
+      <c r="M31" s="99"/>
       <c r="N31" s="8"/>
       <c r="O31" s="6"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="27"/>
       <c r="R31" s="28"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="56"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="V31" s="54"/>
       <c r="W31" s="42"/>
       <c r="X31" s="27"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="54"/>
-      <c r="AB31" s="55"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="56"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="54"/>
+      <c r="AA31" s="52"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="54"/>
       <c r="AE31" s="6"/>
       <c r="AF31" s="7"/>
       <c r="AG31" s="7"/>
@@ -4246,12 +4208,12 @@
       <c r="AX31" s="8"/>
       <c r="AY31" s="42"/>
       <c r="AZ31" s="27"/>
-      <c r="BA31" s="55"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="54"/>
-      <c r="BD31" s="55"/>
-      <c r="BE31" s="55"/>
-      <c r="BF31" s="56"/>
+      <c r="BA31" s="53"/>
+      <c r="BB31" s="54"/>
+      <c r="BC31" s="52"/>
+      <c r="BD31" s="53"/>
+      <c r="BE31" s="53"/>
+      <c r="BF31" s="54"/>
       <c r="BG31" s="6"/>
       <c r="BH31" s="7"/>
       <c r="BI31" s="7"/>
@@ -4268,14 +4230,13 @@
       <c r="BT31" s="7"/>
       <c r="BU31" s="27"/>
       <c r="BV31" s="28"/>
-      <c r="BW31" s="82"/>
-    </row>
-    <row r="32" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="156">
+    </row>
+    <row r="32" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="145">
         <v>5.3</v>
       </c>
-      <c r="B32" s="155" t="s">
-        <v>20</v>
+      <c r="B32" s="141" t="s">
+        <v>19</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
@@ -4287,24 +4248,24 @@
       <c r="J32" s="28"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="91"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="81"/>
       <c r="O32" s="6"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="27"/>
       <c r="R32" s="28"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="54"/>
       <c r="W32" s="42"/>
       <c r="X32" s="27"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="54"/>
-      <c r="AB32" s="55"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="56"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="54"/>
+      <c r="AA32" s="52"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="54"/>
       <c r="AE32" s="6"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
@@ -4327,12 +4288,12 @@
       <c r="AX32" s="8"/>
       <c r="AY32" s="42"/>
       <c r="AZ32" s="27"/>
-      <c r="BA32" s="55"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="54"/>
-      <c r="BD32" s="55"/>
-      <c r="BE32" s="55"/>
-      <c r="BF32" s="56"/>
+      <c r="BA32" s="53"/>
+      <c r="BB32" s="54"/>
+      <c r="BC32" s="52"/>
+      <c r="BD32" s="53"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="54"/>
       <c r="BG32" s="6"/>
       <c r="BH32" s="7"/>
       <c r="BI32" s="7"/>
@@ -4349,11 +4310,10 @@
       <c r="BT32" s="7"/>
       <c r="BU32" s="27"/>
       <c r="BV32" s="28"/>
-      <c r="BW32" s="82"/>
-    </row>
-    <row r="33" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="156"/>
-      <c r="B33" s="155"/>
+    </row>
+    <row r="33" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="145"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4364,24 +4324,24 @@
       <c r="J33" s="28"/>
       <c r="K33" s="6"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="110"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="100"/>
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="27"/>
       <c r="R33" s="28"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="56"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="54"/>
       <c r="W33" s="42"/>
       <c r="X33" s="27"/>
-      <c r="Y33" s="55"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="54"/>
-      <c r="AB33" s="55"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="56"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="52"/>
+      <c r="AB33" s="53"/>
+      <c r="AC33" s="53"/>
+      <c r="AD33" s="54"/>
       <c r="AE33" s="6"/>
       <c r="AF33" s="7"/>
       <c r="AG33" s="7"/>
@@ -4404,12 +4364,12 @@
       <c r="AX33" s="8"/>
       <c r="AY33" s="42"/>
       <c r="AZ33" s="27"/>
-      <c r="BA33" s="55"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="54"/>
-      <c r="BD33" s="55"/>
-      <c r="BE33" s="55"/>
-      <c r="BF33" s="56"/>
+      <c r="BA33" s="53"/>
+      <c r="BB33" s="54"/>
+      <c r="BC33" s="52"/>
+      <c r="BD33" s="53"/>
+      <c r="BE33" s="53"/>
+      <c r="BF33" s="54"/>
       <c r="BG33" s="6"/>
       <c r="BH33" s="7"/>
       <c r="BI33" s="7"/>
@@ -4426,14 +4386,13 @@
       <c r="BT33" s="7"/>
       <c r="BU33" s="27"/>
       <c r="BV33" s="28"/>
-      <c r="BW33" s="82"/>
-    </row>
-    <row r="34" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="156">
+    </row>
+    <row r="34" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="145">
         <v>5.4</v>
       </c>
-      <c r="B34" s="155" t="s">
-        <v>22</v>
+      <c r="B34" s="141" t="s">
+        <v>21</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
@@ -4446,23 +4405,23 @@
       <c r="K34" s="6"/>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="89"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="79"/>
       <c r="Q34" s="27"/>
       <c r="R34" s="28"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="56"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="53"/>
+      <c r="U34" s="53"/>
+      <c r="V34" s="54"/>
       <c r="W34" s="42"/>
       <c r="X34" s="27"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="54"/>
-      <c r="AB34" s="55"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="56"/>
+      <c r="Y34" s="53"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="52"/>
+      <c r="AB34" s="53"/>
+      <c r="AC34" s="53"/>
+      <c r="AD34" s="54"/>
       <c r="AE34" s="6"/>
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
@@ -4485,12 +4444,12 @@
       <c r="AX34" s="8"/>
       <c r="AY34" s="42"/>
       <c r="AZ34" s="27"/>
-      <c r="BA34" s="55"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="54"/>
-      <c r="BD34" s="55"/>
-      <c r="BE34" s="55"/>
-      <c r="BF34" s="56"/>
+      <c r="BA34" s="53"/>
+      <c r="BB34" s="54"/>
+      <c r="BC34" s="52"/>
+      <c r="BD34" s="53"/>
+      <c r="BE34" s="53"/>
+      <c r="BF34" s="54"/>
       <c r="BG34" s="6"/>
       <c r="BH34" s="7"/>
       <c r="BI34" s="7"/>
@@ -4507,11 +4466,10 @@
       <c r="BT34" s="7"/>
       <c r="BU34" s="27"/>
       <c r="BV34" s="28"/>
-      <c r="BW34" s="82"/>
-    </row>
-    <row r="35" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="156"/>
-      <c r="B35" s="155"/>
+    </row>
+    <row r="35" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="145"/>
+      <c r="B35" s="141"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4523,23 +4481,23 @@
       <c r="K35" s="6"/>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="107"/>
-      <c r="P35" s="109"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="99"/>
       <c r="Q35" s="27"/>
       <c r="R35" s="28"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
-      <c r="V35" s="56"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="53"/>
+      <c r="U35" s="53"/>
+      <c r="V35" s="54"/>
       <c r="W35" s="42"/>
       <c r="X35" s="27"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="54"/>
-      <c r="AB35" s="55"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="56"/>
+      <c r="Y35" s="53"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="52"/>
+      <c r="AB35" s="53"/>
+      <c r="AC35" s="53"/>
+      <c r="AD35" s="54"/>
       <c r="AE35" s="6"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
@@ -4562,12 +4520,12 @@
       <c r="AX35" s="8"/>
       <c r="AY35" s="42"/>
       <c r="AZ35" s="27"/>
-      <c r="BA35" s="55"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="54"/>
-      <c r="BD35" s="55"/>
-      <c r="BE35" s="55"/>
-      <c r="BF35" s="56"/>
+      <c r="BA35" s="53"/>
+      <c r="BB35" s="54"/>
+      <c r="BC35" s="52"/>
+      <c r="BD35" s="53"/>
+      <c r="BE35" s="53"/>
+      <c r="BF35" s="54"/>
       <c r="BG35" s="6"/>
       <c r="BH35" s="7"/>
       <c r="BI35" s="7"/>
@@ -4584,14 +4542,13 @@
       <c r="BT35" s="7"/>
       <c r="BU35" s="27"/>
       <c r="BV35" s="28"/>
-      <c r="BW35" s="82"/>
-    </row>
-    <row r="36" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="154">
+    </row>
+    <row r="36" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="159">
         <v>5.5</v>
       </c>
-      <c r="B36" s="155" t="s">
-        <v>23</v>
+      <c r="B36" s="141" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
@@ -4606,22 +4563,22 @@
       <c r="M36" s="7"/>
       <c r="N36" s="8"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="89"/>
+      <c r="P36" s="79"/>
       <c r="Q36" s="27"/>
       <c r="R36" s="28"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="56"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="53"/>
+      <c r="U36" s="53"/>
+      <c r="V36" s="54"/>
       <c r="W36" s="42"/>
       <c r="X36" s="27"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="54"/>
-      <c r="AB36" s="55"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="92"/>
+      <c r="Y36" s="53"/>
+      <c r="Z36" s="54"/>
+      <c r="AA36" s="52"/>
+      <c r="AB36" s="53"/>
+      <c r="AC36" s="53"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="82"/>
       <c r="AF36" s="7"/>
       <c r="AG36" s="7"/>
       <c r="AH36" s="8"/>
@@ -4643,12 +4600,12 @@
       <c r="AX36" s="8"/>
       <c r="AY36" s="42"/>
       <c r="AZ36" s="27"/>
-      <c r="BA36" s="55"/>
-      <c r="BB36" s="56"/>
-      <c r="BC36" s="54"/>
-      <c r="BD36" s="55"/>
-      <c r="BE36" s="55"/>
-      <c r="BF36" s="56"/>
+      <c r="BA36" s="53"/>
+      <c r="BB36" s="54"/>
+      <c r="BC36" s="52"/>
+      <c r="BD36" s="53"/>
+      <c r="BE36" s="53"/>
+      <c r="BF36" s="54"/>
       <c r="BG36" s="6"/>
       <c r="BH36" s="7"/>
       <c r="BI36" s="7"/>
@@ -4665,11 +4622,10 @@
       <c r="BT36" s="7"/>
       <c r="BU36" s="27"/>
       <c r="BV36" s="28"/>
-      <c r="BW36" s="82"/>
-    </row>
-    <row r="37" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="154"/>
-      <c r="B37" s="155"/>
+    </row>
+    <row r="37" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="159"/>
+      <c r="B37" s="141"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4683,22 +4639,22 @@
       <c r="M37" s="7"/>
       <c r="N37" s="8"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="109"/>
+      <c r="P37" s="99"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
-      <c r="V37" s="56"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="53"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="54"/>
       <c r="W37" s="42"/>
       <c r="X37" s="27"/>
-      <c r="Y37" s="55"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="54"/>
-      <c r="AB37" s="55"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="117"/>
+      <c r="Y37" s="53"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="53"/>
+      <c r="AC37" s="53"/>
+      <c r="AD37" s="54"/>
+      <c r="AE37" s="107"/>
       <c r="AF37" s="7"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="8"/>
@@ -4720,12 +4676,12 @@
       <c r="AX37" s="8"/>
       <c r="AY37" s="42"/>
       <c r="AZ37" s="27"/>
-      <c r="BA37" s="55"/>
-      <c r="BB37" s="56"/>
-      <c r="BC37" s="54"/>
-      <c r="BD37" s="55"/>
-      <c r="BE37" s="55"/>
-      <c r="BF37" s="56"/>
+      <c r="BA37" s="53"/>
+      <c r="BB37" s="54"/>
+      <c r="BC37" s="52"/>
+      <c r="BD37" s="53"/>
+      <c r="BE37" s="53"/>
+      <c r="BF37" s="54"/>
       <c r="BG37" s="6"/>
       <c r="BH37" s="7"/>
       <c r="BI37" s="7"/>
@@ -4742,14 +4698,13 @@
       <c r="BT37" s="7"/>
       <c r="BU37" s="27"/>
       <c r="BV37" s="28"/>
-      <c r="BW37" s="82"/>
-    </row>
-    <row r="38" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="154">
+    </row>
+    <row r="38" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="159">
         <v>5.6</v>
       </c>
-      <c r="B38" s="155" t="s">
-        <v>31</v>
+      <c r="B38" s="141" t="s">
+        <v>30</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
@@ -4764,24 +4719,24 @@
       <c r="M38" s="7"/>
       <c r="N38" s="8"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="116"/>
+      <c r="P38" s="106"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="28"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="56"/>
+      <c r="S38" s="52"/>
+      <c r="T38" s="53"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="54"/>
       <c r="W38" s="42"/>
       <c r="X38" s="27"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="54"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="92"/>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="89"/>
+      <c r="Y38" s="53"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="52"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="82"/>
+      <c r="AF38" s="79"/>
+      <c r="AG38" s="79"/>
       <c r="AH38" s="8"/>
       <c r="AI38" s="6"/>
       <c r="AJ38" s="7"/>
@@ -4801,12 +4756,12 @@
       <c r="AX38" s="8"/>
       <c r="AY38" s="42"/>
       <c r="AZ38" s="27"/>
-      <c r="BA38" s="55"/>
-      <c r="BB38" s="56"/>
-      <c r="BC38" s="54"/>
-      <c r="BD38" s="55"/>
-      <c r="BE38" s="55"/>
-      <c r="BF38" s="56"/>
+      <c r="BA38" s="53"/>
+      <c r="BB38" s="54"/>
+      <c r="BC38" s="52"/>
+      <c r="BD38" s="53"/>
+      <c r="BE38" s="53"/>
+      <c r="BF38" s="54"/>
       <c r="BG38" s="6"/>
       <c r="BH38" s="7"/>
       <c r="BI38" s="7"/>
@@ -4823,11 +4778,10 @@
       <c r="BT38" s="7"/>
       <c r="BU38" s="27"/>
       <c r="BV38" s="28"/>
-      <c r="BW38" s="82"/>
-    </row>
-    <row r="39" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="154"/>
-      <c r="B39" s="155"/>
+    </row>
+    <row r="39" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="159"/>
+      <c r="B39" s="141"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4841,26 +4795,26 @@
       <c r="M39" s="7"/>
       <c r="N39" s="8"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="109"/>
+      <c r="P39" s="99"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="28"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
-      <c r="V39" s="56"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="53"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="54"/>
       <c r="W39" s="42"/>
       <c r="X39" s="27"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="54"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="107"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
+      <c r="Y39" s="53"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="99"/>
       <c r="AH39" s="8"/>
-      <c r="AI39" s="119"/>
+      <c r="AI39" s="109"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="27"/>
       <c r="AL39" s="28"/>
@@ -4878,12 +4832,12 @@
       <c r="AX39" s="8"/>
       <c r="AY39" s="42"/>
       <c r="AZ39" s="27"/>
-      <c r="BA39" s="55"/>
-      <c r="BB39" s="56"/>
-      <c r="BC39" s="54"/>
-      <c r="BD39" s="55"/>
-      <c r="BE39" s="55"/>
-      <c r="BF39" s="56"/>
+      <c r="BA39" s="53"/>
+      <c r="BB39" s="54"/>
+      <c r="BC39" s="52"/>
+      <c r="BD39" s="53"/>
+      <c r="BE39" s="53"/>
+      <c r="BF39" s="54"/>
       <c r="BG39" s="6"/>
       <c r="BH39" s="7"/>
       <c r="BI39" s="7"/>
@@ -4900,14 +4854,13 @@
       <c r="BT39" s="7"/>
       <c r="BU39" s="27"/>
       <c r="BV39" s="28"/>
-      <c r="BW39" s="82"/>
-    </row>
-    <row r="40" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="154">
+    </row>
+    <row r="40" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="159">
         <v>5.7</v>
       </c>
-      <c r="B40" s="155" t="s">
-        <v>24</v>
+      <c r="B40" s="141" t="s">
+        <v>23</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
@@ -4925,24 +4878,24 @@
       <c r="P40" s="7"/>
       <c r="Q40" s="27"/>
       <c r="R40" s="28"/>
-      <c r="S40" s="54"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="56"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="53"/>
+      <c r="V40" s="54"/>
       <c r="W40" s="42"/>
       <c r="X40" s="27"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="54"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="56"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="52"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="54"/>
       <c r="AE40" s="6"/>
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
-      <c r="AH40" s="91"/>
-      <c r="AI40" s="92"/>
-      <c r="AJ40" s="89"/>
+      <c r="AH40" s="81"/>
+      <c r="AI40" s="82"/>
+      <c r="AJ40" s="79"/>
       <c r="AK40" s="27"/>
       <c r="AL40" s="28"/>
       <c r="AM40" s="6"/>
@@ -4959,12 +4912,12 @@
       <c r="AX40" s="8"/>
       <c r="AY40" s="42"/>
       <c r="AZ40" s="27"/>
-      <c r="BA40" s="55"/>
-      <c r="BB40" s="56"/>
-      <c r="BC40" s="54"/>
-      <c r="BD40" s="55"/>
-      <c r="BE40" s="55"/>
-      <c r="BF40" s="56"/>
+      <c r="BA40" s="53"/>
+      <c r="BB40" s="54"/>
+      <c r="BC40" s="52"/>
+      <c r="BD40" s="53"/>
+      <c r="BE40" s="53"/>
+      <c r="BF40" s="54"/>
       <c r="BG40" s="6"/>
       <c r="BH40" s="7"/>
       <c r="BI40" s="7"/>
@@ -4981,11 +4934,10 @@
       <c r="BT40" s="7"/>
       <c r="BU40" s="27"/>
       <c r="BV40" s="28"/>
-      <c r="BW40" s="82"/>
-    </row>
-    <row r="41" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="154"/>
-      <c r="B41" s="155"/>
+    </row>
+    <row r="41" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="159"/>
+      <c r="B41" s="141"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5002,31 +4954,31 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="28"/>
-      <c r="S41" s="54"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="56"/>
+      <c r="S41" s="52"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="53"/>
+      <c r="V41" s="54"/>
       <c r="W41" s="42"/>
       <c r="X41" s="27"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="54"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="56"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="54"/>
       <c r="AE41" s="6"/>
       <c r="AF41" s="7"/>
       <c r="AG41" s="7"/>
-      <c r="AH41" s="118"/>
-      <c r="AI41" s="117"/>
-      <c r="AJ41" s="109"/>
+      <c r="AH41" s="108"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="99"/>
       <c r="AK41" s="27"/>
       <c r="AL41" s="28"/>
       <c r="AM41" s="6"/>
       <c r="AN41" s="7"/>
-      <c r="AO41" s="121"/>
-      <c r="AP41" s="123"/>
-      <c r="AQ41" s="119"/>
+      <c r="AO41" s="111"/>
+      <c r="AP41" s="113"/>
+      <c r="AQ41" s="109"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="27"/>
       <c r="AT41" s="28"/>
@@ -5036,12 +4988,12 @@
       <c r="AX41" s="8"/>
       <c r="AY41" s="42"/>
       <c r="AZ41" s="27"/>
-      <c r="BA41" s="55"/>
-      <c r="BB41" s="56"/>
-      <c r="BC41" s="54"/>
-      <c r="BD41" s="55"/>
-      <c r="BE41" s="55"/>
-      <c r="BF41" s="56"/>
+      <c r="BA41" s="53"/>
+      <c r="BB41" s="54"/>
+      <c r="BC41" s="52"/>
+      <c r="BD41" s="53"/>
+      <c r="BE41" s="53"/>
+      <c r="BF41" s="54"/>
       <c r="BG41" s="6"/>
       <c r="BH41" s="7"/>
       <c r="BI41" s="7"/>
@@ -5058,14 +5010,13 @@
       <c r="BT41" s="7"/>
       <c r="BU41" s="27"/>
       <c r="BV41" s="28"/>
-      <c r="BW41" s="82"/>
-    </row>
-    <row r="42" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="156">
+    </row>
+    <row r="42" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="145">
         <v>5.8</v>
       </c>
-      <c r="B42" s="155" t="s">
-        <v>25</v>
+      <c r="B42" s="141" t="s">
+        <v>24</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
@@ -5083,18 +5034,18 @@
       <c r="P42" s="7"/>
       <c r="Q42" s="27"/>
       <c r="R42" s="28"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
-      <c r="V42" s="56"/>
+      <c r="S42" s="52"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="54"/>
       <c r="W42" s="42"/>
       <c r="X42" s="27"/>
-      <c r="Y42" s="55"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="55"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="56"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="52"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="54"/>
       <c r="AE42" s="6"/>
       <c r="AF42" s="7"/>
       <c r="AG42" s="7"/>
@@ -5103,9 +5054,9 @@
       <c r="AJ42" s="7"/>
       <c r="AK42" s="27"/>
       <c r="AL42" s="28"/>
-      <c r="AM42" s="92"/>
-      <c r="AN42" s="89"/>
-      <c r="AO42" s="89"/>
+      <c r="AM42" s="82"/>
+      <c r="AN42" s="79"/>
+      <c r="AO42" s="79"/>
       <c r="AP42" s="8"/>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="7"/>
@@ -5117,12 +5068,12 @@
       <c r="AX42" s="8"/>
       <c r="AY42" s="42"/>
       <c r="AZ42" s="27"/>
-      <c r="BA42" s="55"/>
-      <c r="BB42" s="56"/>
-      <c r="BC42" s="54"/>
-      <c r="BD42" s="55"/>
-      <c r="BE42" s="55"/>
-      <c r="BF42" s="56"/>
+      <c r="BA42" s="53"/>
+      <c r="BB42" s="54"/>
+      <c r="BC42" s="52"/>
+      <c r="BD42" s="53"/>
+      <c r="BE42" s="53"/>
+      <c r="BF42" s="54"/>
       <c r="BG42" s="6"/>
       <c r="BH42" s="7"/>
       <c r="BI42" s="7"/>
@@ -5139,11 +5090,10 @@
       <c r="BT42" s="7"/>
       <c r="BU42" s="27"/>
       <c r="BV42" s="28"/>
-      <c r="BW42" s="82"/>
-    </row>
-    <row r="43" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="157"/>
-      <c r="B43" s="158"/>
+    </row>
+    <row r="43" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="140"/>
+      <c r="B43" s="142"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5160,18 +5110,18 @@
       <c r="P43" s="17"/>
       <c r="Q43" s="31"/>
       <c r="R43" s="32"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="61"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="62"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="60"/>
       <c r="W43" s="44"/>
       <c r="X43" s="31"/>
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="60"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="62"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="60"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="60"/>
       <c r="AE43" s="16"/>
       <c r="AF43" s="17"/>
       <c r="AG43" s="17"/>
@@ -5180,9 +5130,9 @@
       <c r="AJ43" s="17"/>
       <c r="AK43" s="31"/>
       <c r="AL43" s="32"/>
-      <c r="AM43" s="105"/>
-      <c r="AN43" s="106"/>
-      <c r="AO43" s="122"/>
+      <c r="AM43" s="95"/>
+      <c r="AN43" s="96"/>
+      <c r="AO43" s="112"/>
       <c r="AP43" s="18"/>
       <c r="AQ43" s="16"/>
       <c r="AR43" s="17"/>
@@ -5194,12 +5144,12 @@
       <c r="AX43" s="18"/>
       <c r="AY43" s="44"/>
       <c r="AZ43" s="31"/>
-      <c r="BA43" s="61"/>
-      <c r="BB43" s="62"/>
-      <c r="BC43" s="60"/>
-      <c r="BD43" s="61"/>
-      <c r="BE43" s="61"/>
-      <c r="BF43" s="62"/>
+      <c r="BA43" s="59"/>
+      <c r="BB43" s="60"/>
+      <c r="BC43" s="58"/>
+      <c r="BD43" s="59"/>
+      <c r="BE43" s="59"/>
+      <c r="BF43" s="60"/>
       <c r="BG43" s="16"/>
       <c r="BH43" s="17"/>
       <c r="BI43" s="17"/>
@@ -5216,14 +5166,13 @@
       <c r="BT43" s="17"/>
       <c r="BU43" s="31"/>
       <c r="BV43" s="32"/>
-      <c r="BW43" s="80"/>
-    </row>
-    <row r="44" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="159">
+    </row>
+    <row r="44" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="139">
         <v>6</v>
       </c>
-      <c r="B44" s="128" t="s">
-        <v>28</v>
+      <c r="B44" s="153" t="s">
+        <v>27</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
@@ -5241,18 +5190,18 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="26"/>
-      <c r="S44" s="51"/>
-      <c r="T44" s="52"/>
-      <c r="U44" s="52"/>
-      <c r="V44" s="53"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="50"/>
+      <c r="V44" s="51"/>
       <c r="W44" s="41"/>
       <c r="X44" s="25"/>
-      <c r="Y44" s="52"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="52"/>
-      <c r="AC44" s="52"/>
-      <c r="AD44" s="53"/>
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="50"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="51"/>
       <c r="AE44" s="4"/>
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
@@ -5269,20 +5218,20 @@
       <c r="AR44" s="5"/>
       <c r="AS44" s="25"/>
       <c r="AT44" s="26"/>
-      <c r="AU44" s="100"/>
-      <c r="AV44" s="101"/>
-      <c r="AW44" s="101"/>
-      <c r="AX44" s="102"/>
+      <c r="AU44" s="90"/>
+      <c r="AV44" s="91"/>
+      <c r="AW44" s="91"/>
+      <c r="AX44" s="92"/>
       <c r="AY44" s="41"/>
       <c r="AZ44" s="25"/>
-      <c r="BA44" s="52"/>
-      <c r="BB44" s="53"/>
-      <c r="BC44" s="51"/>
-      <c r="BD44" s="52"/>
-      <c r="BE44" s="52"/>
-      <c r="BF44" s="53"/>
-      <c r="BG44" s="100"/>
-      <c r="BH44" s="101"/>
+      <c r="BA44" s="50"/>
+      <c r="BB44" s="51"/>
+      <c r="BC44" s="49"/>
+      <c r="BD44" s="50"/>
+      <c r="BE44" s="50"/>
+      <c r="BF44" s="51"/>
+      <c r="BG44" s="90"/>
+      <c r="BH44" s="91"/>
       <c r="BI44" s="5"/>
       <c r="BJ44" s="14"/>
       <c r="BK44" s="15"/>
@@ -5297,11 +5246,10 @@
       <c r="BT44" s="5"/>
       <c r="BU44" s="25"/>
       <c r="BV44" s="26"/>
-      <c r="BW44" s="79"/>
-    </row>
-    <row r="45" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="157"/>
-      <c r="B45" s="129"/>
+    </row>
+    <row r="45" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="140"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5318,18 +5266,18 @@
       <c r="P45" s="17"/>
       <c r="Q45" s="31"/>
       <c r="R45" s="32"/>
-      <c r="S45" s="60"/>
-      <c r="T45" s="61"/>
-      <c r="U45" s="61"/>
-      <c r="V45" s="62"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="59"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="60"/>
       <c r="W45" s="44"/>
       <c r="X45" s="31"/>
-      <c r="Y45" s="61"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="61"/>
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="62"/>
+      <c r="Y45" s="59"/>
+      <c r="Z45" s="60"/>
+      <c r="AA45" s="58"/>
+      <c r="AB45" s="59"/>
+      <c r="AC45" s="59"/>
+      <c r="AD45" s="60"/>
       <c r="AE45" s="16"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="17"/>
@@ -5346,24 +5294,24 @@
       <c r="AR45" s="17"/>
       <c r="AS45" s="31"/>
       <c r="AT45" s="32"/>
-      <c r="AU45" s="105"/>
-      <c r="AV45" s="106"/>
-      <c r="AW45" s="106"/>
-      <c r="AX45" s="108"/>
+      <c r="AU45" s="95"/>
+      <c r="AV45" s="96"/>
+      <c r="AW45" s="96"/>
+      <c r="AX45" s="98"/>
       <c r="AY45" s="44"/>
       <c r="AZ45" s="31"/>
-      <c r="BA45" s="61"/>
-      <c r="BB45" s="62"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="61"/>
-      <c r="BE45" s="61"/>
-      <c r="BF45" s="62"/>
-      <c r="BG45" s="105"/>
-      <c r="BH45" s="106"/>
+      <c r="BA45" s="59"/>
+      <c r="BB45" s="60"/>
+      <c r="BC45" s="58"/>
+      <c r="BD45" s="59"/>
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="60"/>
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="96"/>
       <c r="BI45" s="17"/>
       <c r="BJ45" s="18"/>
       <c r="BK45" s="19"/>
-      <c r="BL45" s="175"/>
+      <c r="BL45" s="116"/>
       <c r="BM45" s="31"/>
       <c r="BN45" s="38"/>
       <c r="BO45" s="16"/>
@@ -5374,14 +5322,13 @@
       <c r="BT45" s="17"/>
       <c r="BU45" s="31"/>
       <c r="BV45" s="32"/>
-      <c r="BW45" s="80"/>
-    </row>
-    <row r="46" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="152">
+    </row>
+    <row r="46" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="155">
         <v>6.1</v>
       </c>
-      <c r="B46" s="153" t="s">
-        <v>29</v>
+      <c r="B46" s="157" t="s">
+        <v>28</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="21"/>
@@ -5399,18 +5346,18 @@
       <c r="P46" s="21"/>
       <c r="Q46" s="33"/>
       <c r="R46" s="34"/>
-      <c r="S46" s="63"/>
-      <c r="T46" s="64"/>
-      <c r="U46" s="64"/>
-      <c r="V46" s="65"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="62"/>
+      <c r="V46" s="63"/>
       <c r="W46" s="45"/>
       <c r="X46" s="33"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="65"/>
-      <c r="AA46" s="63"/>
-      <c r="AB46" s="64"/>
-      <c r="AC46" s="64"/>
-      <c r="AD46" s="65"/>
+      <c r="Y46" s="62"/>
+      <c r="Z46" s="63"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="63"/>
       <c r="AE46" s="20"/>
       <c r="AF46" s="21"/>
       <c r="AG46" s="21"/>
@@ -5427,20 +5374,20 @@
       <c r="AR46" s="21"/>
       <c r="AS46" s="33"/>
       <c r="AT46" s="34"/>
-      <c r="AU46" s="87"/>
-      <c r="AV46" s="90"/>
-      <c r="AW46" s="90"/>
-      <c r="AX46" s="93"/>
+      <c r="AU46" s="77"/>
+      <c r="AV46" s="80"/>
+      <c r="AW46" s="80"/>
+      <c r="AX46" s="83"/>
       <c r="AY46" s="45"/>
       <c r="AZ46" s="33"/>
-      <c r="BA46" s="64"/>
-      <c r="BB46" s="65"/>
-      <c r="BC46" s="63"/>
-      <c r="BD46" s="64"/>
-      <c r="BE46" s="64"/>
-      <c r="BF46" s="65"/>
-      <c r="BG46" s="87"/>
-      <c r="BH46" s="90"/>
+      <c r="BA46" s="62"/>
+      <c r="BB46" s="63"/>
+      <c r="BC46" s="61"/>
+      <c r="BD46" s="62"/>
+      <c r="BE46" s="62"/>
+      <c r="BF46" s="63"/>
+      <c r="BG46" s="77"/>
+      <c r="BH46" s="80"/>
       <c r="BI46" s="21"/>
       <c r="BJ46" s="22"/>
       <c r="BK46" s="23"/>
@@ -5455,11 +5402,10 @@
       <c r="BT46" s="21"/>
       <c r="BU46" s="33"/>
       <c r="BV46" s="34"/>
-      <c r="BW46" s="81"/>
-    </row>
-    <row r="47" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="137"/>
+    </row>
+    <row r="47" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="156"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5476,18 +5422,18 @@
       <c r="P47" s="17"/>
       <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
-      <c r="S47" s="60"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="62"/>
+      <c r="S47" s="58"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="60"/>
       <c r="W47" s="44"/>
       <c r="X47" s="31"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="62"/>
-      <c r="AA47" s="60"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="61"/>
-      <c r="AD47" s="62"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="59"/>
+      <c r="AC47" s="59"/>
+      <c r="AD47" s="60"/>
       <c r="AE47" s="16"/>
       <c r="AF47" s="17"/>
       <c r="AG47" s="17"/>
@@ -5504,20 +5450,20 @@
       <c r="AR47" s="17"/>
       <c r="AS47" s="31"/>
       <c r="AT47" s="32"/>
-      <c r="AU47" s="105"/>
-      <c r="AV47" s="106"/>
-      <c r="AW47" s="106"/>
-      <c r="AX47" s="108"/>
+      <c r="AU47" s="95"/>
+      <c r="AV47" s="96"/>
+      <c r="AW47" s="96"/>
+      <c r="AX47" s="98"/>
       <c r="AY47" s="44"/>
       <c r="AZ47" s="31"/>
-      <c r="BA47" s="61"/>
-      <c r="BB47" s="62"/>
-      <c r="BC47" s="60"/>
-      <c r="BD47" s="61"/>
-      <c r="BE47" s="61"/>
-      <c r="BF47" s="62"/>
-      <c r="BG47" s="105"/>
-      <c r="BH47" s="106"/>
+      <c r="BA47" s="59"/>
+      <c r="BB47" s="60"/>
+      <c r="BC47" s="58"/>
+      <c r="BD47" s="59"/>
+      <c r="BE47" s="59"/>
+      <c r="BF47" s="60"/>
+      <c r="BG47" s="95"/>
+      <c r="BH47" s="96"/>
       <c r="BI47" s="17"/>
       <c r="BJ47" s="18"/>
       <c r="BK47" s="19"/>
@@ -5532,14 +5478,13 @@
       <c r="BT47" s="17"/>
       <c r="BU47" s="31"/>
       <c r="BV47" s="32"/>
-      <c r="BW47" s="80"/>
-    </row>
-    <row r="48" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="130">
+    </row>
+    <row r="48" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="164">
         <v>7</v>
       </c>
-      <c r="B48" s="128" t="s">
-        <v>43</v>
+      <c r="B48" s="153" t="s">
+        <v>42</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -5557,18 +5502,18 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="25"/>
       <c r="R48" s="26"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="53"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="50"/>
+      <c r="U48" s="50"/>
+      <c r="V48" s="51"/>
       <c r="W48" s="41"/>
       <c r="X48" s="25"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="53"/>
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="51"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="5"/>
       <c r="AG48" s="5"/>
@@ -5591,18 +5536,18 @@
       <c r="AX48" s="14"/>
       <c r="AY48" s="41"/>
       <c r="AZ48" s="25"/>
-      <c r="BA48" s="52"/>
-      <c r="BB48" s="53"/>
-      <c r="BC48" s="51"/>
-      <c r="BD48" s="52"/>
-      <c r="BE48" s="52"/>
-      <c r="BF48" s="53"/>
+      <c r="BA48" s="50"/>
+      <c r="BB48" s="51"/>
+      <c r="BC48" s="49"/>
+      <c r="BD48" s="50"/>
+      <c r="BE48" s="50"/>
+      <c r="BF48" s="51"/>
       <c r="BG48" s="4"/>
       <c r="BH48" s="5"/>
-      <c r="BI48" s="101"/>
-      <c r="BJ48" s="102"/>
-      <c r="BK48" s="103"/>
-      <c r="BL48" s="101"/>
+      <c r="BI48" s="91"/>
+      <c r="BJ48" s="92"/>
+      <c r="BK48" s="93"/>
+      <c r="BL48" s="91"/>
       <c r="BM48" s="25"/>
       <c r="BN48" s="35"/>
       <c r="BO48" s="4"/>
@@ -5613,11 +5558,10 @@
       <c r="BT48" s="5"/>
       <c r="BU48" s="25"/>
       <c r="BV48" s="26"/>
-      <c r="BW48" s="79"/>
-    </row>
-    <row r="49" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="129"/>
+    </row>
+    <row r="49" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="156"/>
+      <c r="B49" s="154"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5634,18 +5578,18 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="31"/>
       <c r="R49" s="32"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="62"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="59"/>
+      <c r="V49" s="60"/>
       <c r="W49" s="44"/>
       <c r="X49" s="31"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="62"/>
-      <c r="AA49" s="60"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="62"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="60"/>
+      <c r="AA49" s="58"/>
+      <c r="AB49" s="59"/>
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="60"/>
       <c r="AE49" s="16"/>
       <c r="AF49" s="17"/>
       <c r="AG49" s="17"/>
@@ -5668,36 +5612,35 @@
       <c r="AX49" s="18"/>
       <c r="AY49" s="44"/>
       <c r="AZ49" s="31"/>
-      <c r="BA49" s="61"/>
-      <c r="BB49" s="62"/>
-      <c r="BC49" s="60"/>
-      <c r="BD49" s="61"/>
-      <c r="BE49" s="61"/>
-      <c r="BF49" s="62"/>
+      <c r="BA49" s="59"/>
+      <c r="BB49" s="60"/>
+      <c r="BC49" s="58"/>
+      <c r="BD49" s="59"/>
+      <c r="BE49" s="59"/>
+      <c r="BF49" s="60"/>
       <c r="BG49" s="16"/>
       <c r="BH49" s="17"/>
-      <c r="BI49" s="106"/>
-      <c r="BJ49" s="108"/>
-      <c r="BK49" s="19"/>
-      <c r="BL49" s="17"/>
+      <c r="BI49" s="96"/>
+      <c r="BJ49" s="98"/>
+      <c r="BK49" s="168"/>
+      <c r="BL49" s="169"/>
       <c r="BM49" s="31"/>
       <c r="BN49" s="38"/>
-      <c r="BO49" s="16"/>
-      <c r="BP49" s="17"/>
+      <c r="BO49" s="173"/>
+      <c r="BP49" s="116"/>
       <c r="BQ49" s="17"/>
       <c r="BR49" s="18"/>
       <c r="BS49" s="16"/>
       <c r="BT49" s="17"/>
       <c r="BU49" s="31"/>
       <c r="BV49" s="32"/>
-      <c r="BW49" s="80"/>
-    </row>
-    <row r="50" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="130">
+    </row>
+    <row r="50" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="164">
         <v>7.1</v>
       </c>
-      <c r="B50" s="132" t="s">
-        <v>27</v>
+      <c r="B50" s="165" t="s">
+        <v>26</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="21"/>
@@ -5715,18 +5658,18 @@
       <c r="P50" s="21"/>
       <c r="Q50" s="33"/>
       <c r="R50" s="34"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="65"/>
+      <c r="S50" s="61"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="62"/>
+      <c r="V50" s="63"/>
       <c r="W50" s="45"/>
       <c r="X50" s="33"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="65"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="62"/>
+      <c r="AC50" s="62"/>
+      <c r="AD50" s="63"/>
       <c r="AE50" s="20"/>
       <c r="AF50" s="21"/>
       <c r="AG50" s="21"/>
@@ -5749,15 +5692,15 @@
       <c r="AX50" s="22"/>
       <c r="AY50" s="45"/>
       <c r="AZ50" s="33"/>
-      <c r="BA50" s="64"/>
-      <c r="BB50" s="65"/>
-      <c r="BC50" s="63"/>
-      <c r="BD50" s="64"/>
-      <c r="BE50" s="64"/>
-      <c r="BF50" s="65"/>
+      <c r="BA50" s="62"/>
+      <c r="BB50" s="63"/>
+      <c r="BC50" s="61"/>
+      <c r="BD50" s="62"/>
+      <c r="BE50" s="62"/>
+      <c r="BF50" s="63"/>
       <c r="BG50" s="20"/>
       <c r="BH50" s="21"/>
-      <c r="BI50" s="90"/>
+      <c r="BI50" s="80"/>
       <c r="BJ50" s="22"/>
       <c r="BK50" s="23"/>
       <c r="BL50" s="21"/>
@@ -5771,11 +5714,10 @@
       <c r="BT50" s="21"/>
       <c r="BU50" s="33"/>
       <c r="BV50" s="34"/>
-      <c r="BW50" s="81"/>
-    </row>
-    <row r="51" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="131"/>
-      <c r="B51" s="133"/>
+    </row>
+    <row r="51" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="144"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5792,18 +5734,18 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="27"/>
       <c r="R51" s="28"/>
-      <c r="S51" s="54"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="56"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="53"/>
+      <c r="U51" s="53"/>
+      <c r="V51" s="54"/>
       <c r="W51" s="42"/>
       <c r="X51" s="27"/>
-      <c r="Y51" s="55"/>
-      <c r="Z51" s="56"/>
-      <c r="AA51" s="54"/>
-      <c r="AB51" s="55"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="56"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="54"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="53"/>
+      <c r="AC51" s="53"/>
+      <c r="AD51" s="54"/>
       <c r="AE51" s="6"/>
       <c r="AF51" s="7"/>
       <c r="AG51" s="7"/>
@@ -5826,15 +5768,15 @@
       <c r="AX51" s="8"/>
       <c r="AY51" s="42"/>
       <c r="AZ51" s="27"/>
-      <c r="BA51" s="55"/>
-      <c r="BB51" s="56"/>
-      <c r="BC51" s="54"/>
-      <c r="BD51" s="55"/>
-      <c r="BE51" s="55"/>
-      <c r="BF51" s="56"/>
+      <c r="BA51" s="53"/>
+      <c r="BB51" s="54"/>
+      <c r="BC51" s="52"/>
+      <c r="BD51" s="53"/>
+      <c r="BE51" s="53"/>
+      <c r="BF51" s="54"/>
       <c r="BG51" s="6"/>
       <c r="BH51" s="7"/>
-      <c r="BI51" s="109"/>
+      <c r="BI51" s="99"/>
       <c r="BJ51" s="8"/>
       <c r="BK51" s="9"/>
       <c r="BL51" s="7"/>
@@ -5848,14 +5790,13 @@
       <c r="BT51" s="7"/>
       <c r="BU51" s="27"/>
       <c r="BV51" s="28"/>
-      <c r="BW51" s="82"/>
-    </row>
-    <row r="52" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="134">
+    </row>
+    <row r="52" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="148">
         <v>7.2</v>
       </c>
-      <c r="B52" s="135" t="s">
-        <v>30</v>
+      <c r="B52" s="163" t="s">
+        <v>29</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
@@ -5873,18 +5814,18 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="27"/>
       <c r="R52" s="28"/>
-      <c r="S52" s="54"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="55"/>
-      <c r="V52" s="56"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="53"/>
+      <c r="U52" s="53"/>
+      <c r="V52" s="54"/>
       <c r="W52" s="42"/>
       <c r="X52" s="27"/>
-      <c r="Y52" s="55"/>
-      <c r="Z52" s="56"/>
-      <c r="AA52" s="54"/>
-      <c r="AB52" s="55"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="56"/>
+      <c r="Y52" s="53"/>
+      <c r="Z52" s="54"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="53"/>
+      <c r="AC52" s="53"/>
+      <c r="AD52" s="54"/>
       <c r="AE52" s="6"/>
       <c r="AF52" s="7"/>
       <c r="AG52" s="7"/>
@@ -5907,16 +5848,16 @@
       <c r="AX52" s="8"/>
       <c r="AY52" s="42"/>
       <c r="AZ52" s="27"/>
-      <c r="BA52" s="55"/>
-      <c r="BB52" s="56"/>
-      <c r="BC52" s="54"/>
-      <c r="BD52" s="55"/>
-      <c r="BE52" s="55"/>
-      <c r="BF52" s="56"/>
+      <c r="BA52" s="53"/>
+      <c r="BB52" s="54"/>
+      <c r="BC52" s="52"/>
+      <c r="BD52" s="53"/>
+      <c r="BE52" s="53"/>
+      <c r="BF52" s="54"/>
       <c r="BG52" s="6"/>
       <c r="BH52" s="7"/>
       <c r="BI52" s="7"/>
-      <c r="BJ52" s="91"/>
+      <c r="BJ52" s="81"/>
       <c r="BK52" s="9"/>
       <c r="BL52" s="7"/>
       <c r="BM52" s="27"/>
@@ -5929,11 +5870,10 @@
       <c r="BT52" s="7"/>
       <c r="BU52" s="27"/>
       <c r="BV52" s="28"/>
-      <c r="BW52" s="82"/>
-    </row>
-    <row r="53" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="131"/>
-      <c r="B53" s="133"/>
+    </row>
+    <row r="53" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="144"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5950,18 +5890,18 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="27"/>
       <c r="R53" s="28"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="55"/>
-      <c r="V53" s="56"/>
+      <c r="S53" s="52"/>
+      <c r="T53" s="53"/>
+      <c r="U53" s="53"/>
+      <c r="V53" s="54"/>
       <c r="W53" s="42"/>
       <c r="X53" s="27"/>
-      <c r="Y53" s="55"/>
-      <c r="Z53" s="56"/>
-      <c r="AA53" s="54"/>
-      <c r="AB53" s="55"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="56"/>
+      <c r="Y53" s="53"/>
+      <c r="Z53" s="54"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="53"/>
+      <c r="AC53" s="53"/>
+      <c r="AD53" s="54"/>
       <c r="AE53" s="6"/>
       <c r="AF53" s="7"/>
       <c r="AG53" s="7"/>
@@ -5984,21 +5924,21 @@
       <c r="AX53" s="8"/>
       <c r="AY53" s="42"/>
       <c r="AZ53" s="27"/>
-      <c r="BA53" s="55"/>
-      <c r="BB53" s="56"/>
-      <c r="BC53" s="54"/>
-      <c r="BD53" s="55"/>
-      <c r="BE53" s="55"/>
-      <c r="BF53" s="56"/>
+      <c r="BA53" s="53"/>
+      <c r="BB53" s="54"/>
+      <c r="BC53" s="52"/>
+      <c r="BD53" s="53"/>
+      <c r="BE53" s="53"/>
+      <c r="BF53" s="54"/>
       <c r="BG53" s="6"/>
       <c r="BH53" s="7"/>
       <c r="BI53" s="7"/>
-      <c r="BJ53" s="110"/>
+      <c r="BJ53" s="100"/>
       <c r="BK53" s="9"/>
       <c r="BL53" s="7"/>
       <c r="BM53" s="27"/>
       <c r="BN53" s="36"/>
-      <c r="BO53" s="6"/>
+      <c r="BO53" s="109"/>
       <c r="BP53" s="7"/>
       <c r="BQ53" s="7"/>
       <c r="BR53" s="8"/>
@@ -6006,14 +5946,13 @@
       <c r="BT53" s="7"/>
       <c r="BU53" s="27"/>
       <c r="BV53" s="28"/>
-      <c r="BW53" s="82"/>
-    </row>
-    <row r="54" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="134">
+    </row>
+    <row r="54" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="148">
         <v>7.3</v>
       </c>
-      <c r="B54" s="135" t="s">
-        <v>26</v>
+      <c r="B54" s="163" t="s">
+        <v>25</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
@@ -6031,18 +5970,18 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="27"/>
       <c r="R54" s="28"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="55"/>
-      <c r="V54" s="56"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="54"/>
       <c r="W54" s="42"/>
       <c r="X54" s="27"/>
-      <c r="Y54" s="55"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="55"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="56"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="54"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="AD54" s="54"/>
       <c r="AE54" s="6"/>
       <c r="AF54" s="7"/>
       <c r="AG54" s="7"/>
@@ -6065,17 +6004,17 @@
       <c r="AX54" s="8"/>
       <c r="AY54" s="42"/>
       <c r="AZ54" s="27"/>
-      <c r="BA54" s="55"/>
-      <c r="BB54" s="56"/>
-      <c r="BC54" s="54"/>
-      <c r="BD54" s="55"/>
-      <c r="BE54" s="55"/>
-      <c r="BF54" s="56"/>
+      <c r="BA54" s="53"/>
+      <c r="BB54" s="54"/>
+      <c r="BC54" s="52"/>
+      <c r="BD54" s="53"/>
+      <c r="BE54" s="53"/>
+      <c r="BF54" s="54"/>
       <c r="BG54" s="6"/>
       <c r="BH54" s="7"/>
       <c r="BI54" s="7"/>
-      <c r="BJ54" s="91"/>
-      <c r="BK54" s="94"/>
+      <c r="BJ54" s="81"/>
+      <c r="BK54" s="84"/>
       <c r="BL54" s="7"/>
       <c r="BM54" s="27"/>
       <c r="BN54" s="36"/>
@@ -6087,11 +6026,10 @@
       <c r="BT54" s="7"/>
       <c r="BU54" s="27"/>
       <c r="BV54" s="28"/>
-      <c r="BW54" s="82"/>
-    </row>
-    <row r="55" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="131"/>
-      <c r="B55" s="133"/>
+    </row>
+    <row r="55" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="144"/>
+      <c r="B55" s="143"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6108,18 +6046,18 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="27"/>
       <c r="R55" s="28"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="55"/>
-      <c r="V55" s="56"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="54"/>
       <c r="W55" s="42"/>
       <c r="X55" s="27"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="56"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="52"/>
+      <c r="AB55" s="53"/>
+      <c r="AC55" s="53"/>
+      <c r="AD55" s="54"/>
       <c r="AE55" s="6"/>
       <c r="AF55" s="7"/>
       <c r="AG55" s="7"/>
@@ -6142,21 +6080,21 @@
       <c r="AX55" s="8"/>
       <c r="AY55" s="42"/>
       <c r="AZ55" s="27"/>
-      <c r="BA55" s="55"/>
-      <c r="BB55" s="56"/>
-      <c r="BC55" s="54"/>
-      <c r="BD55" s="55"/>
-      <c r="BE55" s="55"/>
-      <c r="BF55" s="56"/>
+      <c r="BA55" s="53"/>
+      <c r="BB55" s="54"/>
+      <c r="BC55" s="52"/>
+      <c r="BD55" s="53"/>
+      <c r="BE55" s="53"/>
+      <c r="BF55" s="54"/>
       <c r="BG55" s="6"/>
       <c r="BH55" s="7"/>
       <c r="BI55" s="7"/>
-      <c r="BJ55" s="110"/>
-      <c r="BK55" s="9"/>
+      <c r="BJ55" s="100"/>
+      <c r="BK55" s="170"/>
       <c r="BL55" s="7"/>
       <c r="BM55" s="27"/>
       <c r="BN55" s="36"/>
-      <c r="BO55" s="6"/>
+      <c r="BO55" s="109"/>
       <c r="BP55" s="7"/>
       <c r="BQ55" s="7"/>
       <c r="BR55" s="8"/>
@@ -6164,14 +6102,13 @@
       <c r="BT55" s="7"/>
       <c r="BU55" s="27"/>
       <c r="BV55" s="28"/>
-      <c r="BW55" s="82"/>
-    </row>
-    <row r="56" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="134">
+    </row>
+    <row r="56" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="148">
         <v>7.4</v>
       </c>
-      <c r="B56" s="135" t="s">
-        <v>32</v>
+      <c r="B56" s="163" t="s">
+        <v>31</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
@@ -6189,18 +6126,18 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="27"/>
       <c r="R56" s="28"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="55"/>
-      <c r="V56" s="56"/>
+      <c r="S56" s="52"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="54"/>
       <c r="W56" s="42"/>
       <c r="X56" s="27"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="56"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="52"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="AD56" s="54"/>
       <c r="AE56" s="6"/>
       <c r="AF56" s="7"/>
       <c r="AG56" s="7"/>
@@ -6223,18 +6160,18 @@
       <c r="AX56" s="8"/>
       <c r="AY56" s="42"/>
       <c r="AZ56" s="27"/>
-      <c r="BA56" s="55"/>
-      <c r="BB56" s="56"/>
-      <c r="BC56" s="54"/>
-      <c r="BD56" s="55"/>
-      <c r="BE56" s="55"/>
-      <c r="BF56" s="56"/>
+      <c r="BA56" s="53"/>
+      <c r="BB56" s="54"/>
+      <c r="BC56" s="52"/>
+      <c r="BD56" s="53"/>
+      <c r="BE56" s="53"/>
+      <c r="BF56" s="54"/>
       <c r="BG56" s="6"/>
       <c r="BH56" s="7"/>
       <c r="BI56" s="7"/>
       <c r="BJ56" s="8"/>
-      <c r="BK56" s="94"/>
-      <c r="BL56" s="89"/>
+      <c r="BK56" s="84"/>
+      <c r="BL56" s="79"/>
       <c r="BM56" s="27"/>
       <c r="BN56" s="36"/>
       <c r="BO56" s="6"/>
@@ -6245,11 +6182,10 @@
       <c r="BT56" s="7"/>
       <c r="BU56" s="27"/>
       <c r="BV56" s="28"/>
-      <c r="BW56" s="82"/>
-    </row>
-    <row r="57" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="137"/>
+    </row>
+    <row r="57" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="156"/>
+      <c r="B57" s="158"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6266,18 +6202,18 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="29"/>
       <c r="R57" s="30"/>
-      <c r="S57" s="57"/>
-      <c r="T57" s="58"/>
-      <c r="U57" s="58"/>
-      <c r="V57" s="59"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
+      <c r="V57" s="57"/>
       <c r="W57" s="43"/>
       <c r="X57" s="29"/>
-      <c r="Y57" s="58"/>
-      <c r="Z57" s="59"/>
-      <c r="AA57" s="57"/>
-      <c r="AB57" s="58"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="59"/>
+      <c r="Y57" s="56"/>
+      <c r="Z57" s="57"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="56"/>
+      <c r="AC57" s="56"/>
+      <c r="AD57" s="57"/>
       <c r="AE57" s="10"/>
       <c r="AF57" s="11"/>
       <c r="AG57" s="11"/>
@@ -6300,36 +6236,35 @@
       <c r="AX57" s="12"/>
       <c r="AY57" s="43"/>
       <c r="AZ57" s="29"/>
-      <c r="BA57" s="58"/>
-      <c r="BB57" s="59"/>
-      <c r="BC57" s="57"/>
-      <c r="BD57" s="58"/>
-      <c r="BE57" s="58"/>
-      <c r="BF57" s="59"/>
+      <c r="BA57" s="56"/>
+      <c r="BB57" s="57"/>
+      <c r="BC57" s="55"/>
+      <c r="BD57" s="56"/>
+      <c r="BE57" s="56"/>
+      <c r="BF57" s="57"/>
       <c r="BG57" s="10"/>
       <c r="BH57" s="11"/>
       <c r="BI57" s="11"/>
       <c r="BJ57" s="12"/>
-      <c r="BK57" s="13"/>
-      <c r="BL57" s="11"/>
+      <c r="BK57" s="171"/>
+      <c r="BL57" s="172"/>
       <c r="BM57" s="29"/>
       <c r="BN57" s="37"/>
-      <c r="BO57" s="10"/>
-      <c r="BP57" s="11"/>
+      <c r="BO57" s="174"/>
+      <c r="BP57" s="118"/>
       <c r="BQ57" s="11"/>
       <c r="BR57" s="12"/>
       <c r="BS57" s="10"/>
       <c r="BT57" s="11"/>
       <c r="BU57" s="29"/>
       <c r="BV57" s="30"/>
-      <c r="BW57" s="83"/>
-    </row>
-    <row r="58" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="130">
+    </row>
+    <row r="58" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="164">
         <v>8</v>
       </c>
-      <c r="B58" s="128" t="s">
-        <v>33</v>
+      <c r="B58" s="153" t="s">
+        <v>32</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
@@ -6347,18 +6282,18 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="25"/>
       <c r="R58" s="26"/>
-      <c r="S58" s="51"/>
-      <c r="T58" s="52"/>
-      <c r="U58" s="52"/>
-      <c r="V58" s="53"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="50"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="51"/>
       <c r="W58" s="41"/>
       <c r="X58" s="25"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="53"/>
-      <c r="AA58" s="51"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="52"/>
-      <c r="AD58" s="53"/>
+      <c r="Y58" s="50"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="50"/>
+      <c r="AC58" s="50"/>
+      <c r="AD58" s="51"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
@@ -6381,12 +6316,12 @@
       <c r="AX58" s="14"/>
       <c r="AY58" s="41"/>
       <c r="AZ58" s="25"/>
-      <c r="BA58" s="52"/>
-      <c r="BB58" s="53"/>
-      <c r="BC58" s="51"/>
-      <c r="BD58" s="52"/>
-      <c r="BE58" s="52"/>
-      <c r="BF58" s="53"/>
+      <c r="BA58" s="50"/>
+      <c r="BB58" s="51"/>
+      <c r="BC58" s="49"/>
+      <c r="BD58" s="50"/>
+      <c r="BE58" s="50"/>
+      <c r="BF58" s="51"/>
       <c r="BG58" s="4"/>
       <c r="BH58" s="5"/>
       <c r="BI58" s="5"/>
@@ -6395,19 +6330,18 @@
       <c r="BL58" s="5"/>
       <c r="BM58" s="25"/>
       <c r="BN58" s="35"/>
-      <c r="BO58" s="100"/>
-      <c r="BP58" s="101"/>
-      <c r="BQ58" s="101"/>
-      <c r="BR58" s="102"/>
+      <c r="BO58" s="90"/>
+      <c r="BP58" s="91"/>
+      <c r="BQ58" s="91"/>
+      <c r="BR58" s="92"/>
       <c r="BS58" s="4"/>
       <c r="BT58" s="5"/>
       <c r="BU58" s="25"/>
       <c r="BV58" s="26"/>
-      <c r="BW58" s="79"/>
-    </row>
-    <row r="59" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="129"/>
+    </row>
+    <row r="59" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="156"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6424,18 +6358,18 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="29"/>
       <c r="R59" s="30"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="58"/>
-      <c r="U59" s="58"/>
-      <c r="V59" s="59"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="57"/>
       <c r="W59" s="43"/>
       <c r="X59" s="29"/>
-      <c r="Y59" s="58"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="57"/>
-      <c r="AB59" s="58"/>
-      <c r="AC59" s="58"/>
-      <c r="AD59" s="59"/>
+      <c r="Y59" s="56"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="56"/>
+      <c r="AC59" s="56"/>
+      <c r="AD59" s="57"/>
       <c r="AE59" s="10"/>
       <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
@@ -6458,18 +6392,18 @@
       <c r="AX59" s="12"/>
       <c r="AY59" s="43"/>
       <c r="AZ59" s="29"/>
-      <c r="BA59" s="58"/>
-      <c r="BB59" s="59"/>
-      <c r="BC59" s="57"/>
-      <c r="BD59" s="58"/>
-      <c r="BE59" s="58"/>
-      <c r="BF59" s="59"/>
+      <c r="BA59" s="56"/>
+      <c r="BB59" s="57"/>
+      <c r="BC59" s="55"/>
+      <c r="BD59" s="56"/>
+      <c r="BE59" s="56"/>
+      <c r="BF59" s="57"/>
       <c r="BG59" s="10"/>
       <c r="BH59" s="11"/>
       <c r="BI59" s="11"/>
       <c r="BJ59" s="12"/>
-      <c r="BK59" s="176"/>
-      <c r="BL59" s="177"/>
+      <c r="BK59" s="117"/>
+      <c r="BL59" s="118"/>
       <c r="BM59" s="29"/>
       <c r="BN59" s="37"/>
       <c r="BO59" s="10"/>
@@ -6480,14 +6414,13 @@
       <c r="BT59" s="11"/>
       <c r="BU59" s="29"/>
       <c r="BV59" s="30"/>
-      <c r="BW59" s="80"/>
-    </row>
-    <row r="60" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="130">
+    </row>
+    <row r="60" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="164">
         <v>8.1</v>
       </c>
-      <c r="B60" s="132" t="s">
-        <v>46</v>
+      <c r="B60" s="165" t="s">
+        <v>45</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
@@ -6505,18 +6438,18 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="25"/>
       <c r="R60" s="26"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="52"/>
-      <c r="U60" s="52"/>
-      <c r="V60" s="53"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="51"/>
       <c r="W60" s="41"/>
       <c r="X60" s="25"/>
-      <c r="Y60" s="52"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="51"/>
-      <c r="AB60" s="52"/>
-      <c r="AC60" s="52"/>
-      <c r="AD60" s="53"/>
+      <c r="Y60" s="50"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="49"/>
+      <c r="AB60" s="50"/>
+      <c r="AC60" s="50"/>
+      <c r="AD60" s="51"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="5"/>
       <c r="AG60" s="5"/>
@@ -6539,12 +6472,12 @@
       <c r="AX60" s="14"/>
       <c r="AY60" s="41"/>
       <c r="AZ60" s="25"/>
-      <c r="BA60" s="52"/>
-      <c r="BB60" s="53"/>
-      <c r="BC60" s="51"/>
-      <c r="BD60" s="52"/>
-      <c r="BE60" s="52"/>
-      <c r="BF60" s="53"/>
+      <c r="BA60" s="50"/>
+      <c r="BB60" s="51"/>
+      <c r="BC60" s="49"/>
+      <c r="BD60" s="50"/>
+      <c r="BE60" s="50"/>
+      <c r="BF60" s="51"/>
       <c r="BG60" s="4"/>
       <c r="BH60" s="5"/>
       <c r="BI60" s="5"/>
@@ -6553,19 +6486,18 @@
       <c r="BL60" s="5"/>
       <c r="BM60" s="25"/>
       <c r="BN60" s="35"/>
-      <c r="BO60" s="88"/>
-      <c r="BP60" s="88"/>
+      <c r="BO60" s="78"/>
+      <c r="BP60" s="78"/>
       <c r="BQ60" s="15"/>
       <c r="BR60" s="14"/>
       <c r="BS60" s="4"/>
       <c r="BT60" s="5"/>
       <c r="BU60" s="25"/>
       <c r="BV60" s="26"/>
-      <c r="BW60" s="82"/>
-    </row>
-    <row r="61" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="131"/>
-      <c r="B61" s="133"/>
+    </row>
+    <row r="61" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="144"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6582,18 +6514,18 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="27"/>
       <c r="R61" s="28"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="56"/>
+      <c r="S61" s="52"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="54"/>
       <c r="W61" s="42"/>
       <c r="X61" s="27"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="56"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="52"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="AD61" s="54"/>
       <c r="AE61" s="6"/>
       <c r="AF61" s="7"/>
       <c r="AG61" s="7"/>
@@ -6616,12 +6548,12 @@
       <c r="AX61" s="8"/>
       <c r="AY61" s="42"/>
       <c r="AZ61" s="27"/>
-      <c r="BA61" s="55"/>
-      <c r="BB61" s="56"/>
-      <c r="BC61" s="54"/>
-      <c r="BD61" s="55"/>
-      <c r="BE61" s="55"/>
-      <c r="BF61" s="56"/>
+      <c r="BA61" s="53"/>
+      <c r="BB61" s="54"/>
+      <c r="BC61" s="52"/>
+      <c r="BD61" s="53"/>
+      <c r="BE61" s="53"/>
+      <c r="BF61" s="54"/>
       <c r="BG61" s="6"/>
       <c r="BH61" s="7"/>
       <c r="BI61" s="7"/>
@@ -6638,14 +6570,13 @@
       <c r="BT61" s="7"/>
       <c r="BU61" s="27"/>
       <c r="BV61" s="28"/>
-      <c r="BW61" s="82"/>
-    </row>
-    <row r="62" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="134">
+    </row>
+    <row r="62" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="148">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="135" t="s">
-        <v>34</v>
+      <c r="B62" s="163" t="s">
+        <v>33</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="7"/>
@@ -6663,18 +6594,18 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="28"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="56"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="54"/>
       <c r="W62" s="42"/>
       <c r="X62" s="27"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="56"/>
+      <c r="Y62" s="53"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="52"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="53"/>
+      <c r="AD62" s="54"/>
       <c r="AE62" s="6"/>
       <c r="AF62" s="7"/>
       <c r="AG62" s="7"/>
@@ -6697,12 +6628,12 @@
       <c r="AX62" s="8"/>
       <c r="AY62" s="42"/>
       <c r="AZ62" s="27"/>
-      <c r="BA62" s="55"/>
-      <c r="BB62" s="56"/>
-      <c r="BC62" s="54"/>
-      <c r="BD62" s="55"/>
-      <c r="BE62" s="55"/>
-      <c r="BF62" s="56"/>
+      <c r="BA62" s="53"/>
+      <c r="BB62" s="54"/>
+      <c r="BC62" s="52"/>
+      <c r="BD62" s="53"/>
+      <c r="BE62" s="53"/>
+      <c r="BF62" s="54"/>
       <c r="BG62" s="6"/>
       <c r="BH62" s="7"/>
       <c r="BI62" s="7"/>
@@ -6712,18 +6643,17 @@
       <c r="BM62" s="27"/>
       <c r="BN62" s="36"/>
       <c r="BO62" s="6"/>
-      <c r="BP62" s="89"/>
-      <c r="BQ62" s="89"/>
-      <c r="BR62" s="91"/>
+      <c r="BP62" s="79"/>
+      <c r="BQ62" s="79"/>
+      <c r="BR62" s="81"/>
       <c r="BS62" s="6"/>
       <c r="BT62" s="7"/>
       <c r="BU62" s="27"/>
       <c r="BV62" s="28"/>
-      <c r="BW62" s="82"/>
-    </row>
-    <row r="63" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="131"/>
-      <c r="B63" s="133"/>
+    </row>
+    <row r="63" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="144"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6740,18 +6670,18 @@
       <c r="P63" s="7"/>
       <c r="Q63" s="27"/>
       <c r="R63" s="28"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="56"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="54"/>
       <c r="W63" s="42"/>
       <c r="X63" s="27"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="56"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="56"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="53"/>
+      <c r="AD63" s="54"/>
       <c r="AE63" s="6"/>
       <c r="AF63" s="7"/>
       <c r="AG63" s="7"/>
@@ -6774,12 +6704,12 @@
       <c r="AX63" s="8"/>
       <c r="AY63" s="42"/>
       <c r="AZ63" s="27"/>
-      <c r="BA63" s="55"/>
-      <c r="BB63" s="56"/>
-      <c r="BC63" s="54"/>
-      <c r="BD63" s="55"/>
-      <c r="BE63" s="55"/>
-      <c r="BF63" s="56"/>
+      <c r="BA63" s="53"/>
+      <c r="BB63" s="54"/>
+      <c r="BC63" s="52"/>
+      <c r="BD63" s="53"/>
+      <c r="BE63" s="53"/>
+      <c r="BF63" s="54"/>
       <c r="BG63" s="6"/>
       <c r="BH63" s="7"/>
       <c r="BI63" s="7"/>
@@ -6796,14 +6726,13 @@
       <c r="BT63" s="7"/>
       <c r="BU63" s="27"/>
       <c r="BV63" s="28"/>
-      <c r="BW63" s="82"/>
-    </row>
-    <row r="64" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="134">
+    </row>
+    <row r="64" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="148">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="135" t="s">
-        <v>35</v>
+      <c r="B64" s="163" t="s">
+        <v>34</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="7"/>
@@ -6821,18 +6750,18 @@
       <c r="P64" s="7"/>
       <c r="Q64" s="27"/>
       <c r="R64" s="28"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="56"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="54"/>
       <c r="W64" s="42"/>
       <c r="X64" s="27"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="56"/>
+      <c r="Y64" s="53"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="53"/>
+      <c r="AD64" s="54"/>
       <c r="AE64" s="6"/>
       <c r="AF64" s="7"/>
       <c r="AG64" s="7"/>
@@ -6855,12 +6784,12 @@
       <c r="AX64" s="8"/>
       <c r="AY64" s="42"/>
       <c r="AZ64" s="27"/>
-      <c r="BA64" s="55"/>
-      <c r="BB64" s="56"/>
-      <c r="BC64" s="54"/>
-      <c r="BD64" s="55"/>
-      <c r="BE64" s="55"/>
-      <c r="BF64" s="56"/>
+      <c r="BA64" s="53"/>
+      <c r="BB64" s="54"/>
+      <c r="BC64" s="52"/>
+      <c r="BD64" s="53"/>
+      <c r="BE64" s="53"/>
+      <c r="BF64" s="54"/>
       <c r="BG64" s="6"/>
       <c r="BH64" s="7"/>
       <c r="BI64" s="7"/>
@@ -6871,17 +6800,16 @@
       <c r="BN64" s="36"/>
       <c r="BO64" s="6"/>
       <c r="BP64" s="7"/>
-      <c r="BQ64" s="89"/>
-      <c r="BR64" s="91"/>
+      <c r="BQ64" s="79"/>
+      <c r="BR64" s="81"/>
       <c r="BS64" s="6"/>
       <c r="BT64" s="7"/>
       <c r="BU64" s="27"/>
       <c r="BV64" s="28"/>
-      <c r="BW64" s="82"/>
-    </row>
-    <row r="65" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="131"/>
-      <c r="B65" s="133"/>
+    </row>
+    <row r="65" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="144"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6898,18 +6826,18 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="27"/>
       <c r="R65" s="28"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="56"/>
+      <c r="S65" s="52"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="54"/>
       <c r="W65" s="42"/>
       <c r="X65" s="27"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="56"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="56"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="53"/>
+      <c r="AD65" s="54"/>
       <c r="AE65" s="6"/>
       <c r="AF65" s="7"/>
       <c r="AG65" s="7"/>
@@ -6932,12 +6860,12 @@
       <c r="AX65" s="8"/>
       <c r="AY65" s="42"/>
       <c r="AZ65" s="27"/>
-      <c r="BA65" s="55"/>
-      <c r="BB65" s="56"/>
-      <c r="BC65" s="54"/>
-      <c r="BD65" s="55"/>
-      <c r="BE65" s="55"/>
-      <c r="BF65" s="56"/>
+      <c r="BA65" s="53"/>
+      <c r="BB65" s="54"/>
+      <c r="BC65" s="52"/>
+      <c r="BD65" s="53"/>
+      <c r="BE65" s="53"/>
+      <c r="BF65" s="54"/>
       <c r="BG65" s="6"/>
       <c r="BH65" s="7"/>
       <c r="BI65" s="7"/>
@@ -6954,14 +6882,13 @@
       <c r="BT65" s="7"/>
       <c r="BU65" s="27"/>
       <c r="BV65" s="28"/>
-      <c r="BW65" s="82"/>
-    </row>
-    <row r="66" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="134">
+    </row>
+    <row r="66" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="148">
         <v>8.4</v>
       </c>
-      <c r="B66" s="135" t="s">
-        <v>36</v>
+      <c r="B66" s="163" t="s">
+        <v>35</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
@@ -6979,18 +6906,18 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="27"/>
       <c r="R66" s="28"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="56"/>
+      <c r="S66" s="52"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="54"/>
       <c r="W66" s="42"/>
       <c r="X66" s="27"/>
-      <c r="Y66" s="55"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="55"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="56"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="54"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="53"/>
+      <c r="AD66" s="54"/>
       <c r="AE66" s="6"/>
       <c r="AF66" s="7"/>
       <c r="AG66" s="7"/>
@@ -7013,12 +6940,12 @@
       <c r="AX66" s="8"/>
       <c r="AY66" s="42"/>
       <c r="AZ66" s="27"/>
-      <c r="BA66" s="55"/>
-      <c r="BB66" s="56"/>
-      <c r="BC66" s="54"/>
-      <c r="BD66" s="55"/>
-      <c r="BE66" s="55"/>
-      <c r="BF66" s="56"/>
+      <c r="BA66" s="53"/>
+      <c r="BB66" s="54"/>
+      <c r="BC66" s="52"/>
+      <c r="BD66" s="53"/>
+      <c r="BE66" s="53"/>
+      <c r="BF66" s="54"/>
       <c r="BG66" s="6"/>
       <c r="BH66" s="7"/>
       <c r="BI66" s="7"/>
@@ -7030,16 +6957,15 @@
       <c r="BO66" s="6"/>
       <c r="BP66" s="7"/>
       <c r="BQ66" s="7"/>
-      <c r="BR66" s="91"/>
+      <c r="BR66" s="81"/>
       <c r="BS66" s="6"/>
       <c r="BT66" s="7"/>
       <c r="BU66" s="27"/>
       <c r="BV66" s="28"/>
-      <c r="BW66" s="82"/>
-    </row>
-    <row r="67" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="136"/>
-      <c r="B67" s="137"/>
+    </row>
+    <row r="67" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="156"/>
+      <c r="B67" s="158"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7056,18 +6982,18 @@
       <c r="P67" s="17"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="32"/>
-      <c r="S67" s="60"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="62"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="59"/>
+      <c r="V67" s="60"/>
       <c r="W67" s="44"/>
       <c r="X67" s="31"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="62"/>
-      <c r="AA67" s="60"/>
-      <c r="AB67" s="61"/>
-      <c r="AC67" s="61"/>
-      <c r="AD67" s="62"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="60"/>
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="59"/>
+      <c r="AC67" s="59"/>
+      <c r="AD67" s="60"/>
       <c r="AE67" s="16"/>
       <c r="AF67" s="17"/>
       <c r="AG67" s="17"/>
@@ -7090,12 +7016,12 @@
       <c r="AX67" s="18"/>
       <c r="AY67" s="44"/>
       <c r="AZ67" s="31"/>
-      <c r="BA67" s="61"/>
-      <c r="BB67" s="62"/>
-      <c r="BC67" s="60"/>
-      <c r="BD67" s="61"/>
-      <c r="BE67" s="61"/>
-      <c r="BF67" s="62"/>
+      <c r="BA67" s="59"/>
+      <c r="BB67" s="60"/>
+      <c r="BC67" s="58"/>
+      <c r="BD67" s="59"/>
+      <c r="BE67" s="59"/>
+      <c r="BF67" s="60"/>
       <c r="BG67" s="16"/>
       <c r="BH67" s="17"/>
       <c r="BI67" s="17"/>
@@ -7112,19 +7038,18 @@
       <c r="BT67" s="17"/>
       <c r="BU67" s="31"/>
       <c r="BV67" s="32"/>
-      <c r="BW67" s="83"/>
-    </row>
-    <row r="68" spans="1:75" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="126">
+    </row>
+    <row r="68" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="166">
         <v>9</v>
       </c>
-      <c r="B68" s="128" t="s">
-        <v>37</v>
+      <c r="B68" s="153" t="s">
+        <v>36</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="102"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="4"/>
       <c r="H68" s="5"/>
       <c r="I68" s="25"/>
@@ -7132,57 +7057,57 @@
       <c r="K68" s="4"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="102"/>
+      <c r="N68" s="92"/>
       <c r="O68" s="4"/>
-      <c r="P68" s="101"/>
+      <c r="P68" s="91"/>
       <c r="Q68" s="25"/>
       <c r="R68" s="26"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="52"/>
-      <c r="U68" s="52"/>
-      <c r="V68" s="53"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="51"/>
       <c r="W68" s="41"/>
       <c r="X68" s="25"/>
-      <c r="Y68" s="52"/>
-      <c r="Z68" s="53"/>
-      <c r="AA68" s="51"/>
-      <c r="AB68" s="52"/>
-      <c r="AC68" s="52"/>
-      <c r="AD68" s="53"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="51"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="50"/>
+      <c r="AD68" s="51"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="5"/>
       <c r="AG68" s="5"/>
-      <c r="AH68" s="102"/>
+      <c r="AH68" s="92"/>
       <c r="AI68" s="4"/>
-      <c r="AJ68" s="101"/>
+      <c r="AJ68" s="91"/>
       <c r="AK68" s="25"/>
       <c r="AL68" s="26"/>
       <c r="AM68" s="4"/>
       <c r="AN68" s="5"/>
       <c r="AO68" s="5"/>
-      <c r="AP68" s="102"/>
-      <c r="AQ68" s="100"/>
-      <c r="AR68" s="101"/>
+      <c r="AP68" s="92"/>
+      <c r="AQ68" s="90"/>
+      <c r="AR68" s="91"/>
       <c r="AS68" s="25"/>
       <c r="AT68" s="26"/>
       <c r="AU68" s="4"/>
       <c r="AV68" s="5"/>
       <c r="AW68" s="5"/>
-      <c r="AX68" s="102"/>
+      <c r="AX68" s="92"/>
       <c r="AY68" s="41"/>
       <c r="AZ68" s="25"/>
-      <c r="BA68" s="52"/>
-      <c r="BB68" s="53"/>
-      <c r="BC68" s="51"/>
-      <c r="BD68" s="52"/>
-      <c r="BE68" s="52"/>
-      <c r="BF68" s="53"/>
+      <c r="BA68" s="50"/>
+      <c r="BB68" s="51"/>
+      <c r="BC68" s="49"/>
+      <c r="BD68" s="50"/>
+      <c r="BE68" s="50"/>
+      <c r="BF68" s="51"/>
       <c r="BG68" s="4"/>
       <c r="BH68" s="5"/>
       <c r="BI68" s="5"/>
-      <c r="BJ68" s="102"/>
+      <c r="BJ68" s="92"/>
       <c r="BK68" s="15"/>
-      <c r="BL68" s="101"/>
+      <c r="BL68" s="91"/>
       <c r="BM68" s="25"/>
       <c r="BN68" s="35"/>
       <c r="BO68" s="4"/>
@@ -7193,15 +7118,14 @@
       <c r="BT68" s="5"/>
       <c r="BU68" s="25"/>
       <c r="BV68" s="26"/>
-      <c r="BW68" s="79"/>
-    </row>
-    <row r="69" spans="1:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="127"/>
-      <c r="B69" s="129"/>
+    </row>
+    <row r="69" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="167"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
-      <c r="F69" s="108"/>
+      <c r="F69" s="98"/>
       <c r="G69" s="16"/>
       <c r="H69" s="17"/>
       <c r="I69" s="31"/>
@@ -7209,57 +7133,57 @@
       <c r="K69" s="16"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
-      <c r="N69" s="108"/>
+      <c r="N69" s="98"/>
       <c r="O69" s="16"/>
-      <c r="P69" s="106"/>
+      <c r="P69" s="96"/>
       <c r="Q69" s="31"/>
       <c r="R69" s="32"/>
-      <c r="S69" s="60"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="62"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="59"/>
+      <c r="U69" s="59"/>
+      <c r="V69" s="60"/>
       <c r="W69" s="44"/>
       <c r="X69" s="31"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="62"/>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="61"/>
-      <c r="AC69" s="61"/>
-      <c r="AD69" s="62"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="60"/>
+      <c r="AA69" s="58"/>
+      <c r="AB69" s="59"/>
+      <c r="AC69" s="59"/>
+      <c r="AD69" s="60"/>
       <c r="AE69" s="16"/>
       <c r="AF69" s="17"/>
       <c r="AG69" s="17"/>
-      <c r="AH69" s="108"/>
+      <c r="AH69" s="98"/>
       <c r="AI69" s="16"/>
-      <c r="AJ69" s="106"/>
+      <c r="AJ69" s="96"/>
       <c r="AK69" s="31"/>
       <c r="AL69" s="32"/>
       <c r="AM69" s="16"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
-      <c r="AP69" s="108"/>
-      <c r="AQ69" s="105"/>
-      <c r="AR69" s="106"/>
+      <c r="AP69" s="98"/>
+      <c r="AQ69" s="95"/>
+      <c r="AR69" s="96"/>
       <c r="AS69" s="31"/>
       <c r="AT69" s="32"/>
       <c r="AU69" s="16"/>
       <c r="AV69" s="17"/>
       <c r="AW69" s="17"/>
-      <c r="AX69" s="108"/>
+      <c r="AX69" s="98"/>
       <c r="AY69" s="44"/>
       <c r="AZ69" s="31"/>
-      <c r="BA69" s="61"/>
-      <c r="BB69" s="62"/>
-      <c r="BC69" s="60"/>
-      <c r="BD69" s="61"/>
-      <c r="BE69" s="61"/>
-      <c r="BF69" s="62"/>
+      <c r="BA69" s="59"/>
+      <c r="BB69" s="60"/>
+      <c r="BC69" s="58"/>
+      <c r="BD69" s="59"/>
+      <c r="BE69" s="59"/>
+      <c r="BF69" s="60"/>
       <c r="BG69" s="16"/>
       <c r="BH69" s="17"/>
       <c r="BI69" s="17"/>
-      <c r="BJ69" s="108"/>
+      <c r="BJ69" s="98"/>
       <c r="BK69" s="19"/>
-      <c r="BL69" s="106"/>
+      <c r="BL69" s="96"/>
       <c r="BM69" s="31"/>
       <c r="BN69" s="38"/>
       <c r="BO69" s="16"/>
@@ -7270,14 +7194,13 @@
       <c r="BT69" s="17"/>
       <c r="BU69" s="31"/>
       <c r="BV69" s="32"/>
-      <c r="BW69" s="80"/>
-    </row>
-    <row r="70" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="126">
+    </row>
+    <row r="70" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="166">
         <v>10</v>
       </c>
-      <c r="B70" s="128" t="s">
-        <v>38</v>
+      <c r="B70" s="153" t="s">
+        <v>37</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
@@ -7295,18 +7218,18 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="25"/>
       <c r="R70" s="26"/>
-      <c r="S70" s="51"/>
-      <c r="T70" s="52"/>
-      <c r="U70" s="52"/>
-      <c r="V70" s="53"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="50"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="51"/>
       <c r="W70" s="41"/>
       <c r="X70" s="25"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="53"/>
-      <c r="AA70" s="51"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="52"/>
-      <c r="AD70" s="53"/>
+      <c r="Y70" s="50"/>
+      <c r="Z70" s="51"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="50"/>
+      <c r="AC70" s="50"/>
+      <c r="AD70" s="51"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="5"/>
       <c r="AG70" s="5"/>
@@ -7318,9 +7241,9 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="5"/>
       <c r="AO70" s="5"/>
-      <c r="AP70" s="102"/>
-      <c r="AQ70" s="100"/>
-      <c r="AR70" s="101"/>
+      <c r="AP70" s="92"/>
+      <c r="AQ70" s="90"/>
+      <c r="AR70" s="91"/>
       <c r="AS70" s="25"/>
       <c r="AT70" s="26"/>
       <c r="AU70" s="4"/>
@@ -7329,12 +7252,12 @@
       <c r="AX70" s="14"/>
       <c r="AY70" s="41"/>
       <c r="AZ70" s="25"/>
-      <c r="BA70" s="52"/>
-      <c r="BB70" s="53"/>
-      <c r="BC70" s="51"/>
-      <c r="BD70" s="52"/>
-      <c r="BE70" s="52"/>
-      <c r="BF70" s="53"/>
+      <c r="BA70" s="50"/>
+      <c r="BB70" s="51"/>
+      <c r="BC70" s="49"/>
+      <c r="BD70" s="50"/>
+      <c r="BE70" s="50"/>
+      <c r="BF70" s="51"/>
       <c r="BG70" s="4"/>
       <c r="BH70" s="5"/>
       <c r="BI70" s="5"/>
@@ -7347,15 +7270,14 @@
       <c r="BP70" s="5"/>
       <c r="BQ70" s="5"/>
       <c r="BR70" s="14"/>
-      <c r="BS70" s="100"/>
+      <c r="BS70" s="90"/>
       <c r="BT70" s="5"/>
       <c r="BU70" s="25"/>
       <c r="BV70" s="26"/>
-      <c r="BW70" s="79"/>
-    </row>
-    <row r="71" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="127"/>
-      <c r="B71" s="129"/>
+    </row>
+    <row r="71" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="167"/>
+      <c r="B71" s="154"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7372,18 +7294,18 @@
       <c r="P71" s="17"/>
       <c r="Q71" s="31"/>
       <c r="R71" s="32"/>
-      <c r="S71" s="60"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="62"/>
+      <c r="S71" s="58"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="60"/>
       <c r="W71" s="44"/>
       <c r="X71" s="31"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="62"/>
-      <c r="AA71" s="60"/>
-      <c r="AB71" s="61"/>
-      <c r="AC71" s="61"/>
-      <c r="AD71" s="62"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="58"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="60"/>
       <c r="AE71" s="16"/>
       <c r="AF71" s="17"/>
       <c r="AG71" s="17"/>
@@ -7395,9 +7317,9 @@
       <c r="AM71" s="16"/>
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
-      <c r="AP71" s="108"/>
-      <c r="AQ71" s="105"/>
-      <c r="AR71" s="106"/>
+      <c r="AP71" s="98"/>
+      <c r="AQ71" s="95"/>
+      <c r="AR71" s="96"/>
       <c r="AS71" s="31"/>
       <c r="AT71" s="32"/>
       <c r="AU71" s="16"/>
@@ -7406,12 +7328,12 @@
       <c r="AX71" s="18"/>
       <c r="AY71" s="44"/>
       <c r="AZ71" s="31"/>
-      <c r="BA71" s="61"/>
-      <c r="BB71" s="62"/>
-      <c r="BC71" s="60"/>
-      <c r="BD71" s="61"/>
-      <c r="BE71" s="61"/>
-      <c r="BF71" s="62"/>
+      <c r="BA71" s="59"/>
+      <c r="BB71" s="60"/>
+      <c r="BC71" s="58"/>
+      <c r="BD71" s="59"/>
+      <c r="BE71" s="59"/>
+      <c r="BF71" s="60"/>
       <c r="BG71" s="16"/>
       <c r="BH71" s="17"/>
       <c r="BI71" s="17"/>
@@ -7424,17 +7346,16 @@
       <c r="BP71" s="17"/>
       <c r="BQ71" s="17"/>
       <c r="BR71" s="18"/>
-      <c r="BS71" s="16"/>
+      <c r="BS71" s="95"/>
       <c r="BT71" s="17"/>
       <c r="BU71" s="31"/>
       <c r="BV71" s="32"/>
-      <c r="BW71" s="80"/>
-    </row>
-    <row r="72" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="126">
+    </row>
+    <row r="72" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="166">
         <v>11</v>
       </c>
-      <c r="B72" s="128" t="s">
+      <c r="B72" s="153" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7442,7 +7363,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="14"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="86"/>
+      <c r="H72" s="76"/>
       <c r="I72" s="25"/>
       <c r="J72" s="26"/>
       <c r="K72" s="4"/>
@@ -7453,18 +7374,18 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="25"/>
       <c r="R72" s="26"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="53"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="51"/>
       <c r="W72" s="41"/>
       <c r="X72" s="25"/>
-      <c r="Y72" s="52"/>
-      <c r="Z72" s="53"/>
-      <c r="AA72" s="51"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="53"/>
+      <c r="Y72" s="50"/>
+      <c r="Z72" s="51"/>
+      <c r="AA72" s="49"/>
+      <c r="AB72" s="50"/>
+      <c r="AC72" s="50"/>
+      <c r="AD72" s="51"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
@@ -7487,18 +7408,18 @@
       <c r="AX72" s="14"/>
       <c r="AY72" s="41"/>
       <c r="AZ72" s="25"/>
-      <c r="BA72" s="52"/>
-      <c r="BB72" s="53"/>
-      <c r="BC72" s="51"/>
-      <c r="BD72" s="52"/>
-      <c r="BE72" s="52"/>
-      <c r="BF72" s="53"/>
+      <c r="BA72" s="50"/>
+      <c r="BB72" s="51"/>
+      <c r="BC72" s="49"/>
+      <c r="BD72" s="50"/>
+      <c r="BE72" s="50"/>
+      <c r="BF72" s="51"/>
       <c r="BG72" s="4"/>
       <c r="BH72" s="5"/>
       <c r="BI72" s="5"/>
       <c r="BJ72" s="14"/>
       <c r="BK72" s="15"/>
-      <c r="BL72" s="67"/>
+      <c r="BL72" s="65"/>
       <c r="BM72" s="25"/>
       <c r="BN72" s="35"/>
       <c r="BO72" s="4"/>
@@ -7509,17 +7430,16 @@
       <c r="BT72" s="5"/>
       <c r="BU72" s="25"/>
       <c r="BV72" s="26"/>
-      <c r="BW72" s="84"/>
-    </row>
-    <row r="73" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="127"/>
-      <c r="B73" s="129"/>
+    </row>
+    <row r="73" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="167"/>
+      <c r="B73" s="154"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="18"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="106"/>
+      <c r="H73" s="96"/>
       <c r="I73" s="31"/>
       <c r="J73" s="32"/>
       <c r="K73" s="16"/>
@@ -7530,18 +7450,18 @@
       <c r="P73" s="17"/>
       <c r="Q73" s="31"/>
       <c r="R73" s="32"/>
-      <c r="S73" s="60"/>
-      <c r="T73" s="61"/>
-      <c r="U73" s="61"/>
-      <c r="V73" s="62"/>
+      <c r="S73" s="58"/>
+      <c r="T73" s="59"/>
+      <c r="U73" s="59"/>
+      <c r="V73" s="60"/>
       <c r="W73" s="44"/>
       <c r="X73" s="31"/>
-      <c r="Y73" s="61"/>
-      <c r="Z73" s="62"/>
-      <c r="AA73" s="60"/>
-      <c r="AB73" s="61"/>
-      <c r="AC73" s="61"/>
-      <c r="AD73" s="62"/>
+      <c r="Y73" s="59"/>
+      <c r="Z73" s="60"/>
+      <c r="AA73" s="58"/>
+      <c r="AB73" s="59"/>
+      <c r="AC73" s="59"/>
+      <c r="AD73" s="60"/>
       <c r="AE73" s="16"/>
       <c r="AF73" s="17"/>
       <c r="AG73" s="17"/>
@@ -7564,18 +7484,18 @@
       <c r="AX73" s="18"/>
       <c r="AY73" s="44"/>
       <c r="AZ73" s="31"/>
-      <c r="BA73" s="61"/>
-      <c r="BB73" s="62"/>
-      <c r="BC73" s="60"/>
-      <c r="BD73" s="61"/>
-      <c r="BE73" s="61"/>
-      <c r="BF73" s="62"/>
+      <c r="BA73" s="59"/>
+      <c r="BB73" s="60"/>
+      <c r="BC73" s="58"/>
+      <c r="BD73" s="59"/>
+      <c r="BE73" s="59"/>
+      <c r="BF73" s="60"/>
       <c r="BG73" s="16"/>
       <c r="BH73" s="17"/>
       <c r="BI73" s="17"/>
       <c r="BJ73" s="18"/>
       <c r="BK73" s="19"/>
-      <c r="BL73" s="106"/>
+      <c r="BL73" s="96"/>
       <c r="BM73" s="31"/>
       <c r="BN73" s="38"/>
       <c r="BO73" s="16"/>
@@ -7586,14 +7506,13 @@
       <c r="BT73" s="17"/>
       <c r="BU73" s="31"/>
       <c r="BV73" s="32"/>
-      <c r="BW73" s="85"/>
-    </row>
-    <row r="74" spans="1:75" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="126">
+    </row>
+    <row r="74" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="166">
         <v>12</v>
       </c>
-      <c r="B74" s="128" t="s">
-        <v>39</v>
+      <c r="B74" s="153" t="s">
+        <v>38</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="7"/>
@@ -7611,18 +7530,18 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="27"/>
       <c r="R74" s="28"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="55"/>
-      <c r="V74" s="56"/>
+      <c r="S74" s="52"/>
+      <c r="T74" s="53"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="54"/>
       <c r="W74" s="42"/>
       <c r="X74" s="27"/>
-      <c r="Y74" s="55"/>
-      <c r="Z74" s="56"/>
-      <c r="AA74" s="54"/>
-      <c r="AB74" s="55"/>
-      <c r="AC74" s="55"/>
-      <c r="AD74" s="56"/>
+      <c r="Y74" s="53"/>
+      <c r="Z74" s="54"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="53"/>
+      <c r="AC74" s="53"/>
+      <c r="AD74" s="54"/>
       <c r="AE74" s="6"/>
       <c r="AF74" s="7"/>
       <c r="AG74" s="7"/>
@@ -7645,12 +7564,12 @@
       <c r="AX74" s="8"/>
       <c r="AY74" s="42"/>
       <c r="AZ74" s="27"/>
-      <c r="BA74" s="55"/>
-      <c r="BB74" s="56"/>
-      <c r="BC74" s="54"/>
-      <c r="BD74" s="55"/>
-      <c r="BE74" s="55"/>
-      <c r="BF74" s="56"/>
+      <c r="BA74" s="53"/>
+      <c r="BB74" s="54"/>
+      <c r="BC74" s="52"/>
+      <c r="BD74" s="53"/>
+      <c r="BE74" s="53"/>
+      <c r="BF74" s="54"/>
       <c r="BG74" s="6"/>
       <c r="BH74" s="7"/>
       <c r="BI74" s="7"/>
@@ -7664,14 +7583,13 @@
       <c r="BQ74" s="7"/>
       <c r="BR74" s="8"/>
       <c r="BS74" s="6"/>
-      <c r="BT74" s="104"/>
+      <c r="BT74" s="94"/>
       <c r="BU74" s="27"/>
       <c r="BV74" s="28"/>
-      <c r="BW74" s="82"/>
-    </row>
-    <row r="75" spans="1:75" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="127"/>
-      <c r="B75" s="129"/>
+    </row>
+    <row r="75" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="167"/>
+      <c r="B75" s="154"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7688,18 +7606,18 @@
       <c r="P75" s="17"/>
       <c r="Q75" s="31"/>
       <c r="R75" s="32"/>
-      <c r="S75" s="60"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="62"/>
+      <c r="S75" s="58"/>
+      <c r="T75" s="59"/>
+      <c r="U75" s="59"/>
+      <c r="V75" s="60"/>
       <c r="W75" s="44"/>
       <c r="X75" s="31"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="62"/>
-      <c r="AA75" s="60"/>
-      <c r="AB75" s="61"/>
-      <c r="AC75" s="61"/>
-      <c r="AD75" s="62"/>
+      <c r="Y75" s="59"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="58"/>
+      <c r="AB75" s="59"/>
+      <c r="AC75" s="59"/>
+      <c r="AD75" s="60"/>
       <c r="AE75" s="16"/>
       <c r="AF75" s="17"/>
       <c r="AG75" s="17"/>
@@ -7722,12 +7640,12 @@
       <c r="AX75" s="18"/>
       <c r="AY75" s="44"/>
       <c r="AZ75" s="31"/>
-      <c r="BA75" s="61"/>
-      <c r="BB75" s="62"/>
-      <c r="BC75" s="60"/>
-      <c r="BD75" s="61"/>
-      <c r="BE75" s="61"/>
-      <c r="BF75" s="62"/>
+      <c r="BA75" s="59"/>
+      <c r="BB75" s="60"/>
+      <c r="BC75" s="58"/>
+      <c r="BD75" s="59"/>
+      <c r="BE75" s="59"/>
+      <c r="BF75" s="60"/>
       <c r="BG75" s="16"/>
       <c r="BH75" s="17"/>
       <c r="BI75" s="17"/>
@@ -7741,57 +7659,147 @@
       <c r="BQ75" s="17"/>
       <c r="BR75" s="18"/>
       <c r="BS75" s="16"/>
-      <c r="BT75" s="17"/>
+      <c r="BT75" s="96"/>
       <c r="BU75" s="31"/>
       <c r="BV75" s="32"/>
-      <c r="BW75" s="80"/>
-    </row>
-    <row r="78" spans="1:75" ht="16" x14ac:dyDescent="0.2">
-      <c r="B78" s="96" t="s">
+    </row>
+    <row r="77" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BE77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="B78" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="72"/>
-    </row>
-    <row r="79" spans="1:75" ht="16" x14ac:dyDescent="0.2">
-      <c r="B79" s="111" t="s">
+      <c r="C78" s="69"/>
+    </row>
+    <row r="79" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="B79" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="89"/>
+    </row>
+    <row r="80" spans="1:74" ht="16" x14ac:dyDescent="0.2">
+      <c r="B80" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="89"/>
+    </row>
+    <row r="81" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B81" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="89"/>
+    </row>
+    <row r="82" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B82" s="88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B83" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="C79" s="99"/>
-    </row>
-    <row r="80" spans="1:75" ht="16" x14ac:dyDescent="0.2">
-      <c r="B80" s="113" t="s">
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="99"/>
-    </row>
-    <row r="81" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B81" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="99"/>
-    </row>
-    <row r="82" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B82" s="98" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B83" s="112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="115" t="s">
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="110" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="120" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="C1:F1"/>
@@ -7816,94 +7824,8 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="46" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="48" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
+++ b/IPA Live/Zeitplanung/IPA-2020-Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC15343-D92B-E14B-8AF1-DD90F01B29D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C78AE5A-8E33-4249-A166-BA1662EEEA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="500" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1110,19 +1110,56 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,28 +1171,16 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1164,40 +1189,64 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1206,64 +1255,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1582,8 +1586,8 @@
   </sheetPr>
   <dimension ref="A1:BX85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="BX3" sqref="BX3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BR67" sqref="BR67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1600,236 +1604,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="121" t="s">
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="121" t="s">
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="121" t="s">
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="121" t="s">
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="121" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="123"/>
-      <c r="AA1" s="121" t="s">
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="146"/>
+      <c r="AA1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="123"/>
-      <c r="AE1" s="121" t="s">
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="146"/>
+      <c r="AE1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="121" t="s">
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="146"/>
+      <c r="AI1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="122"/>
-      <c r="AK1" s="122"/>
-      <c r="AL1" s="123"/>
-      <c r="AM1" s="121" t="s">
+      <c r="AJ1" s="145"/>
+      <c r="AK1" s="145"/>
+      <c r="AL1" s="146"/>
+      <c r="AM1" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="122"/>
-      <c r="AO1" s="122"/>
-      <c r="AP1" s="123"/>
-      <c r="AQ1" s="121" t="s">
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="146"/>
+      <c r="AQ1" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="122"/>
-      <c r="AS1" s="122"/>
-      <c r="AT1" s="123"/>
-      <c r="AU1" s="131" t="s">
+      <c r="AR1" s="145"/>
+      <c r="AS1" s="145"/>
+      <c r="AT1" s="146"/>
+      <c r="AU1" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AV1" s="132"/>
-      <c r="AW1" s="132"/>
-      <c r="AX1" s="133"/>
-      <c r="AY1" s="131" t="s">
+      <c r="AV1" s="139"/>
+      <c r="AW1" s="139"/>
+      <c r="AX1" s="140"/>
+      <c r="AY1" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AZ1" s="132"/>
-      <c r="BA1" s="132"/>
-      <c r="BB1" s="133"/>
-      <c r="BC1" s="131" t="s">
+      <c r="AZ1" s="139"/>
+      <c r="BA1" s="139"/>
+      <c r="BB1" s="140"/>
+      <c r="BC1" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="BD1" s="132"/>
-      <c r="BE1" s="132"/>
-      <c r="BF1" s="133"/>
-      <c r="BG1" s="161" t="s">
+      <c r="BD1" s="139"/>
+      <c r="BE1" s="139"/>
+      <c r="BF1" s="140"/>
+      <c r="BG1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="BH1" s="122"/>
-      <c r="BI1" s="122"/>
-      <c r="BJ1" s="123"/>
-      <c r="BK1" s="131" t="s">
+      <c r="BH1" s="145"/>
+      <c r="BI1" s="145"/>
+      <c r="BJ1" s="146"/>
+      <c r="BK1" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" s="132"/>
-      <c r="BM1" s="132"/>
-      <c r="BN1" s="133"/>
-      <c r="BO1" s="131" t="s">
+      <c r="BL1" s="139"/>
+      <c r="BM1" s="139"/>
+      <c r="BN1" s="140"/>
+      <c r="BO1" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="BP1" s="132"/>
-      <c r="BQ1" s="132"/>
-      <c r="BR1" s="133"/>
-      <c r="BS1" s="131" t="s">
+      <c r="BP1" s="139"/>
+      <c r="BQ1" s="139"/>
+      <c r="BR1" s="140"/>
+      <c r="BS1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="BT1" s="132"/>
-      <c r="BU1" s="132"/>
-      <c r="BV1" s="133"/>
+      <c r="BT1" s="139"/>
+      <c r="BU1" s="139"/>
+      <c r="BV1" s="140"/>
     </row>
     <row r="2" spans="1:74" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="130"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="134">
+      <c r="A2" s="174"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="165">
         <v>43948</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="134">
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="165">
         <v>43949</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="134">
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="165">
         <v>43950</v>
       </c>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="134">
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="165">
         <v>43951</v>
       </c>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="134">
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="165">
         <v>43952</v>
       </c>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="134">
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="165">
         <v>43953</v>
       </c>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="134">
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="165">
         <v>43954</v>
       </c>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="134">
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="165">
         <v>43955</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="134">
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="148"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="165">
         <v>43956</v>
       </c>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="136"/>
-      <c r="AM2" s="134">
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="165">
         <v>43957</v>
       </c>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="136"/>
-      <c r="AQ2" s="134">
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="148"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="165">
         <v>43958</v>
       </c>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="136"/>
-      <c r="AU2" s="124">
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="149"/>
+      <c r="AU2" s="141">
         <v>43959</v>
       </c>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="124">
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="143"/>
+      <c r="AY2" s="141">
         <v>43960</v>
       </c>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="124">
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="143"/>
+      <c r="BC2" s="141">
         <v>43961</v>
       </c>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="162">
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="143"/>
+      <c r="BG2" s="147">
         <v>43962</v>
       </c>
-      <c r="BH2" s="135"/>
-      <c r="BI2" s="135"/>
-      <c r="BJ2" s="136"/>
-      <c r="BK2" s="124">
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="149"/>
+      <c r="BK2" s="141">
         <v>43963</v>
       </c>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="125"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="124">
+      <c r="BL2" s="142"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="143"/>
+      <c r="BO2" s="141">
         <v>43964</v>
       </c>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="126"/>
-      <c r="BS2" s="124">
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="143"/>
+      <c r="BS2" s="141">
         <v>43965</v>
       </c>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="125"/>
-      <c r="BV2" s="125"/>
+      <c r="BT2" s="142"/>
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
     </row>
     <row r="3" spans="1:74" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="152"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2048,10 +2052,10 @@
       </c>
     </row>
     <row r="4" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="160" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="90"/>
@@ -2128,8 +2132,8 @@
       <c r="BV4" s="26"/>
     </row>
     <row r="5" spans="1:74" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
-      <c r="B5" s="120"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="95"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -2204,10 +2208,10 @@
       <c r="BV5" s="32"/>
     </row>
     <row r="6" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="137">
+      <c r="A6" s="163">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="133" t="s">
         <v>44</v>
       </c>
       <c r="C6" s="77"/>
@@ -2284,8 +2288,8 @@
       <c r="BV6" s="34"/>
     </row>
     <row r="7" spans="1:74" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128"/>
-      <c r="B7" s="150"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="95"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -2360,10 +2364,10 @@
       <c r="BV7" s="32"/>
     </row>
     <row r="8" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127">
+      <c r="A8" s="168">
         <v>2</v>
       </c>
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="160" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="90"/>
@@ -2440,8 +2444,8 @@
       <c r="BV8" s="26"/>
     </row>
     <row r="9" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="95"/>
       <c r="D9" s="96"/>
       <c r="E9" s="17"/>
@@ -2516,10 +2520,10 @@
       <c r="BV9" s="32"/>
     </row>
     <row r="10" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="137">
+      <c r="A10" s="163">
         <v>2.1</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="133" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="77"/>
@@ -2596,8 +2600,8 @@
       <c r="BV10" s="34"/>
     </row>
     <row r="11" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="138"/>
-      <c r="B11" s="141"/>
+      <c r="A11" s="164"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="97"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -2672,10 +2676,10 @@
       <c r="BV11" s="28"/>
     </row>
     <row r="12" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="138">
+      <c r="A12" s="164">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="155" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="6"/>
@@ -2752,8 +2756,8 @@
       <c r="BV12" s="28"/>
     </row>
     <row r="13" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
-      <c r="B13" s="142"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="16"/>
       <c r="D13" s="96"/>
       <c r="E13" s="17"/>
@@ -2828,10 +2832,10 @@
       <c r="BV13" s="32"/>
     </row>
     <row r="14" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="127">
+      <c r="A14" s="168">
         <v>3</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="160" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="4"/>
@@ -2908,8 +2912,8 @@
       <c r="BV14" s="26"/>
     </row>
     <row r="15" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
-      <c r="B15" s="120"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="96"/>
@@ -2984,10 +2988,10 @@
       <c r="BV15" s="32"/>
     </row>
     <row r="16" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="137">
+      <c r="A16" s="163">
         <v>3.1</v>
       </c>
-      <c r="B16" s="143" t="s">
+      <c r="B16" s="133" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="20"/>
@@ -3064,8 +3068,8 @@
       <c r="BV16" s="34"/>
     </row>
     <row r="17" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="138"/>
-      <c r="B17" s="147"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="99"/>
@@ -3140,10 +3144,10 @@
       <c r="BV17" s="28"/>
     </row>
     <row r="18" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="138">
+      <c r="A18" s="164">
         <v>3.2</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="155" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
@@ -3220,8 +3224,8 @@
       <c r="BV18" s="28"/>
     </row>
     <row r="19" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="142"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="158"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="96"/>
@@ -3296,10 +3300,10 @@
       <c r="BV19" s="32"/>
     </row>
     <row r="20" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="139">
+      <c r="A20" s="159">
         <v>4</v>
       </c>
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="160" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="4"/>
@@ -3376,8 +3380,8 @@
       <c r="BV20" s="26"/>
     </row>
     <row r="21" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="120"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -3452,10 +3456,10 @@
       <c r="BV21" s="32"/>
     </row>
     <row r="22" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="144">
+      <c r="A22" s="131">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="169" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="20"/>
@@ -3532,8 +3536,8 @@
       <c r="BV22" s="34"/>
     </row>
     <row r="23" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="145"/>
-      <c r="B23" s="147"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="162"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -3608,10 +3612,10 @@
       <c r="BV23" s="28"/>
     </row>
     <row r="24" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="145">
+      <c r="A24" s="156">
         <v>4.2</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="155" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="6"/>
@@ -3688,8 +3692,8 @@
       <c r="BV24" s="28"/>
     </row>
     <row r="25" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -3764,10 +3768,10 @@
       <c r="BV25" s="30"/>
     </row>
     <row r="26" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="139">
+      <c r="A26" s="159">
         <v>5</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="160" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="4"/>
@@ -3844,8 +3848,8 @@
       <c r="BV26" s="26"/>
     </row>
     <row r="27" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="145"/>
-      <c r="B27" s="160"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -3920,10 +3924,10 @@
       <c r="BV27" s="28"/>
     </row>
     <row r="28" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="145">
+      <c r="A28" s="156">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="155" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="6"/>
@@ -4000,8 +4004,8 @@
       <c r="BV28" s="46"/>
     </row>
     <row r="29" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="145"/>
-      <c r="B29" s="147"/>
+      <c r="A29" s="156"/>
+      <c r="B29" s="162"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -4076,10 +4080,10 @@
       <c r="BV29" s="28"/>
     </row>
     <row r="30" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="145">
+      <c r="A30" s="156">
         <v>5.2</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="155" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="6"/>
@@ -4156,8 +4160,8 @@
       <c r="BV30" s="28"/>
     </row>
     <row r="31" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="145"/>
-      <c r="B31" s="147"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="162"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -4232,10 +4236,10 @@
       <c r="BV31" s="28"/>
     </row>
     <row r="32" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="145">
+      <c r="A32" s="156">
         <v>5.3</v>
       </c>
-      <c r="B32" s="141" t="s">
+      <c r="B32" s="155" t="s">
         <v>19</v>
       </c>
       <c r="C32" s="6"/>
@@ -4312,8 +4316,8 @@
       <c r="BV32" s="28"/>
     </row>
     <row r="33" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="145"/>
-      <c r="B33" s="141"/>
+      <c r="A33" s="156"/>
+      <c r="B33" s="155"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -4388,10 +4392,10 @@
       <c r="BV33" s="28"/>
     </row>
     <row r="34" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="145">
+      <c r="A34" s="156">
         <v>5.4</v>
       </c>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="155" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="6"/>
@@ -4468,8 +4472,8 @@
       <c r="BV34" s="28"/>
     </row>
     <row r="35" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="145"/>
-      <c r="B35" s="141"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="155"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -4544,10 +4548,10 @@
       <c r="BV35" s="28"/>
     </row>
     <row r="36" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="159">
+      <c r="A36" s="154">
         <v>5.5</v>
       </c>
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="155" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="6"/>
@@ -4624,8 +4628,8 @@
       <c r="BV36" s="28"/>
     </row>
     <row r="37" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="159"/>
-      <c r="B37" s="141"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="155"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -4700,10 +4704,10 @@
       <c r="BV37" s="28"/>
     </row>
     <row r="38" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="159">
+      <c r="A38" s="154">
         <v>5.6</v>
       </c>
-      <c r="B38" s="141" t="s">
+      <c r="B38" s="155" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="6"/>
@@ -4780,8 +4784,8 @@
       <c r="BV38" s="28"/>
     </row>
     <row r="39" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="159"/>
-      <c r="B39" s="141"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -4856,10 +4860,10 @@
       <c r="BV39" s="28"/>
     </row>
     <row r="40" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="159">
+      <c r="A40" s="154">
         <v>5.7</v>
       </c>
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="155" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="6"/>
@@ -4936,8 +4940,8 @@
       <c r="BV40" s="28"/>
     </row>
     <row r="41" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="159"/>
-      <c r="B41" s="141"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="155"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -5012,10 +5016,10 @@
       <c r="BV41" s="28"/>
     </row>
     <row r="42" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="145">
+      <c r="A42" s="156">
         <v>5.8</v>
       </c>
-      <c r="B42" s="141" t="s">
+      <c r="B42" s="155" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="6"/>
@@ -5092,8 +5096,8 @@
       <c r="BV42" s="28"/>
     </row>
     <row r="43" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="140"/>
-      <c r="B43" s="142"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
@@ -5168,10 +5172,10 @@
       <c r="BV43" s="32"/>
     </row>
     <row r="44" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="139">
+      <c r="A44" s="159">
         <v>6</v>
       </c>
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="4"/>
@@ -5248,8 +5252,8 @@
       <c r="BV44" s="26"/>
     </row>
     <row r="45" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="140"/>
-      <c r="B45" s="154"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -5324,10 +5328,10 @@
       <c r="BV45" s="32"/>
     </row>
     <row r="46" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="155">
+      <c r="A46" s="152">
         <v>6.1</v>
       </c>
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="153" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="20"/>
@@ -5404,8 +5408,8 @@
       <c r="BV46" s="34"/>
     </row>
     <row r="47" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="158"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="137"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -5480,10 +5484,10 @@
       <c r="BV47" s="32"/>
     </row>
     <row r="48" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="164">
+      <c r="A48" s="130">
         <v>7</v>
       </c>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="128" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="4"/>
@@ -5560,8 +5564,8 @@
       <c r="BV48" s="26"/>
     </row>
     <row r="49" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="156"/>
-      <c r="B49" s="154"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="129"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
@@ -5622,11 +5626,11 @@
       <c r="BH49" s="17"/>
       <c r="BI49" s="96"/>
       <c r="BJ49" s="98"/>
-      <c r="BK49" s="168"/>
-      <c r="BL49" s="169"/>
+      <c r="BK49" s="119"/>
+      <c r="BL49" s="120"/>
       <c r="BM49" s="31"/>
       <c r="BN49" s="38"/>
-      <c r="BO49" s="173"/>
+      <c r="BO49" s="124"/>
       <c r="BP49" s="116"/>
       <c r="BQ49" s="17"/>
       <c r="BR49" s="18"/>
@@ -5636,10 +5640,10 @@
       <c r="BV49" s="32"/>
     </row>
     <row r="50" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="164">
+      <c r="A50" s="130">
         <v>7.1</v>
       </c>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="132" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="20"/>
@@ -5716,8 +5720,8 @@
       <c r="BV50" s="34"/>
     </row>
     <row r="51" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="144"/>
-      <c r="B51" s="143"/>
+      <c r="A51" s="131"/>
+      <c r="B51" s="133"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -5792,10 +5796,10 @@
       <c r="BV51" s="28"/>
     </row>
     <row r="52" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="148">
+      <c r="A52" s="134">
         <v>7.2</v>
       </c>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="135" t="s">
         <v>29</v>
       </c>
       <c r="C52" s="6"/>
@@ -5872,8 +5876,8 @@
       <c r="BV52" s="28"/>
     </row>
     <row r="53" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="144"/>
-      <c r="B53" s="143"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -5948,10 +5952,10 @@
       <c r="BV53" s="28"/>
     </row>
     <row r="54" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="148">
+      <c r="A54" s="134">
         <v>7.3</v>
       </c>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="135" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="6"/>
@@ -6028,8 +6032,8 @@
       <c r="BV54" s="28"/>
     </row>
     <row r="55" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="144"/>
-      <c r="B55" s="143"/>
+      <c r="A55" s="131"/>
+      <c r="B55" s="133"/>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6090,7 +6094,7 @@
       <c r="BH55" s="7"/>
       <c r="BI55" s="7"/>
       <c r="BJ55" s="100"/>
-      <c r="BK55" s="170"/>
+      <c r="BK55" s="121"/>
       <c r="BL55" s="7"/>
       <c r="BM55" s="27"/>
       <c r="BN55" s="36"/>
@@ -6104,10 +6108,10 @@
       <c r="BV55" s="28"/>
     </row>
     <row r="56" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="148">
+      <c r="A56" s="134">
         <v>7.4</v>
       </c>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="135" t="s">
         <v>31</v>
       </c>
       <c r="C56" s="6"/>
@@ -6184,8 +6188,8 @@
       <c r="BV56" s="28"/>
     </row>
     <row r="57" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="156"/>
-      <c r="B57" s="158"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="137"/>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -6246,11 +6250,11 @@
       <c r="BH57" s="11"/>
       <c r="BI57" s="11"/>
       <c r="BJ57" s="12"/>
-      <c r="BK57" s="171"/>
-      <c r="BL57" s="172"/>
+      <c r="BK57" s="122"/>
+      <c r="BL57" s="123"/>
       <c r="BM57" s="29"/>
       <c r="BN57" s="37"/>
-      <c r="BO57" s="174"/>
+      <c r="BO57" s="125"/>
       <c r="BP57" s="118"/>
       <c r="BQ57" s="11"/>
       <c r="BR57" s="12"/>
@@ -6260,10 +6264,10 @@
       <c r="BV57" s="30"/>
     </row>
     <row r="58" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="164">
+      <c r="A58" s="130">
         <v>8</v>
       </c>
-      <c r="B58" s="153" t="s">
+      <c r="B58" s="128" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="4"/>
@@ -6340,8 +6344,8 @@
       <c r="BV58" s="26"/>
     </row>
     <row r="59" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
-      <c r="B59" s="154"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="10"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -6406,20 +6410,20 @@
       <c r="BL59" s="118"/>
       <c r="BM59" s="29"/>
       <c r="BN59" s="37"/>
-      <c r="BO59" s="10"/>
-      <c r="BP59" s="11"/>
-      <c r="BQ59" s="11"/>
-      <c r="BR59" s="12"/>
+      <c r="BO59" s="175"/>
+      <c r="BP59" s="104"/>
+      <c r="BQ59" s="104"/>
+      <c r="BR59" s="176"/>
       <c r="BS59" s="10"/>
       <c r="BT59" s="11"/>
       <c r="BU59" s="29"/>
       <c r="BV59" s="30"/>
     </row>
     <row r="60" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="164">
+      <c r="A60" s="130">
         <v>8.1</v>
       </c>
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="132" t="s">
         <v>45</v>
       </c>
       <c r="C60" s="4"/>
@@ -6496,8 +6500,8 @@
       <c r="BV60" s="26"/>
     </row>
     <row r="61" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="144"/>
-      <c r="B61" s="143"/>
+      <c r="A61" s="131"/>
+      <c r="B61" s="133"/>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -6562,8 +6566,8 @@
       <c r="BL61" s="7"/>
       <c r="BM61" s="27"/>
       <c r="BN61" s="36"/>
-      <c r="BO61" s="20"/>
-      <c r="BP61" s="21"/>
+      <c r="BO61" s="177"/>
+      <c r="BP61" s="178"/>
       <c r="BQ61" s="7"/>
       <c r="BR61" s="8"/>
       <c r="BS61" s="6"/>
@@ -6572,10 +6576,10 @@
       <c r="BV61" s="28"/>
     </row>
     <row r="62" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="148">
+      <c r="A62" s="134">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62" s="163" t="s">
+      <c r="B62" s="135" t="s">
         <v>33</v>
       </c>
       <c r="C62" s="6"/>
@@ -6652,8 +6656,8 @@
       <c r="BV62" s="28"/>
     </row>
     <row r="63" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="144"/>
-      <c r="B63" s="143"/>
+      <c r="A63" s="131"/>
+      <c r="B63" s="133"/>
       <c r="C63" s="6"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -6719,19 +6723,19 @@
       <c r="BM63" s="27"/>
       <c r="BN63" s="36"/>
       <c r="BO63" s="6"/>
-      <c r="BP63" s="7"/>
-      <c r="BQ63" s="7"/>
-      <c r="BR63" s="8"/>
+      <c r="BP63" s="99"/>
+      <c r="BQ63" s="99"/>
+      <c r="BR63" s="100"/>
       <c r="BS63" s="6"/>
       <c r="BT63" s="7"/>
       <c r="BU63" s="27"/>
       <c r="BV63" s="28"/>
     </row>
     <row r="64" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="148">
+      <c r="A64" s="134">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B64" s="163" t="s">
+      <c r="B64" s="135" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="6"/>
@@ -6808,8 +6812,8 @@
       <c r="BV64" s="28"/>
     </row>
     <row r="65" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="144"/>
-      <c r="B65" s="143"/>
+      <c r="A65" s="131"/>
+      <c r="B65" s="133"/>
       <c r="C65" s="6"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
@@ -6877,17 +6881,17 @@
       <c r="BO65" s="6"/>
       <c r="BP65" s="7"/>
       <c r="BQ65" s="7"/>
-      <c r="BR65" s="8"/>
+      <c r="BR65" s="100"/>
       <c r="BS65" s="6"/>
       <c r="BT65" s="7"/>
       <c r="BU65" s="27"/>
       <c r="BV65" s="28"/>
     </row>
     <row r="66" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="148">
+      <c r="A66" s="134">
         <v>8.4</v>
       </c>
-      <c r="B66" s="163" t="s">
+      <c r="B66" s="135" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="6"/>
@@ -6964,8 +6968,8 @@
       <c r="BV66" s="28"/>
     </row>
     <row r="67" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="156"/>
-      <c r="B67" s="158"/>
+      <c r="A67" s="136"/>
+      <c r="B67" s="137"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
@@ -7033,17 +7037,17 @@
       <c r="BO67" s="16"/>
       <c r="BP67" s="17"/>
       <c r="BQ67" s="17"/>
-      <c r="BR67" s="18"/>
+      <c r="BR67" s="98"/>
       <c r="BS67" s="16"/>
       <c r="BT67" s="17"/>
       <c r="BU67" s="31"/>
       <c r="BV67" s="32"/>
     </row>
     <row r="68" spans="1:74" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="166">
+      <c r="A68" s="126">
         <v>9</v>
       </c>
-      <c r="B68" s="153" t="s">
+      <c r="B68" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="4"/>
@@ -7120,8 +7124,8 @@
       <c r="BV68" s="26"/>
     </row>
     <row r="69" spans="1:74" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="167"/>
-      <c r="B69" s="154"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="16"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
@@ -7196,10 +7200,10 @@
       <c r="BV69" s="32"/>
     </row>
     <row r="70" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="166">
+      <c r="A70" s="126">
         <v>10</v>
       </c>
-      <c r="B70" s="153" t="s">
+      <c r="B70" s="128" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="4"/>
@@ -7276,8 +7280,8 @@
       <c r="BV70" s="26"/>
     </row>
     <row r="71" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="167"/>
-      <c r="B71" s="154"/>
+      <c r="A71" s="127"/>
+      <c r="B71" s="129"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
@@ -7352,10 +7356,10 @@
       <c r="BV71" s="32"/>
     </row>
     <row r="72" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="166">
+      <c r="A72" s="126">
         <v>11</v>
       </c>
-      <c r="B72" s="153" t="s">
+      <c r="B72" s="128" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
@@ -7432,8 +7436,8 @@
       <c r="BV72" s="26"/>
     </row>
     <row r="73" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="167"/>
-      <c r="B73" s="154"/>
+      <c r="A73" s="127"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -7508,10 +7512,10 @@
       <c r="BV73" s="32"/>
     </row>
     <row r="74" spans="1:74" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="166">
+      <c r="A74" s="126">
         <v>12</v>
       </c>
-      <c r="B74" s="153" t="s">
+      <c r="B74" s="128" t="s">
         <v>38</v>
       </c>
       <c r="C74" s="6"/>
@@ -7588,8 +7592,8 @@
       <c r="BV74" s="28"/>
     </row>
     <row r="75" spans="1:74" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="167"/>
-      <c r="B75" s="154"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="129"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -7714,44 +7718,54 @@
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BG1:BJ1"/>
-    <mergeCell ref="BK1:BN1"/>
-    <mergeCell ref="BO1:BR1"/>
-    <mergeCell ref="BS1:BV1"/>
-    <mergeCell ref="BG2:BJ2"/>
-    <mergeCell ref="BK2:BN2"/>
-    <mergeCell ref="BO2:BR2"/>
-    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="AY2:BB2"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="B1:B3"/>
@@ -7776,54 +7790,44 @@
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BG1:BJ1"/>
+    <mergeCell ref="BK1:BN1"/>
+    <mergeCell ref="BO1:BR1"/>
+    <mergeCell ref="BS1:BV1"/>
+    <mergeCell ref="BG2:BJ2"/>
+    <mergeCell ref="BK2:BN2"/>
+    <mergeCell ref="BO2:BR2"/>
+    <mergeCell ref="BS2:BV2"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="48" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
